--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -122,18 +122,12 @@
     <t>30 wounds only</t>
   </si>
   <si>
-    <t>Avengers vs X-men</t>
-  </si>
-  <si>
     <t>CW</t>
   </si>
   <si>
     <t>Only two teams of heroes</t>
   </si>
   <si>
-    <t>Bathe earth in cosmic rays</t>
-  </si>
-  <si>
     <t>FF</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>HK</t>
   </si>
   <si>
-    <t>Brainwash the military</t>
-  </si>
-  <si>
     <t>C75</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>Specific card involved in evil winning the scheme</t>
   </si>
   <si>
-    <t>Build an army of annihilation</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -191,201 +179,81 @@
     <t>DC</t>
   </si>
   <si>
-    <t>Change the outcome of WWII</t>
-  </si>
-  <si>
-    <t>Corrupt the next gen of heroes</t>
-  </si>
-  <si>
     <t>Sidekick</t>
   </si>
   <si>
     <t>Might be a 2 for CRWD?</t>
   </si>
   <si>
-    <t>Crush them with my bare hands</t>
-  </si>
-  <si>
     <t>Can be broken with certain MM, e.g. Dark Phoenix</t>
   </si>
   <si>
     <t>Dark Alliance</t>
   </si>
   <si>
-    <t>Dark reign of HAMMER officers</t>
-  </si>
-  <si>
-    <t>Deadlands hordes charge the wall</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
-    <t>Deadpool kills the marvel universe</t>
-  </si>
-  <si>
     <t>DP</t>
   </si>
   <si>
     <t>Only one Deadpool hero</t>
   </si>
   <si>
-    <t>Deadpool wants a chimichanga</t>
-  </si>
-  <si>
     <t>Bystander</t>
   </si>
   <si>
     <t>1 if it interacts strongly with villains that capture bystanders</t>
   </si>
   <si>
-    <t>Deadpool writes a scheme</t>
-  </si>
-  <si>
-    <t>Detonate the helicarrier</t>
-  </si>
-  <si>
     <t>Extra mastermind</t>
   </si>
   <si>
-    <t>Enthrone the barons of battleworld</t>
-  </si>
-  <si>
     <t>Slightly harder with villains that can ascend</t>
   </si>
   <si>
     <t>Masterminds</t>
   </si>
   <si>
-    <t>Epic super hero civil war</t>
-  </si>
-  <si>
     <t>How does evil win? VE if # of villains escaped; SE if specific sort of card needs to escape (specify in EWH category); WO if wound stack runs out; LT if on (second to) last twist; HK if # of nongrey heroes KO'd or hero deck runs out; O means something entirely else</t>
   </si>
   <si>
-    <t>Everybody hates deadpool</t>
-  </si>
-  <si>
     <t>Easier with more DP heroes</t>
   </si>
   <si>
-    <t>Find the split personality killer</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Cluedo</t>
   </si>
   <si>
-    <t>Five families of crime</t>
-  </si>
-  <si>
-    <t>Flood the planet with melted glaciers</t>
-  </si>
-  <si>
     <t>Easier with higher average cost heroes</t>
   </si>
   <si>
-    <t>Forge the infinity gauntlet</t>
-  </si>
-  <si>
     <t>GG</t>
   </si>
   <si>
     <t>Infinity Gems</t>
   </si>
   <si>
-    <t>Fragmented realities</t>
-  </si>
-  <si>
-    <t>Go back in time to slay ancestors</t>
-  </si>
-  <si>
-    <t>Hidden heart of darkness</t>
-  </si>
-  <si>
-    <t>Horror of horrors</t>
-  </si>
-  <si>
     <t>Tactics</t>
   </si>
   <si>
-    <t>Imprison unregistered superhumans</t>
-  </si>
-  <si>
-    <t>Intergalactic Kree Nega-bomb</t>
-  </si>
-  <si>
-    <t>Invade the daily bugle news hq</t>
-  </si>
-  <si>
     <t>PTT</t>
   </si>
   <si>
     <t>villains in hq</t>
   </si>
   <si>
-    <t>Invincible force-field</t>
-  </si>
-  <si>
-    <t>Massive earthquake generator</t>
-  </si>
-  <si>
     <t>Master of Tyrants</t>
   </si>
   <si>
     <t>3 extra masterminds (tactics only)</t>
   </si>
   <si>
-    <t>Master the mysteries of kung fu</t>
-  </si>
-  <si>
-    <t>Midtown bank robbery</t>
-  </si>
-  <si>
-    <t>Mutant-hunting super sentinels</t>
-  </si>
-  <si>
-    <t>Negative zone prison breakout</t>
-  </si>
-  <si>
-    <t>Nitro the supervillain threatens crowds</t>
-  </si>
-  <si>
-    <t>Nuclear armageddon</t>
-  </si>
-  <si>
-    <t>Organized crime-wave</t>
-  </si>
-  <si>
     <t>Maggia Goons</t>
   </si>
   <si>
-    <t>Pan-dimensional plague</t>
-  </si>
-  <si>
-    <t>Portals to the dark dimension</t>
-  </si>
-  <si>
-    <t>Predict future crime</t>
-  </si>
-  <si>
-    <t>Pull reality in the negative zone</t>
-  </si>
-  <si>
-    <t>Replace earth's leaders with killbots</t>
-  </si>
-  <si>
-    <t>Reveal heroes' secret identities</t>
-  </si>
-  <si>
-    <t>Save humanity</t>
-  </si>
-  <si>
-    <t>Secret invasion of skrull shapeshifters</t>
-  </si>
-  <si>
     <t>Heroes</t>
   </si>
   <si>
@@ -398,93 +266,30 @@
     <t>Three extra masterminds</t>
   </si>
   <si>
-    <t>Silence the witnesses</t>
-  </si>
-  <si>
-    <t>Sinister ambitions</t>
-  </si>
-  <si>
     <t>Ambition</t>
   </si>
   <si>
-    <t>Smash dimensions together</t>
-  </si>
-  <si>
-    <t>Splice humans with spider DNA</t>
-  </si>
-  <si>
     <t>Sinister Six</t>
   </si>
   <si>
-    <t>Steal the weaponized plutonium</t>
-  </si>
-  <si>
-    <t>Super hero civil war</t>
-  </si>
-  <si>
-    <t>Televised deathtraps of mojoworld</t>
-  </si>
-  <si>
-    <t>The clone saga</t>
-  </si>
-  <si>
-    <t>The dark phoenix saga</t>
-  </si>
-  <si>
     <t>Jean Grey</t>
   </si>
   <si>
-    <t>The fountain of eternal life</t>
-  </si>
-  <si>
     <t>Also LT</t>
   </si>
   <si>
-    <t>The god-emperor of battleworld</t>
-  </si>
-  <si>
-    <t>The Kree-Skrull war</t>
-  </si>
-  <si>
     <t>Kree Starforce and Skrulls as villains</t>
   </si>
   <si>
-    <t>The Legacy virus</t>
-  </si>
-  <si>
-    <t>The mark of Khonshu</t>
-  </si>
-  <si>
     <t>Khonshu</t>
   </si>
   <si>
-    <t>The unbreakable enigma code</t>
-  </si>
-  <si>
-    <t>Transform citizens into demons</t>
-  </si>
-  <si>
-    <t>United states split by civil war</t>
-  </si>
-  <si>
     <t>City manipulation</t>
   </si>
   <si>
-    <t>Unite the shards</t>
-  </si>
-  <si>
     <t>Interacts poorly with a lot of shards heroes</t>
   </si>
   <si>
-    <t>Unleash the power of the cosmic cube</t>
-  </si>
-  <si>
-    <t>Weave a web of lies</t>
-  </si>
-  <si>
-    <t>X-cutioners's song</t>
-  </si>
-  <si>
     <t>Also escaping with heroes</t>
   </si>
   <si>
@@ -533,9 +338,6 @@
     <t>Idem for villains</t>
   </si>
   <si>
-    <t>X-men danger room goes berserk</t>
-  </si>
-  <si>
     <t>World War Hulk</t>
   </si>
   <si>
@@ -545,24 +347,12 @@
     <t>Three extra masterminds (lurking)</t>
   </si>
   <si>
-    <t>Subjugate with obedience disks</t>
-  </si>
-  <si>
-    <t>Shoot Hulk into space</t>
-  </si>
-  <si>
     <t>Hulk</t>
   </si>
   <si>
     <t>Hulk in extra deck</t>
   </si>
   <si>
-    <t>Mutating gamma rays</t>
-  </si>
-  <si>
-    <t>Gladiator pits of Sakaar</t>
-  </si>
-  <si>
     <t>Harder with high team diversity</t>
   </si>
   <si>
@@ -572,27 +362,9 @@
     <t>Two Hulks included</t>
   </si>
   <si>
-    <t>Cytoplasm spike invasion</t>
-  </si>
-  <si>
     <t>Include Cytoplasm spike henchmen</t>
   </si>
   <si>
-    <t>Break the planet asunder</t>
-  </si>
-  <si>
-    <t>Clash of the monsters unleashed</t>
-  </si>
-  <si>
-    <t>Hypnotize every human</t>
-  </si>
-  <si>
-    <t>Divide and conquer</t>
-  </si>
-  <si>
-    <t>Steal all oxygen on earth</t>
-  </si>
-  <si>
     <t>Combines terribly with city space heroes</t>
   </si>
   <si>
@@ -620,18 +392,12 @@
     <t>Invasion of the Venom Symbiotes</t>
   </si>
   <si>
-    <t>Maximum Carnage</t>
-  </si>
-  <si>
     <t>6 wounds per player</t>
   </si>
   <si>
     <t>Paralyzing Venom</t>
   </si>
   <si>
-    <t>Pull earth into medieval times</t>
-  </si>
-  <si>
     <t>Scavenge Alien Weaponry</t>
   </si>
   <si>
@@ -641,15 +407,9 @@
     <t>Extra mastermind and his group</t>
   </si>
   <si>
-    <t>Transform commuters into giant ants</t>
-  </si>
-  <si>
     <t>Twists is nr of players +6</t>
   </si>
   <si>
-    <t>Trap heroes in the microverse</t>
-  </si>
-  <si>
     <t>Spiderman</t>
   </si>
   <si>
@@ -671,12 +431,6 @@
     <t>Requires 4 X-men and 2 non-X-men.</t>
   </si>
   <si>
-    <t>Earthquake drains the ocean</t>
-  </si>
-  <si>
-    <t>Secret Hydra Corruption</t>
-  </si>
-  <si>
     <t>Shield Officers next to scheme or gone</t>
   </si>
   <si>
@@ -686,15 +440,6 @@
     <t>AOS</t>
   </si>
   <si>
-    <t>Hydra Helicarriers hunt heroes</t>
-  </si>
-  <si>
-    <t>Secret empire of betrayal</t>
-  </si>
-  <si>
-    <t>SHIELD vs HYDRA War</t>
-  </si>
-  <si>
     <t>Asgardian Test of Worth</t>
   </si>
   <si>
@@ -704,9 +449,6 @@
     <t>Requires worthy heroes</t>
   </si>
   <si>
-    <t>War of the Frost Giant</t>
-  </si>
-  <si>
     <t>Scheme Twist</t>
   </si>
   <si>
@@ -716,18 +458,12 @@
     <t>Ragnarok, Twilight of the Gods</t>
   </si>
   <si>
-    <t>Crash the moon into the sun</t>
-  </si>
-  <si>
     <t>NM</t>
   </si>
   <si>
     <t>Benefits from HQ filtering</t>
   </si>
   <si>
-    <t>Trapped in the insane asylum</t>
-  </si>
-  <si>
     <t>The Demon Bear Saga</t>
   </si>
   <si>
@@ -749,18 +485,12 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>Cage villains in power-suppressing cells</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>Also requires a few cops.</t>
   </si>
   <si>
-    <t>Build an underground mega-vault prison</t>
-  </si>
-  <si>
     <t>Crown Thor King of Asgard</t>
   </si>
   <si>
@@ -797,9 +527,6 @@
     <t>2:3;5:2</t>
   </si>
   <si>
-    <t>Infiltrate the lair with spies</t>
-  </si>
-  <si>
     <t>Last Stand at Avengers Tower</t>
   </si>
   <si>
@@ -809,9 +536,6 @@
     <t>SHIELD Assault Squad</t>
   </si>
   <si>
-    <t>Resurrect heroes with the Norn stones</t>
-  </si>
-  <si>
     <t>The Traitor</t>
   </si>
   <si>
@@ -822,6 +546,282 @@
   </si>
   <si>
     <t>Hero that needs to be included. Refers to the Name_S category! CUSTOM if a specific setup is required (hardcoded)</t>
+  </si>
+  <si>
+    <t>Avengers vs. X-Men</t>
+  </si>
+  <si>
+    <t>Bathe the Earth in Cosmic Rays</t>
+  </si>
+  <si>
+    <t>Brainwash the Military</t>
+  </si>
+  <si>
+    <t>Break the Planet Asunder</t>
+  </si>
+  <si>
+    <t>Build an Army of Annihilation</t>
+  </si>
+  <si>
+    <t>Build an Underground MegaVault Prison</t>
+  </si>
+  <si>
+    <t>Cage Villains in Power-Suppressing Cells</t>
+  </si>
+  <si>
+    <t>Change the Outcome of WWII</t>
+  </si>
+  <si>
+    <t>Clash of the Monsters Unleashed</t>
+  </si>
+  <si>
+    <t>Corrupt the Next Generation of Heroes</t>
+  </si>
+  <si>
+    <t>Crash the Moon into the Sun</t>
+  </si>
+  <si>
+    <t>Crush Them With My Bare Hands</t>
+  </si>
+  <si>
+    <t>Cytoplasm Spike Invasion</t>
+  </si>
+  <si>
+    <t>Dark Reign of H.A.M.M.E.R. Officers</t>
+  </si>
+  <si>
+    <t>Deadlands Hordes Charge the Wall</t>
+  </si>
+  <si>
+    <t>Deadpool Kills the Marvel Universe</t>
+  </si>
+  <si>
+    <t>Deadpool Wants a Chimichanga</t>
+  </si>
+  <si>
+    <t>Deadpool Writes a Scheme</t>
+  </si>
+  <si>
+    <t>Detonate the Helicarrier</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Earthquake Drains the Ocean</t>
+  </si>
+  <si>
+    <t>Enthrone the Barons of Battleworld</t>
+  </si>
+  <si>
+    <t>Epic Super Hero Civil War</t>
+  </si>
+  <si>
+    <t>Everybody Hates Deadpool</t>
+  </si>
+  <si>
+    <t>Find the Split Personality Killer</t>
+  </si>
+  <si>
+    <t>Five Families of Crime</t>
+  </si>
+  <si>
+    <t>Flood the Planet with Melted Glaciers</t>
+  </si>
+  <si>
+    <t>Forge the Infinity Gauntlet</t>
+  </si>
+  <si>
+    <t>Fragmented Realities</t>
+  </si>
+  <si>
+    <t>Gladiator Pits of Sakaar</t>
+  </si>
+  <si>
+    <t>Go Back in Time to Slay Heroes' Ancestors</t>
+  </si>
+  <si>
+    <t>Hidden Heart of Darkness</t>
+  </si>
+  <si>
+    <t>Horror of Horrors</t>
+  </si>
+  <si>
+    <t>Hydra Helicarriers Hunt Heroes</t>
+  </si>
+  <si>
+    <t>Hypnotize Every Human</t>
+  </si>
+  <si>
+    <t>Imprison Unregistered Superhumans</t>
+  </si>
+  <si>
+    <t>Invade the Daily Bugle News HQ</t>
+  </si>
+  <si>
+    <t>Invincible Force Field</t>
+  </si>
+  <si>
+    <t>Massive Earthquake Generator</t>
+  </si>
+  <si>
+    <t>Master the Mysteries of Kung-Fu</t>
+  </si>
+  <si>
+    <t>Midtown Bank Robbery</t>
+  </si>
+  <si>
+    <t>Mutant-Hunting Super Sentinels</t>
+  </si>
+  <si>
+    <t>Mutating Gamma Rays</t>
+  </si>
+  <si>
+    <t>Negative Zone Prison Breakout</t>
+  </si>
+  <si>
+    <t>Nitro the Supervillain Threatens Crowds</t>
+  </si>
+  <si>
+    <t>Nuclear Armageddon</t>
+  </si>
+  <si>
+    <t>Organized Crime Wave</t>
+  </si>
+  <si>
+    <t>Pan-Dimensional Plague</t>
+  </si>
+  <si>
+    <t>Portals to the Dark Dimension</t>
+  </si>
+  <si>
+    <t>Predict Future Crime</t>
+  </si>
+  <si>
+    <t>Pull Earth into Medieval Times</t>
+  </si>
+  <si>
+    <t>Replace Earth's Leaders with Killbots</t>
+  </si>
+  <si>
+    <t>Reveal Heroes' Secret Identities</t>
+  </si>
+  <si>
+    <t>Save Humanity</t>
+  </si>
+  <si>
+    <t>Secret Empire of Betrayal</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. vs. HYDRA War</t>
+  </si>
+  <si>
+    <t>Secret Invasion of the Skrull Shapeshifters</t>
+  </si>
+  <si>
+    <t>Shoot Hulk into Space</t>
+  </si>
+  <si>
+    <t>Silence the Witnesses</t>
+  </si>
+  <si>
+    <t>Sinister Ambitions</t>
+  </si>
+  <si>
+    <t>Smash Two Dimensions Together</t>
+  </si>
+  <si>
+    <t>Splice Humans with Spider DNA</t>
+  </si>
+  <si>
+    <t>Steal All Oxygen on Earth</t>
+  </si>
+  <si>
+    <t>Steal the Weaponized Plutonium</t>
+  </si>
+  <si>
+    <t>Subjugate with Obedience Disks</t>
+  </si>
+  <si>
+    <t>Super Hero Civil War</t>
+  </si>
+  <si>
+    <t>Televised Deathtraps of Mojoworld</t>
+  </si>
+  <si>
+    <t>The Clone Saga</t>
+  </si>
+  <si>
+    <t>The Dark Phoenix Saga</t>
+  </si>
+  <si>
+    <t>The Fountain of Eternal Life</t>
+  </si>
+  <si>
+    <t>The God-Emperor of Battleworld</t>
+  </si>
+  <si>
+    <t>The Legacy Virus</t>
+  </si>
+  <si>
+    <t>The Mark of Khonshu</t>
+  </si>
+  <si>
+    <t>The Unbreakable Enigma Code</t>
+  </si>
+  <si>
+    <t>Transform Commuters into Giant Ants</t>
+  </si>
+  <si>
+    <t>Trap Heroes in the Microverse</t>
+  </si>
+  <si>
+    <t>Trapped in the Insane Asylum</t>
+  </si>
+  <si>
+    <t>Unite the Shards</t>
+  </si>
+  <si>
+    <t>United States Split by Civil War</t>
+  </si>
+  <si>
+    <t>Unleash the Power of the Cosmic Cube</t>
+  </si>
+  <si>
+    <t>Weave a Web of Lies</t>
+  </si>
+  <si>
+    <t>X-Men Danger Room Goes Berserk</t>
+  </si>
+  <si>
+    <t>X-Cutioner's Song</t>
+  </si>
+  <si>
+    <t>War of the Frost Giants</t>
+  </si>
+  <si>
+    <t>Transform Citizens Into Demons</t>
+  </si>
+  <si>
+    <t>The Kree-Skrull War</t>
+  </si>
+  <si>
+    <t>Secret HYDRA Corruption</t>
+  </si>
+  <si>
+    <t>Resurrect Heroes with Norn Stones</t>
+  </si>
+  <si>
+    <t>Pull Reality Into the Negative Zone</t>
+  </si>
+  <si>
+    <t>Intergalactic Kree Nega-Bomb</t>
+  </si>
+  <si>
+    <t>Infiltrate the Lair with Spies</t>
+  </si>
+  <si>
+    <t>Maximum carnage</t>
   </si>
 </sst>
 </file>
@@ -1177,9 +1177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1256,40 +1256,40 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -1298,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
         <v>32</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1350,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
         <v>34</v>
@@ -1358,27 +1358,27 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -1387,24 +1387,24 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="V6" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1413,15 +1413,15 @@
         <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1430,21 +1430,21 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1453,27 +1453,27 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1493,32 +1493,32 @@
         <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -1527,15 +1527,15 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1564,15 +1564,15 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -1581,38 +1581,38 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>11</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R17" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1621,21 +1621,21 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q18" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="R18" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1644,35 +1644,35 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q19" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1684,55 +1684,55 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R21" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -1741,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1761,24 +1761,24 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S25" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="V25" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>193</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C26" s="4">
         <v>6</v>
@@ -1787,36 +1787,36 @@
         <v>1</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="T26" s="6"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -1825,38 +1825,38 @@
         <v>2</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S28" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R29" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="V29" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -1880,15 +1880,15 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S30" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1900,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -1908,30 +1908,30 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="P32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q32" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R32" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -1940,15 +1940,15 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -1957,21 +1957,21 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R34" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="V34" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -1980,18 +1980,18 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q35" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:24" s="4" customFormat="1">
       <c r="A36" s="4" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
@@ -2000,35 +2000,35 @@
         <v>1</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:24" s="5" customFormat="1">
       <c r="A37" s="5" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="C37" s="5">
         <v>10</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -2040,35 +2040,35 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q38" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q39" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="P40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T40">
         <v>2</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -2097,38 +2097,38 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R41" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="P42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q42" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="X42" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -2137,10 +2137,10 @@
         <v>2</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R43" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2160,66 +2160,66 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R44" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>9</v>
       </c>
       <c r="P45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S45" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="P46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="C47">
         <v>11</v>
       </c>
       <c r="P47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C48">
         <v>8</v>
@@ -2228,15 +2228,15 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q48" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
@@ -2245,12 +2245,12 @@
         <v>6</v>
       </c>
       <c r="P49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2259,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -2268,18 +2268,18 @@
         <v>2</v>
       </c>
       <c r="P50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R50" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -2288,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="P51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -2296,10 +2296,10 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>11</v>
@@ -2334,18 +2334,18 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q53" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B54" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2357,18 +2357,18 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q54" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -2377,24 +2377,24 @@
         <v>2</v>
       </c>
       <c r="P55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
       <c r="P56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q56" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="U56">
         <v>1</v>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -2422,24 +2422,24 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58">
         <v>7</v>
       </c>
       <c r="P58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -2448,15 +2448,15 @@
         <v>2</v>
       </c>
       <c r="P59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C60">
         <v>8</v>
@@ -2468,15 +2468,15 @@
         <v>2</v>
       </c>
       <c r="P60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -2485,21 +2485,21 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q61" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="W61" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C62">
         <v>8</v>
@@ -2508,21 +2508,21 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q62" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="R62" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -2531,15 +2531,15 @@
         <v>2</v>
       </c>
       <c r="P63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -2551,18 +2551,18 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q64" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="R64" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2577,15 +2577,15 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q65" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -2597,44 +2597,44 @@
         <v>2</v>
       </c>
       <c r="P66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q66" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="U66">
         <v>1</v>
       </c>
       <c r="W66" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C67">
         <v>7</v>
       </c>
       <c r="P67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R67" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="S67">
         <v>1</v>
       </c>
       <c r="V67" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U68">
         <v>1</v>
@@ -2654,10 +2654,10 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -2669,15 +2669,15 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q69" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
         <v>31</v>
@@ -2686,15 +2686,15 @@
         <v>5</v>
       </c>
       <c r="P70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C71">
         <v>8</v>
@@ -2703,21 +2703,21 @@
         <v>2</v>
       </c>
       <c r="P71" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q71" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="W71" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>10</v>
@@ -2726,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="P72" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R72" t="s">
         <v>34</v>
@@ -2734,10 +2734,10 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -2746,12 +2746,12 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -2760,15 +2760,15 @@
         <v>7</v>
       </c>
       <c r="P74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="P75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T75">
         <v>1</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -2797,29 +2797,29 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>8</v>
       </c>
       <c r="P77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -2828,12 +2828,12 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -2845,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q79" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -2856,7 +2856,7 @@
         <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -2865,32 +2865,32 @@
         <v>2</v>
       </c>
       <c r="P80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>6</v>
       </c>
       <c r="P81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S81" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82">
         <v>8</v>
@@ -2905,18 +2905,18 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q82" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -2925,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="P83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U83">
         <v>1</v>
@@ -2933,10 +2933,10 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="C84">
         <v>11</v>
@@ -2945,12 +2945,12 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -2959,15 +2959,15 @@
         <v>9</v>
       </c>
       <c r="P85" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R85" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -2979,87 +2979,87 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q86" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="R86" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="S86" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="X86" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C87">
         <v>8</v>
       </c>
       <c r="P87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R87" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:24" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="C88" s="4">
         <v>7</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q88" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
       <c r="P89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R89" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="S89">
         <v>1</v>
       </c>
       <c r="V89" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -3068,18 +3068,18 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q90" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -3088,18 +3088,18 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q91" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C92">
         <v>8</v>
@@ -3108,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="P92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T92">
         <v>1</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C93">
         <v>8</v>
@@ -3128,21 +3128,21 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q93" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="X93" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="C94">
         <v>8</v>
@@ -3151,21 +3151,21 @@
         <v>2</v>
       </c>
       <c r="P94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C95">
         <v>8</v>
       </c>
       <c r="P95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T95">
         <v>1</v>
@@ -3173,21 +3173,21 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C96">
         <v>11</v>
       </c>
       <c r="P96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -3199,18 +3199,18 @@
         <v>2</v>
       </c>
       <c r="P97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S97" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -3219,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="P98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T98">
         <v>1</v>
@@ -3227,24 +3227,24 @@
     </row>
     <row r="99" spans="1:24" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C99" s="4">
         <v>11</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -3256,15 +3256,15 @@
         <v>2</v>
       </c>
       <c r="P100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C101">
         <v>8</v>
@@ -3273,12 +3273,12 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
@@ -3290,55 +3290,55 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q102" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="X102" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C103">
         <v>10</v>
       </c>
       <c r="P103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="C104">
         <v>8</v>
       </c>
       <c r="P104" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q104" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="X104" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -3347,18 +3347,18 @@
         <v>2</v>
       </c>
       <c r="P105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R105" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C106">
         <v>8</v>
@@ -3367,12 +3367,12 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3381,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -3390,35 +3390,35 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R107" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:24" s="4" customFormat="1">
       <c r="A108" s="4" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C108" s="4">
         <v>8</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -3433,15 +3433,15 @@
         <v>2</v>
       </c>
       <c r="P109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C110">
         <v>10</v>
@@ -3450,52 +3450,52 @@
         <v>2</v>
       </c>
       <c r="P110" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q110" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="S110">
         <v>1</v>
       </c>
       <c r="W110" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="C111">
         <v>8</v>
       </c>
       <c r="P111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C112">
         <v>6</v>
       </c>
       <c r="P112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -3504,35 +3504,35 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q113" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C114">
         <v>8</v>
       </c>
       <c r="P114" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R114" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>11</v>
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S115">
         <v>1</v>
@@ -3549,55 +3549,55 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="C116">
         <v>5</v>
       </c>
       <c r="P116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="B117" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C117">
         <v>7</v>
       </c>
       <c r="P117" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R117" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118">
         <v>10</v>
       </c>
       <c r="P118" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R118" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -3606,15 +3606,15 @@
         <v>8</v>
       </c>
       <c r="P119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -3623,49 +3623,49 @@
         <v>2</v>
       </c>
       <c r="P120" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q120" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:19">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C121">
         <v>7</v>
       </c>
       <c r="P121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:19">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C122">
         <v>9</v>
       </c>
       <c r="P122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R122" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:19">
       <c r="A123" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C123">
         <v>8</v>
@@ -3674,10 +3674,10 @@
         <v>2</v>
       </c>
       <c r="P123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R123" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="S123">
         <v>1</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -3694,7 +3694,7 @@
         <v>8</v>
       </c>
       <c r="P124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -3836,23 +3836,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3865,50 +3865,50 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -533,9 +533,6 @@
     <t>Mass Produce War Machine Armor</t>
   </si>
   <si>
-    <t>SHIELD Assault Squad</t>
-  </si>
-  <si>
     <t>The Traitor</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>Maximum carnage</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. Assault Squad</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="W62" sqref="W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>108</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>156</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
         <v>156</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
         <v>94</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
         <v>147</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>59</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
         <v>94</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
         <v>68</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
         <v>68</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
         <v>140</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B54" t="s">
         <v>156</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
@@ -2488,10 +2488,10 @@
         <v>45</v>
       </c>
       <c r="Q61" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="W61" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -2519,7 +2519,7 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B69" t="s">
         <v>35</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
         <v>31</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
         <v>53</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s">
         <v>118</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B80" t="s">
         <v>156</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
         <v>140</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="88" spans="1:24" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>140</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
         <v>108</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B90" t="s">
         <v>68</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B92" t="s">
         <v>49</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B93" t="s">
         <v>74</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B96" t="s">
         <v>108</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B101" t="s">
         <v>74</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s">
         <v>58</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B106" t="s">
         <v>58</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="108" spans="1:24" s="4" customFormat="1">
       <c r="A108" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>71</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
         <v>164</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B113" t="s">
         <v>53</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
         <v>118</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s">
         <v>118</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B116" t="s">
         <v>147</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B117" t="s">
         <v>71</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
         <v>35</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B120" t="s">
         <v>142</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="121" spans="1:19">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
         <v>74</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="123" spans="1:19">
       <c r="A123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B123" t="s">
         <v>53</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -3868,7 +3868,7 @@
         <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3876,7 +3876,7 @@
         <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3892,7 +3892,7 @@
         <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:2">

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1178,8 +1178,8 @@
   <dimension ref="A1:Y124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W62" sqref="W62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1392,9 +1392,6 @@
       <c r="R6" t="s">
         <v>36</v>
       </c>
-      <c r="S6" t="s">
-        <v>167</v>
-      </c>
       <c r="V6" t="s">
         <v>154</v>
       </c>
@@ -2272,6 +2269,9 @@
       </c>
       <c r="R50" t="s">
         <v>137</v>
+      </c>
+      <c r="V50" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:23">

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="schemes" sheetId="1" r:id="rId1"/>
     <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="327">
   <si>
     <t>Name</t>
   </si>
@@ -347,9 +347,6 @@
     <t>Three extra masterminds (lurking)</t>
   </si>
   <si>
-    <t>Hulk</t>
-  </si>
-  <si>
     <t>Hulk in extra deck</t>
   </si>
   <si>
@@ -476,9 +473,6 @@
     <t>Superhuman Baseball Game</t>
   </si>
   <si>
-    <t>Hydra Elite</t>
-  </si>
-  <si>
     <t>CUSTOM</t>
   </si>
   <si>
@@ -822,6 +816,186 @@
   </si>
   <si>
     <t>S.H.I.E.L.D. Assault Squad</t>
+  </si>
+  <si>
+    <t>BSCt</t>
+  </si>
+  <si>
+    <t>Number of bystanders in villain deck. If negative, number of bystanders in hero deck (and default number in villain deck). Leave empty if standard.</t>
+  </si>
+  <si>
+    <t>WndCT</t>
+  </si>
+  <si>
+    <t>WndCt</t>
+  </si>
+  <si>
+    <t>Number of wounds in stack. Use * to multiply by playercount.</t>
+  </si>
+  <si>
+    <t>otherspecial</t>
+  </si>
+  <si>
+    <t>add shield officers to villain deck</t>
+  </si>
+  <si>
+    <t>Put extra HM group in KO pile</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>Put cops next to scheme</t>
+  </si>
+  <si>
+    <t>baby hope token</t>
+  </si>
+  <si>
+    <t>6*</t>
+  </si>
+  <si>
+    <t>put monsters unleashed villains in separate pile</t>
+  </si>
+  <si>
+    <t>add sidekicks to villain deck</t>
+  </si>
+  <si>
+    <t>Add Thor villian</t>
+  </si>
+  <si>
+    <t>Shuffle 20 bystanders and 10 cytoplasm in separate pile</t>
+  </si>
+  <si>
+    <t>2:6;4:5</t>
+  </si>
+  <si>
+    <t>2:0;3:1</t>
+  </si>
+  <si>
+    <t>Not specific hero, but team</t>
+  </si>
+  <si>
+    <t>2:9;4:6</t>
+  </si>
+  <si>
+    <t>Make special deck with wounds and bystanders</t>
+  </si>
+  <si>
+    <t>HQ starts bigger than normal</t>
+  </si>
+  <si>
+    <t>villian deck split in 5</t>
+  </si>
+  <si>
+    <t>Split villain deck in pile for each player, then add 2 twists to each pile</t>
+  </si>
+  <si>
+    <t>2*</t>
+  </si>
+  <si>
+    <t>Put 8 bystanders next to scheme</t>
+  </si>
+  <si>
+    <t>tactics in villain deck</t>
+  </si>
+  <si>
+    <t>Scarlet Witch in villain deck</t>
+  </si>
+  <si>
+    <t>21 bystanders next to scheme</t>
+  </si>
+  <si>
+    <t>6 bystanders in separate pile</t>
+  </si>
+  <si>
+    <t>6 henchmen in hero deck</t>
+  </si>
+  <si>
+    <t>3 extra masterminds, put tactics in villain deck</t>
+  </si>
+  <si>
+    <t>Add extra hulk in separate deck</t>
+  </si>
+  <si>
+    <t>3 twists next to scheme</t>
+  </si>
+  <si>
+    <t>identify which group is the smugglers</t>
+  </si>
+  <si>
+    <t>Choose extra hero and pick 5 cards with cost &lt;5</t>
+  </si>
+  <si>
+    <t>only 30 officers</t>
+  </si>
+  <si>
+    <t>2:9;4:11</t>
+  </si>
+  <si>
+    <t>Shuffle 12 hero cards in villain deck</t>
+  </si>
+  <si>
+    <t>Hulk;Hulk</t>
+  </si>
+  <si>
+    <t>Hydra Elite|A.I.M. Hydra Offshoot</t>
+  </si>
+  <si>
+    <t>Put Hulk in extra deck</t>
+  </si>
+  <si>
+    <t>ambition cards in villain deck</t>
+  </si>
+  <si>
+    <t>City modified</t>
+  </si>
+  <si>
+    <t>2:8;4:5</t>
+  </si>
+  <si>
+    <t>Villain deck moved off board, city modified</t>
+  </si>
+  <si>
+    <t>add extra mastermind with its villain group</t>
+  </si>
+  <si>
+    <t>Jean Grey in villain deck</t>
+  </si>
+  <si>
+    <t>Demon Bear next to scheme</t>
+  </si>
+  <si>
+    <t>Skrulls;Kree Starforce</t>
+  </si>
+  <si>
+    <t>Extra hero in villain deck</t>
+  </si>
+  <si>
+    <t>jean grey in villain deck</t>
+  </si>
+  <si>
+    <t>2:8;3:9;4:10;5:11</t>
+  </si>
+  <si>
+    <t>extra hero in villain deck</t>
+  </si>
+  <si>
+    <t>2:5;3:7;4:9;5:11</t>
+  </si>
+  <si>
+    <t>2:7;3:8;4:9;5:10</t>
+  </si>
+  <si>
+    <t>three extra masterminds</t>
+  </si>
+  <si>
+    <t>solobad</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Scheme not fit for solo play (including multiple hands solo play)</t>
   </si>
 </sst>
 </file>
@@ -845,18 +1019,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -871,16 +1039,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1175,11 +1342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y124"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,10 +1373,10 @@
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.28515625" customWidth="1"/>
-    <col min="25" max="25" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,14 +1449,26 @@
       <c r="X1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Y1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -1301,13 +1480,13 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1335,8 +1514,14 @@
       <c r="W3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Y3" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1356,12 +1541,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
         <v>141</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -1370,12 +1555,12 @@
         <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -1393,12 +1578,12 @@
         <v>36</v>
       </c>
       <c r="V6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -1413,9 +1598,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1435,10 +1620,13 @@
       <c r="R8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="AB8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>108</v>
@@ -1453,12 +1641,12 @@
         <v>42</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1475,13 +1663,16 @@
       <c r="U10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="AB10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1492,13 +1683,16 @@
       <c r="P11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1507,10 +1701,13 @@
         <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>155</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1526,10 +1723,13 @@
       <c r="P13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="AB13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -1547,9 +1747,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>94</v>
@@ -1563,10 +1763,16 @@
       <c r="P15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1586,13 +1792,16 @@
       <c r="R16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="AB16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -1601,15 +1810,15 @@
         <v>50</v>
       </c>
       <c r="R17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1621,18 +1830,21 @@
         <v>45</v>
       </c>
       <c r="Q18" t="s">
+        <v>157</v>
+      </c>
+      <c r="R18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
         <v>159</v>
       </c>
-      <c r="R18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>161</v>
-      </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1647,9 +1859,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1664,9 +1876,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -1687,10 +1899,13 @@
         <v>61</v>
       </c>
       <c r="R21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>114</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1707,9 +1922,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -1724,9 +1939,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1744,15 +1959,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25">
-        <v>6</v>
+      <c r="C25" t="s">
+        <v>283</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -1764,15 +1979,15 @@
         <v>60</v>
       </c>
       <c r="S25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="4" customFormat="1">
+    <row r="26" spans="1:28" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>59</v>
@@ -1789,11 +2004,16 @@
       <c r="Q26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="T26" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -1808,9 +2028,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -1825,12 +2045,12 @@
         <v>42</v>
       </c>
       <c r="S28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
         <v>92</v>
@@ -1842,15 +2062,18 @@
         <v>50</v>
       </c>
       <c r="R29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>130</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
         <v>94</v>
@@ -1880,12 +2103,12 @@
         <v>42</v>
       </c>
       <c r="S30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1903,9 +2126,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
@@ -1923,15 +2146,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33">
-        <v>9</v>
+      <c r="C33" t="s">
+        <v>286</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -1940,9 +2163,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -1963,9 +2186,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>92</v>
@@ -1982,10 +2205,13 @@
       <c r="Q35" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" s="4" customFormat="1">
+      <c r="AB35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" s="4" customFormat="1">
       <c r="A36" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>108</v>
@@ -2000,29 +2226,35 @@
         <v>40</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="5" customFormat="1">
-      <c r="A37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="5">
+        <v>306</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="4">
         <v>10</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P37" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="AB37" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -2043,9 +2275,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
         <v>68</v>
@@ -2059,10 +2291,13 @@
       <c r="Q39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="AA39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
@@ -2079,10 +2314,13 @@
       <c r="T40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="AB40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -2100,9 +2338,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
@@ -2120,15 +2358,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C43">
-        <v>4</v>
+      <c r="C43" t="s">
+        <v>291</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2137,15 +2375,18 @@
         <v>42</v>
       </c>
       <c r="R43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="AB43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
@@ -2160,12 +2401,12 @@
         <v>39</v>
       </c>
       <c r="R44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -2177,15 +2418,15 @@
         <v>41</v>
       </c>
       <c r="S45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -2194,15 +2435,18 @@
         <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+        <v>164</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
         <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>140</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -2211,9 +2455,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B48" t="s">
         <v>68</v>
@@ -2230,10 +2474,13 @@
       <c r="Q48" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="AB48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
@@ -2244,10 +2491,13 @@
       <c r="P49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="AB49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2256,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -2268,18 +2518,18 @@
         <v>42</v>
       </c>
       <c r="R50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -2294,9 +2544,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
         <v>94</v>
@@ -2316,10 +2566,13 @@
       <c r="U52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="Y52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -2340,12 +2593,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2362,10 +2615,13 @@
       <c r="Q54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="AB54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
@@ -2379,10 +2635,13 @@
       <c r="P55" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="AB55" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
@@ -2399,10 +2658,13 @@
       <c r="U56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="AB56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -2420,9 +2682,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -2434,12 +2696,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -2451,9 +2713,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
@@ -2471,12 +2733,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -2488,13 +2750,13 @@
         <v>45</v>
       </c>
       <c r="Q61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W61" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -2516,10 +2778,13 @@
       <c r="R62" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="AB62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
@@ -2534,9 +2799,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -2557,12 +2822,15 @@
         <v>61</v>
       </c>
       <c r="R64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+        <v>124</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2582,10 +2850,13 @@
       <c r="Q65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="Y65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -2609,9 +2880,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
@@ -2623,18 +2894,15 @@
         <v>41</v>
       </c>
       <c r="R67" t="s">
-        <v>111</v>
-      </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="V67" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="AB67" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2652,9 +2920,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
         <v>35</v>
@@ -2675,9 +2943,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s">
         <v>31</v>
@@ -2689,9 +2957,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B71" t="s">
         <v>53</v>
@@ -2712,9 +2980,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -2731,10 +2999,13 @@
       <c r="R72" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="Z72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
@@ -2749,9 +3020,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -2763,9 +3034,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
@@ -2783,12 +3054,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -2800,9 +3071,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -2814,12 +3085,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -2831,9 +3102,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -2850,13 +3121,19 @@
       <c r="Q79" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="Y79">
+        <v>18</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -2868,9 +3145,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -2882,12 +3159,12 @@
         <v>41</v>
       </c>
       <c r="S81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
@@ -2910,10 +3187,13 @@
       <c r="Q82" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Y82">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
         <v>92</v>
@@ -2930,13 +3210,16 @@
       <c r="U83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="AB83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C84">
         <v>11</v>
@@ -2947,27 +3230,33 @@
       <c r="P84" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="AB84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
-      <c r="C85">
-        <v>9</v>
+      <c r="C85" t="s">
+        <v>304</v>
       </c>
       <c r="P85" t="s">
         <v>50</v>
       </c>
       <c r="R85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
+        <v>137</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -2988,13 +3277,16 @@
         <v>80</v>
       </c>
       <c r="S86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X86" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="AB86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -3011,12 +3303,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="4" customFormat="1">
+    <row r="88" spans="1:28" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88" s="4">
         <v>7</v>
@@ -3028,12 +3320,12 @@
         <v>47</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B89" t="s">
         <v>108</v>
@@ -3045,18 +3337,15 @@
         <v>41</v>
       </c>
       <c r="R89" t="s">
-        <v>111</v>
-      </c>
-      <c r="S89">
-        <v>1</v>
-      </c>
-      <c r="V89" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="AB89" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B90" t="s">
         <v>68</v>
@@ -3074,9 +3363,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -3093,10 +3382,13 @@
       <c r="Q91" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="AB91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B92" t="s">
         <v>49</v>
@@ -3113,10 +3405,13 @@
       <c r="T92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="AB92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B93" t="s">
         <v>74</v>
@@ -3137,9 +3432,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
@@ -3154,9 +3449,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
@@ -3171,9 +3466,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B96" t="s">
         <v>108</v>
@@ -3185,15 +3480,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
       </c>
-      <c r="C97">
-        <v>8</v>
+      <c r="C97" t="s">
+        <v>311</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -3202,15 +3497,15 @@
         <v>42</v>
       </c>
       <c r="S97" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -3224,10 +3519,13 @@
       <c r="T98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" s="4" customFormat="1">
+      <c r="AB98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>39</v>
@@ -3239,12 +3537,15 @@
         <v>41</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
+        <v>128</v>
+      </c>
+      <c r="AB99" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -3258,10 +3559,13 @@
       <c r="P100" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="Z100" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B101" t="s">
         <v>74</v>
@@ -3276,9 +3580,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
@@ -3298,13 +3602,16 @@
       <c r="X102" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="AB102" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -3313,12 +3620,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104">
         <v>8</v>
@@ -3327,15 +3634,18 @@
         <v>45</v>
       </c>
       <c r="Q104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24">
+        <v>149</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B105" t="s">
         <v>58</v>
@@ -3353,9 +3663,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B106" t="s">
         <v>58</v>
@@ -3370,9 +3680,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3381,7 +3691,7 @@
         <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -3393,12 +3703,12 @@
         <v>41</v>
       </c>
       <c r="R107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" s="4" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" s="4" customFormat="1">
       <c r="A108" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>71</v>
@@ -3413,12 +3723,12 @@
         <v>87</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -3435,10 +3745,13 @@
       <c r="P109" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="Z109" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -3455,19 +3768,19 @@
       <c r="Q110" t="s">
         <v>88</v>
       </c>
-      <c r="S110">
-        <v>1</v>
-      </c>
       <c r="W110" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="AB110" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -3475,10 +3788,13 @@
       <c r="P111" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="AA111" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
@@ -3489,10 +3805,13 @@
       <c r="P112" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="AA112" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B113" t="s">
         <v>53</v>
@@ -3509,30 +3828,36 @@
       <c r="Q113" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="Y113" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114">
-        <v>8</v>
+        <v>117</v>
+      </c>
+      <c r="C114" t="s">
+        <v>319</v>
       </c>
       <c r="P114" t="s">
         <v>50</v>
       </c>
       <c r="R114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>11</v>
@@ -3543,33 +3868,33 @@
       <c r="P115" t="s">
         <v>39</v>
       </c>
-      <c r="S115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="AB115" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
-      </c>
-      <c r="C116">
-        <v>5</v>
+        <v>146</v>
+      </c>
+      <c r="C116" t="s">
+        <v>321</v>
       </c>
       <c r="P116" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:28">
       <c r="A117" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B117" t="s">
         <v>71</v>
       </c>
-      <c r="C117">
-        <v>7</v>
+      <c r="C117" t="s">
+        <v>322</v>
       </c>
       <c r="P117" t="s">
         <v>50</v>
@@ -3578,9 +3903,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:28">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B118" t="s">
         <v>35</v>
@@ -3595,9 +3920,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:28">
       <c r="A119" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -3609,12 +3934,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -3626,12 +3951,12 @@
         <v>45</v>
       </c>
       <c r="Q120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s">
         <v>74</v>
@@ -3643,7 +3968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
         <v>107</v>
       </c>
@@ -3659,10 +3984,13 @@
       <c r="R122" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="AB122" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s">
         <v>53</v>
@@ -3679,13 +4007,16 @@
       <c r="R123" t="s">
         <v>91</v>
       </c>
-      <c r="S123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="Y123" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -3707,10 +4038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3868,7 +4199,7 @@
         <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3876,7 +4207,7 @@
         <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3892,7 +4223,7 @@
         <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3909,6 +4240,30 @@
       </c>
       <c r="B24" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="323">
   <si>
     <t>Name</t>
   </si>
@@ -206,9 +206,6 @@
     <t>1 if it interacts strongly with villains that capture bystanders</t>
   </si>
   <si>
-    <t>Extra mastermind</t>
-  </si>
-  <si>
     <t>Slightly harder with villains that can ascend</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>Twists is nr of players +6</t>
   </si>
   <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
     <t>The Korvac Saga</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
     <t>Superhuman Baseball Game</t>
   </si>
   <si>
-    <t>CUSTOM</t>
-  </si>
-  <si>
     <t>4:1</t>
   </si>
   <si>
@@ -491,9 +482,6 @@
     <t>Thor</t>
   </si>
   <si>
-    <t>Add the Thor villain</t>
-  </si>
-  <si>
     <t>Crush HYDRA</t>
   </si>
   <si>
@@ -821,9 +809,6 @@
     <t>BSCt</t>
   </si>
   <si>
-    <t>Number of bystanders in villain deck. If negative, number of bystanders in hero deck (and default number in villain deck). Leave empty if standard.</t>
-  </si>
-  <si>
     <t>WndCT</t>
   </si>
   <si>
@@ -938,9 +923,6 @@
     <t>Hulk;Hulk</t>
   </si>
   <si>
-    <t>Hydra Elite|A.I.M. Hydra Offshoot</t>
-  </si>
-  <si>
     <t>Put Hulk in extra deck</t>
   </si>
   <si>
@@ -996,6 +978,12 @@
   </si>
   <si>
     <t>Scheme not fit for solo play (including multiple hands solo play)</t>
+  </si>
+  <si>
+    <t>xtra</t>
+  </si>
+  <si>
+    <t>Number of bystanders in villain deck. Leave empty if standard. X means 0</t>
   </si>
 </sst>
 </file>
@@ -1342,11 +1330,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB21" sqref="AB21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1371,12 +1359,12 @@
     <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="3.42578125" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
     <col min="25" max="25" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,43 +1420,46 @@
         <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -1480,13 +1471,13 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1512,16 +1503,16 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Z3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1541,12 +1532,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -1555,12 +1546,12 @@
         <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -1577,13 +1568,10 @@
       <c r="R6" t="s">
         <v>36</v>
       </c>
-      <c r="V6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -1598,9 +1586,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1620,16 +1608,16 @@
       <c r="R8" t="s">
         <v>44</v>
       </c>
-      <c r="AB8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AC8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -1641,12 +1629,12 @@
         <v>42</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1663,16 +1651,16 @@
       <c r="U10">
         <v>1</v>
       </c>
-      <c r="AB10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AC10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1684,15 +1672,15 @@
         <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1701,13 +1689,13 @@
         <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>152</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1723,13 +1711,13 @@
       <c r="P13" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AC13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -1747,12 +1735,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1764,15 +1752,15 @@
         <v>40</v>
       </c>
       <c r="Z15" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>273</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1792,16 +1780,16 @@
       <c r="R16" t="s">
         <v>55</v>
       </c>
-      <c r="AB16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -1810,15 +1798,15 @@
         <v>50</v>
       </c>
       <c r="R17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1830,21 +1818,18 @@
         <v>45</v>
       </c>
       <c r="Q18" t="s">
-        <v>157</v>
-      </c>
-      <c r="R18" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+        <v>154</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1856,12 +1841,12 @@
         <v>45</v>
       </c>
       <c r="Q19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1876,12 +1861,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -1899,13 +1884,13 @@
         <v>61</v>
       </c>
       <c r="R21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+        <v>113</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1918,13 +1903,10 @@
       <c r="P22" t="s">
         <v>41</v>
       </c>
-      <c r="R22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -1939,9 +1921,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1959,35 +1941,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
-      <c r="A25" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:29" s="4" customFormat="1">
+      <c r="A25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C25" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="C25" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="S25" t="s">
-        <v>160</v>
-      </c>
-      <c r="V25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="4" customFormat="1">
+      <c r="S25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>59</v>
@@ -2005,15 +1987,15 @@
         <v>61</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="Y26" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -2025,12 +2007,12 @@
         <v>41</v>
       </c>
       <c r="V27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -2045,38 +2027,35 @@
         <v>42</v>
       </c>
       <c r="S28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="4" customFormat="1">
+      <c r="A29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="P29" t="s">
-        <v>50</v>
-      </c>
-      <c r="R29" t="s">
-        <v>120</v>
-      </c>
-      <c r="V29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -2103,12 +2082,12 @@
         <v>42</v>
       </c>
       <c r="S30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2126,9 +2105,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
@@ -2140,21 +2119,21 @@
         <v>50</v>
       </c>
       <c r="Q32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2163,9 +2142,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -2180,18 +2159,15 @@
         <v>39</v>
       </c>
       <c r="R34" t="s">
-        <v>67</v>
-      </c>
-      <c r="V34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -2205,16 +2181,16 @@
       <c r="Q35" t="s">
         <v>61</v>
       </c>
-      <c r="AB35" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" s="4" customFormat="1">
+      <c r="AC35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="4" customFormat="1">
       <c r="A36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
@@ -2226,21 +2202,21 @@
         <v>40</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="4" customFormat="1">
       <c r="A37" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
@@ -2248,16 +2224,16 @@
       <c r="P37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AB37" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -2275,12 +2251,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -2289,18 +2265,18 @@
         <v>50</v>
       </c>
       <c r="Q39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -2314,13 +2290,13 @@
       <c r="T40">
         <v>2</v>
       </c>
-      <c r="AB40" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -2335,15 +2311,15 @@
         <v>42</v>
       </c>
       <c r="R41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
-      <c r="A42" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -2352,21 +2328,21 @@
         <v>45</v>
       </c>
       <c r="Q42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -2375,21 +2351,21 @@
         <v>42</v>
       </c>
       <c r="R43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
-      <c r="AB43" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2401,12 +2377,12 @@
         <v>39</v>
       </c>
       <c r="R44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -2418,15 +2394,15 @@
         <v>41</v>
       </c>
       <c r="S45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -2435,18 +2411,18 @@
         <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+        <v>160</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -2455,12 +2431,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>8</v>
@@ -2472,15 +2448,15 @@
         <v>45</v>
       </c>
       <c r="Q48" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
@@ -2491,13 +2467,10 @@
       <c r="P49" t="s">
         <v>41</v>
       </c>
-      <c r="AB49" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -2506,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -2518,18 +2491,18 @@
         <v>42</v>
       </c>
       <c r="R50" t="s">
-        <v>136</v>
-      </c>
-      <c r="V50" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+        <v>134</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -2544,12 +2517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -2567,12 +2540,12 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -2593,12 +2566,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2615,16 +2588,16 @@
       <c r="Q54" t="s">
         <v>61</v>
       </c>
-      <c r="AB54" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -2635,16 +2608,16 @@
       <c r="P55" t="s">
         <v>42</v>
       </c>
-      <c r="AB55" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56">
         <v>8</v>
@@ -2653,18 +2626,18 @@
         <v>50</v>
       </c>
       <c r="Q56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U56">
         <v>1</v>
       </c>
-      <c r="AB56" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
@@ -2682,9 +2655,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -2696,12 +2669,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -2713,9 +2686,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:29">
       <c r="A60" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
@@ -2733,12 +2706,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -2750,41 +2723,41 @@
         <v>45</v>
       </c>
       <c r="Q61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="W61" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
-      <c r="A62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="4" customFormat="1">
+      <c r="A62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="4">
+        <v>8</v>
+      </c>
+      <c r="N62" s="4">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R62" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62">
-        <v>8</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="P62" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>73</v>
-      </c>
-      <c r="R62" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
@@ -2799,9 +2772,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -2822,15 +2795,15 @@
         <v>61</v>
       </c>
       <c r="R64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z64" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2854,9 +2827,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -2871,38 +2844,38 @@
         <v>45</v>
       </c>
       <c r="Q66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U66">
         <v>1</v>
       </c>
       <c r="W66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28">
-      <c r="A67" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" s="4" customFormat="1">
+      <c r="A67" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="4">
         <v>7</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R67" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="R67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC67" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2920,9 +2893,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
         <v>35</v>
@@ -2943,9 +2916,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
         <v>31</v>
@@ -2957,9 +2930,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
         <v>53</v>
@@ -2974,15 +2947,15 @@
         <v>45</v>
       </c>
       <c r="Q71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -3003,9 +2976,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:29">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
@@ -3020,9 +2993,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:29">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -3034,9 +3007,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:29">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
@@ -3054,12 +3027,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:29">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -3071,9 +3044,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:29">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -3085,12 +3058,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:29">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -3102,9 +3075,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:29">
       <c r="A79" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -3124,16 +3097,16 @@
       <c r="Y79">
         <v>18</v>
       </c>
-      <c r="AB79" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AC79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -3145,9 +3118,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:29">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -3159,12 +3132,12 @@
         <v>41</v>
       </c>
       <c r="S81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
@@ -3187,16 +3160,13 @@
       <c r="Q82" t="s">
         <v>61</v>
       </c>
-      <c r="Y82">
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28">
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -3210,16 +3180,16 @@
       <c r="U83">
         <v>1</v>
       </c>
-      <c r="AB83" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84">
         <v>11</v>
@@ -3230,33 +3200,33 @@
       <c r="P84" t="s">
         <v>41</v>
       </c>
-      <c r="AB84" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AC84" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P85" t="s">
         <v>50</v>
       </c>
       <c r="R85" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28">
+        <v>135</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -3271,24 +3241,24 @@
         <v>45</v>
       </c>
       <c r="Q86" t="s">
+        <v>78</v>
+      </c>
+      <c r="R86" t="s">
         <v>79</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
+        <v>161</v>
+      </c>
+      <c r="X86" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87" t="s">
         <v>80</v>
-      </c>
-      <c r="S86" t="s">
-        <v>165</v>
-      </c>
-      <c r="X86" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB86" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28">
-      <c r="A87" t="s">
-        <v>81</v>
       </c>
       <c r="B87" t="s">
         <v>58</v>
@@ -3300,15 +3270,15 @@
         <v>41</v>
       </c>
       <c r="R87" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" s="4" customFormat="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C88" s="4">
         <v>7</v>
@@ -3319,16 +3289,13 @@
       <c r="Q88" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="X88" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28">
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -3337,18 +3304,18 @@
         <v>41</v>
       </c>
       <c r="R89" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB89" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28">
+        <v>109</v>
+      </c>
+      <c r="AC89" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
       <c r="A90" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -3363,9 +3330,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:28">
+    <row r="91" spans="1:29">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -3380,15 +3347,15 @@
         <v>45</v>
       </c>
       <c r="Q91" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
       <c r="A92" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B92" t="s">
         <v>49</v>
@@ -3405,16 +3372,16 @@
       <c r="T92">
         <v>1</v>
       </c>
-      <c r="AB92" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AC92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
       <c r="A93" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C93">
         <v>8</v>
@@ -3426,18 +3393,18 @@
         <v>45</v>
       </c>
       <c r="Q93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94">
         <v>8</v>
@@ -3449,9 +3416,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:28">
+    <row r="95" spans="1:29">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
@@ -3466,12 +3433,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:28">
+    <row r="96" spans="1:29">
       <c r="A96" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96">
         <v>11</v>
@@ -3480,15 +3447,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:29">
       <c r="A97" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -3497,15 +3464,15 @@
         <v>42</v>
       </c>
       <c r="S97" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -3519,13 +3486,13 @@
       <c r="T98">
         <v>1</v>
       </c>
-      <c r="AB98" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" s="4" customFormat="1">
+      <c r="AC98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" s="4" customFormat="1">
       <c r="A99" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>39</v>
@@ -3537,15 +3504,18 @@
         <v>41</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB99" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28">
+        <v>127</v>
+      </c>
+      <c r="T99" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -3560,15 +3530,15 @@
         <v>40</v>
       </c>
       <c r="Z100" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
       <c r="A101" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C101">
         <v>8</v>
@@ -3580,9 +3550,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:28">
+    <row r="102" spans="1:29">
       <c r="A102" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
@@ -3597,21 +3567,21 @@
         <v>45</v>
       </c>
       <c r="Q102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X102" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28">
+        <v>103</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -3620,12 +3590,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:28">
+    <row r="104" spans="1:29">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C104">
         <v>8</v>
@@ -3634,18 +3604,18 @@
         <v>45</v>
       </c>
       <c r="Q104" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="X104" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB104" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28">
+        <v>147</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B105" t="s">
         <v>58</v>
@@ -3660,12 +3630,12 @@
         <v>39</v>
       </c>
       <c r="R105" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s">
         <v>58</v>
@@ -3680,9 +3650,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:28">
+    <row r="107" spans="1:29">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -3691,7 +3661,7 @@
         <v>8</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -3703,15 +3673,15 @@
         <v>41</v>
       </c>
       <c r="R107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" s="4" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" s="4" customFormat="1">
       <c r="A108" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C108" s="4">
         <v>8</v>
@@ -3720,15 +3690,15 @@
         <v>39</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
       <c r="A109" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -3746,12 +3716,12 @@
         <v>40</v>
       </c>
       <c r="Z109" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
       <c r="A110" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -3766,21 +3736,21 @@
         <v>45</v>
       </c>
       <c r="Q110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W110" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB110" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28">
+        <v>100</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -3789,12 +3759,12 @@
         <v>41</v>
       </c>
       <c r="AA111" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
@@ -3806,12 +3776,12 @@
         <v>41</v>
       </c>
       <c r="AA112" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="A113" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B113" t="s">
         <v>53</v>
@@ -3826,38 +3796,38 @@
         <v>45</v>
       </c>
       <c r="Q113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y113" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB113" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28">
+        <v>319</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P114" t="s">
         <v>50</v>
       </c>
       <c r="R114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115">
         <v>11</v>
@@ -3868,44 +3838,44 @@
       <c r="P115" t="s">
         <v>39</v>
       </c>
-      <c r="AB115" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28">
+      <c r="AC115" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C116" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P116" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:28">
+    <row r="117" spans="1:29">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P117" t="s">
         <v>50</v>
       </c>
       <c r="R117" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B118" t="s">
         <v>35</v>
@@ -3917,12 +3887,12 @@
         <v>50</v>
       </c>
       <c r="R118" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -3934,12 +3904,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:28">
+    <row r="120" spans="1:29">
       <c r="A120" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -3951,15 +3921,15 @@
         <v>45</v>
       </c>
       <c r="Q120" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
       <c r="A121" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C121">
         <v>7</v>
@@ -3968,12 +3938,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:28">
+    <row r="122" spans="1:29">
       <c r="A122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" t="s">
         <v>107</v>
-      </c>
-      <c r="B122" t="s">
-        <v>108</v>
       </c>
       <c r="C122">
         <v>9</v>
@@ -3982,15 +3952,15 @@
         <v>41</v>
       </c>
       <c r="R122" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB122" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28">
+        <v>108</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B123" t="s">
         <v>53</v>
@@ -4005,18 +3975,18 @@
         <v>42</v>
       </c>
       <c r="R123" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y123" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB123" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28">
+        <v>319</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
       <c r="A124" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -4041,7 +4011,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4175,7 +4145,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4196,74 +4166,74 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
         <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1007,12 +1007,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1027,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1036,6 +1042,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1333,8 +1340,8 @@
   <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1648,9 +1655,6 @@
       <c r="R10" t="s">
         <v>51</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
       <c r="AC10" t="s">
         <v>269</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>8</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
         <v>45</v>
@@ -2334,29 +2338,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
-      <c r="A43" t="s">
+    <row r="43" spans="1:29" s="6" customFormat="1">
+      <c r="A43" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="N43" s="6">
+        <v>2</v>
+      </c>
+      <c r="P43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="AC43" t="s">
+      <c r="T43" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2612,26 +2616,26 @@
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
-      <c r="A56" t="s">
+    <row r="56" spans="1:29" s="6" customFormat="1">
+      <c r="A56" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="P56" t="s">
+      <c r="C56" s="6">
+        <v>8</v>
+      </c>
+      <c r="P56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q56" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="AC56" t="s">
+      <c r="U56" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="6" t="s">
         <v>292</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1340,8 +1340,8 @@
   <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2616,26 +2616,26 @@
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="6" customFormat="1">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:29" s="4" customFormat="1">
+      <c r="A56" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="6">
-        <v>8</v>
-      </c>
-      <c r="P56" s="6" t="s">
+      <c r="C56" s="4">
+        <v>8</v>
+      </c>
+      <c r="P56" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q56" s="6" t="s">
+      <c r="Q56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="U56" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="6" t="s">
+      <c r="U56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="4" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3357,26 +3357,26 @@
         <v>303</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
-      <c r="A92" t="s">
+    <row r="92" spans="1:29" s="6" customFormat="1">
+      <c r="A92" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C92">
-        <v>8</v>
-      </c>
-      <c r="N92">
-        <v>2</v>
-      </c>
-      <c r="P92" t="s">
+      <c r="C92" s="6">
+        <v>8</v>
+      </c>
+      <c r="N92" s="6">
+        <v>2</v>
+      </c>
+      <c r="P92" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T92">
-        <v>1</v>
-      </c>
-      <c r="AC92" t="s">
+      <c r="T92" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="6" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3471,49 +3471,49 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
-      <c r="A98" t="s">
+    <row r="98" spans="1:29" s="6" customFormat="1">
+      <c r="A98" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="6">
         <v>9</v>
       </c>
-      <c r="N98">
-        <v>2</v>
-      </c>
-      <c r="P98" t="s">
+      <c r="N98" s="6">
+        <v>2</v>
+      </c>
+      <c r="P98" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T98">
-        <v>1</v>
-      </c>
-      <c r="AC98" t="s">
+      <c r="T98" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="99" spans="1:29" s="4" customFormat="1">
-      <c r="A99" s="4" t="s">
+    <row r="99" spans="1:29" s="6" customFormat="1">
+      <c r="A99" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="6">
         <v>11</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="P99" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R99" s="4" t="s">
+      <c r="R99" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="T99" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC99" s="4" t="s">
+      <c r="T99" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="6" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3594,26 +3594,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
-      <c r="A104" t="s">
+    <row r="104" spans="1:29" s="6" customFormat="1">
+      <c r="A104" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C104">
-        <v>8</v>
-      </c>
-      <c r="P104" t="s">
+      <c r="C104" s="6">
+        <v>8</v>
+      </c>
+      <c r="P104" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="Q104" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="X104" t="s">
+      <c r="X104" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AC104" t="s">
+      <c r="AC104" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3783,29 +3783,29 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
-      <c r="A113" t="s">
+    <row r="113" spans="1:29" s="4" customFormat="1">
+      <c r="A113" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C113">
-        <v>8</v>
-      </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-      <c r="P113" t="s">
+      <c r="C113" s="4">
+        <v>8</v>
+      </c>
+      <c r="N113" s="4">
+        <v>1</v>
+      </c>
+      <c r="P113" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="Q113" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y113" t="s">
+      <c r="Y113" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="AC113" t="s">
+      <c r="AC113" s="4" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3942,23 +3942,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
-      <c r="A122" t="s">
+    <row r="122" spans="1:29" s="6" customFormat="1">
+      <c r="A122" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="6">
         <v>9</v>
       </c>
-      <c r="P122" t="s">
+      <c r="P122" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R122" t="s">
+      <c r="R122" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AC122" t="s">
+      <c r="AC122" s="6" t="s">
         <v>317</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -467,9 +467,6 @@
     <t>Superhuman Baseball Game</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -984,6 +981,9 @@
   </si>
   <si>
     <t>Number of bystanders in villain deck. Leave empty if standard. X means 0</t>
+  </si>
+  <si>
+    <t>2:0;4:1</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1340,8 @@
   <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I129" sqref="I129"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1445,19 +1445,19 @@
         <v>101</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD1" s="1"/>
     </row>
@@ -1481,7 +1481,7 @@
         <v>117</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>150</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1513,7 +1513,7 @@
         <v>98</v>
       </c>
       <c r="Y3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z3">
         <v>30</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1616,12 +1616,12 @@
         <v>44</v>
       </c>
       <c r="AC8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>107</v>
@@ -1636,12 +1636,12 @@
         <v>42</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1656,15 +1656,15 @@
         <v>51</v>
       </c>
       <c r="AC10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1676,15 +1676,15 @@
         <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1693,10 +1693,10 @@
         <v>50</v>
       </c>
       <c r="R12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1716,12 +1716,12 @@
         <v>39</v>
       </c>
       <c r="AC13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -1756,15 +1756,15 @@
         <v>40</v>
       </c>
       <c r="Z15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC15" t="s">
         <v>273</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1785,12 +1785,12 @@
         <v>55</v>
       </c>
       <c r="AC16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>144</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1822,18 +1822,18 @@
         <v>45</v>
       </c>
       <c r="Q18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>107</v>
@@ -1891,7 +1891,7 @@
         <v>113</v>
       </c>
       <c r="AC21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="25" spans="1:29" s="4" customFormat="1">
       <c r="A25" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L25" s="4">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>60</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>96</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="26" spans="1:29" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>59</v>
@@ -1991,7 +1991,7 @@
         <v>61</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y26" s="4">
         <v>12</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -2031,7 +2031,7 @@
         <v>42</v>
       </c>
       <c r="S28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="4" customFormat="1">
@@ -2051,12 +2051,12 @@
         <v>119</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
@@ -2086,12 +2086,12 @@
         <v>42</v>
       </c>
       <c r="S30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -2186,7 +2186,7 @@
         <v>61</v>
       </c>
       <c r="AC35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="4" customFormat="1">
@@ -2209,18 +2209,18 @@
         <v>112</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="4" customFormat="1">
       <c r="A37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
@@ -2229,7 +2229,7 @@
         <v>41</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -2257,7 +2257,7 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -2272,12 +2272,12 @@
         <v>68</v>
       </c>
       <c r="AA39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -2295,12 +2295,12 @@
         <v>2</v>
       </c>
       <c r="AC40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
@@ -2340,13 +2340,13 @@
     </row>
     <row r="43" spans="1:29" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N43" s="6">
         <v>2</v>
@@ -2361,12 +2361,12 @@
         <v>1</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -2398,15 +2398,15 @@
         <v>41</v>
       </c>
       <c r="S45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -2415,10 +2415,10 @@
         <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -2437,7 +2437,7 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
@@ -2455,12 +2455,12 @@
         <v>72</v>
       </c>
       <c r="AC48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
         <v>31</v>
@@ -2498,12 +2498,12 @@
         <v>134</v>
       </c>
       <c r="AC50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
         <v>137</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B52" t="s">
         <v>93</v>
@@ -2544,12 +2544,12 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2593,12 +2593,12 @@
         <v>61</v>
       </c>
       <c r="AC54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
         <v>70</v>
@@ -2613,12 +2613,12 @@
         <v>42</v>
       </c>
       <c r="AC55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:29" s="4" customFormat="1">
       <c r="A56" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>73</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -2661,7 +2661,7 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -2675,10 +2675,10 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="60" spans="1:29">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -2727,10 +2727,10 @@
         <v>45</v>
       </c>
       <c r="Q61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:29" s="4" customFormat="1">
@@ -2756,12 +2756,12 @@
         <v>76</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -2802,12 +2802,12 @@
         <v>123</v>
       </c>
       <c r="Z64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="67" spans="1:29" s="4" customFormat="1">
       <c r="A67" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>107</v>
@@ -2874,12 +2874,12 @@
         <v>109</v>
       </c>
       <c r="AC67" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
         <v>35</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
         <v>31</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
         <v>53</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="74" spans="1:29">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="75" spans="1:29">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="76" spans="1:29">
       <c r="A76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
         <v>116</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="77" spans="1:29">
       <c r="A77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B77" t="s">
         <v>37</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="79" spans="1:29">
       <c r="A79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -3102,15 +3102,15 @@
         <v>18</v>
       </c>
       <c r="AC79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="81" spans="1:29">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -3136,12 +3136,12 @@
         <v>41</v>
       </c>
       <c r="S81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:29">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
@@ -3185,12 +3185,12 @@
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:29">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B84" t="s">
         <v>137</v>
@@ -3205,18 +3205,18 @@
         <v>41</v>
       </c>
       <c r="AC84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:29">
       <c r="A85" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P85" t="s">
         <v>50</v>
@@ -3225,12 +3225,12 @@
         <v>135</v>
       </c>
       <c r="AC85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:29">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -3251,13 +3251,13 @@
         <v>79</v>
       </c>
       <c r="S86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X86" t="s">
         <v>102</v>
       </c>
       <c r="AC86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -3279,7 +3279,7 @@
     </row>
     <row r="88" spans="1:29" s="4" customFormat="1">
       <c r="A88" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>137</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="89" spans="1:29">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
         <v>107</v>
@@ -3311,12 +3311,12 @@
         <v>109</v>
       </c>
       <c r="AC89" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:29">
       <c r="A90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s">
         <v>67</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="91" spans="1:29">
       <c r="A91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B91" t="s">
         <v>58</v>
@@ -3354,12 +3354,12 @@
         <v>82</v>
       </c>
       <c r="AC91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:29" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>49</v>
@@ -3377,12 +3377,12 @@
         <v>1</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:29">
       <c r="A93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B93" t="s">
         <v>73</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="94" spans="1:29">
       <c r="A94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="95" spans="1:29">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="96" spans="1:29">
       <c r="A96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B96" t="s">
         <v>107</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="97" spans="1:29">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -3468,7 +3468,7 @@
         <v>42</v>
       </c>
       <c r="S97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:29" s="6" customFormat="1">
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="AC98" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:29" s="6" customFormat="1">
@@ -3514,12 +3514,12 @@
         <v>1</v>
       </c>
       <c r="AC99" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:29">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -3534,12 +3534,12 @@
         <v>40</v>
       </c>
       <c r="Z100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:29">
       <c r="A101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B101" t="s">
         <v>73</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="102" spans="1:29">
       <c r="A102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
@@ -3577,7 +3577,7 @@
         <v>103</v>
       </c>
       <c r="AC102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -3614,12 +3614,12 @@
         <v>147</v>
       </c>
       <c r="AC104" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:29">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s">
         <v>58</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="106" spans="1:29">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B106" t="s">
         <v>58</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="108" spans="1:29" s="4" customFormat="1">
       <c r="A108" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>70</v>
@@ -3697,12 +3697,12 @@
         <v>86</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:29">
       <c r="A109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -3720,12 +3720,12 @@
         <v>40</v>
       </c>
       <c r="Z109" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:29">
       <c r="A110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -3746,15 +3746,15 @@
         <v>100</v>
       </c>
       <c r="AC110" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:29">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -3763,12 +3763,12 @@
         <v>41</v>
       </c>
       <c r="AA111" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:29">
       <c r="A112" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B112" t="s">
         <v>43</v>
@@ -3780,12 +3780,12 @@
         <v>41</v>
       </c>
       <c r="AA112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:29" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>53</v>
@@ -3803,21 +3803,21 @@
         <v>84</v>
       </c>
       <c r="Y113" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC113" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:29">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B114" t="s">
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P114" t="s">
         <v>50</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="115" spans="1:29">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -3843,18 +3843,18 @@
         <v>39</v>
       </c>
       <c r="AC115" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:29">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B116" t="s">
         <v>144</v>
       </c>
       <c r="C116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P116" t="s">
         <v>41</v>
@@ -3862,13 +3862,13 @@
     </row>
     <row r="117" spans="1:29">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B117" t="s">
         <v>70</v>
       </c>
       <c r="C117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P117" t="s">
         <v>50</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="118" spans="1:29">
       <c r="A118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B118" t="s">
         <v>35</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="119" spans="1:29">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="120" spans="1:29">
       <c r="A120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B120" t="s">
         <v>139</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="121" spans="1:29">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B121" t="s">
         <v>73</v>
@@ -3959,12 +3959,12 @@
         <v>108</v>
       </c>
       <c r="AC122" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:29">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B123" t="s">
         <v>53</v>
@@ -3982,15 +3982,15 @@
         <v>90</v>
       </c>
       <c r="Y123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC123" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:29">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -4173,7 +4173,7 @@
         <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4181,7 +4181,7 @@
         <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4218,26 +4218,26 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" t="s">
         <v>265</v>
-      </c>
-      <c r="B26" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -797,9 +797,6 @@
     <t>Infiltrate the Lair with Spies</t>
   </si>
   <si>
-    <t>Maximum carnage</t>
-  </si>
-  <si>
     <t>S.H.I.E.L.D. Assault Squad</t>
   </si>
   <si>
@@ -984,6 +981,9 @@
   </si>
   <si>
     <t>2:0;4:1</t>
+  </si>
+  <si>
+    <t>Maximum Carnage</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1340,8 @@
   <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1445,19 +1445,19 @@
         <v>101</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD1" s="1"/>
     </row>
@@ -1481,7 +1481,7 @@
         <v>117</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1513,7 +1513,7 @@
         <v>98</v>
       </c>
       <c r="Y3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z3">
         <v>30</v>
@@ -1616,7 +1616,7 @@
         <v>44</v>
       </c>
       <c r="AC8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1656,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="AC10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1676,7 +1676,7 @@
         <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1696,7 +1696,7 @@
         <v>151</v>
       </c>
       <c r="AC12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1716,7 +1716,7 @@
         <v>39</v>
       </c>
       <c r="AC13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1756,10 +1756,10 @@
         <v>40</v>
       </c>
       <c r="Z15" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC15" t="s">
         <v>272</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -1785,7 +1785,7 @@
         <v>55</v>
       </c>
       <c r="AC16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1825,7 +1825,7 @@
         <v>153</v>
       </c>
       <c r="AC18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -1891,7 +1891,7 @@
         <v>113</v>
       </c>
       <c r="AC21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -1953,7 +1953,7 @@
         <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L25" s="4">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>61</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y26" s="4">
         <v>12</v>
@@ -2051,7 +2051,7 @@
         <v>119</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -2137,7 +2137,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>61</v>
       </c>
       <c r="AC35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="4" customFormat="1">
@@ -2209,10 +2209,10 @@
         <v>112</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="4" customFormat="1">
@@ -2229,7 +2229,7 @@
         <v>41</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -2272,7 +2272,7 @@
         <v>68</v>
       </c>
       <c r="AA39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="AC40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -2346,7 +2346,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N43" s="6">
         <v>2</v>
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -2418,7 +2418,7 @@
         <v>159</v>
       </c>
       <c r="AC46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -2455,7 +2455,7 @@
         <v>72</v>
       </c>
       <c r="AC48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -2498,7 +2498,7 @@
         <v>134</v>
       </c>
       <c r="AC50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -2593,7 +2593,7 @@
         <v>61</v>
       </c>
       <c r="AC54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -2613,7 +2613,7 @@
         <v>42</v>
       </c>
       <c r="AC55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:29" s="4" customFormat="1">
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -2727,10 +2727,10 @@
         <v>45</v>
       </c>
       <c r="Q61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:29" s="4" customFormat="1">
@@ -2756,7 +2756,7 @@
         <v>76</v>
       </c>
       <c r="AC62" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -2778,7 +2778,7 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s">
         <v>39</v>
@@ -2802,7 +2802,7 @@
         <v>123</v>
       </c>
       <c r="Z64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -2874,7 +2874,7 @@
         <v>109</v>
       </c>
       <c r="AC67" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -3102,7 +3102,7 @@
         <v>18</v>
       </c>
       <c r="AC79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="AC83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -3205,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="AC84" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -3216,7 +3216,7 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P85" t="s">
         <v>50</v>
@@ -3225,7 +3225,7 @@
         <v>135</v>
       </c>
       <c r="AC85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -3257,7 +3257,7 @@
         <v>102</v>
       </c>
       <c r="AC86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -3311,7 +3311,7 @@
         <v>109</v>
       </c>
       <c r="AC89" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -3354,7 +3354,7 @@
         <v>82</v>
       </c>
       <c r="AC91" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:29" s="6" customFormat="1">
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -3459,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="AC98" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:29" s="6" customFormat="1">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="AC99" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -3534,7 +3534,7 @@
         <v>40</v>
       </c>
       <c r="Z100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -3577,7 +3577,7 @@
         <v>103</v>
       </c>
       <c r="AC102" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -3614,7 +3614,7 @@
         <v>147</v>
       </c>
       <c r="AC104" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -3697,7 +3697,7 @@
         <v>86</v>
       </c>
       <c r="X108" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -3720,7 +3720,7 @@
         <v>40</v>
       </c>
       <c r="Z109" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -3746,7 +3746,7 @@
         <v>100</v>
       </c>
       <c r="AC110" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -3763,7 +3763,7 @@
         <v>41</v>
       </c>
       <c r="AA111" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -3780,7 +3780,7 @@
         <v>41</v>
       </c>
       <c r="AA112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:29" s="4" customFormat="1">
@@ -3803,10 +3803,10 @@
         <v>84</v>
       </c>
       <c r="Y113" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC113" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P114" t="s">
         <v>50</v>
@@ -3843,7 +3843,7 @@
         <v>39</v>
       </c>
       <c r="AC115" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -3854,7 +3854,7 @@
         <v>144</v>
       </c>
       <c r="C116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P116" t="s">
         <v>41</v>
@@ -3868,7 +3868,7 @@
         <v>70</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P117" t="s">
         <v>50</v>
@@ -3959,7 +3959,7 @@
         <v>108</v>
       </c>
       <c r="AC122" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -3982,10 +3982,10 @@
         <v>90</v>
       </c>
       <c r="Y123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC123" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -4218,26 +4218,26 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" t="s">
         <v>264</v>
-      </c>
-      <c r="B26" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1340,8 +1340,8 @@
   <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3942,23 +3942,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:29" s="6" customFormat="1">
-      <c r="A122" s="6" t="s">
+    <row r="122" spans="1:29" s="4" customFormat="1">
+      <c r="A122" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="4">
         <v>9</v>
       </c>
-      <c r="P122" s="6" t="s">
+      <c r="P122" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R122" s="6" t="s">
+      <c r="R122" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AC122" s="6" t="s">
+      <c r="AC122" s="4" t="s">
         <v>315</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1340,8 +1340,8 @@
   <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3494,26 +3494,26 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:29" s="6" customFormat="1">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:29" s="4" customFormat="1">
+      <c r="A99" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>11</v>
       </c>
-      <c r="P99" s="6" t="s">
+      <c r="P99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R99" s="6" t="s">
+      <c r="R99" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T99" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC99" s="6" t="s">
+      <c r="T99" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="4" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3594,26 +3594,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:29" s="6" customFormat="1">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:29" s="4" customFormat="1">
+      <c r="A104" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C104" s="6">
-        <v>8</v>
-      </c>
-      <c r="P104" s="6" t="s">
+      <c r="C104" s="4">
+        <v>8</v>
+      </c>
+      <c r="P104" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q104" s="6" t="s">
+      <c r="Q104" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="X104" s="6" t="s">
+      <c r="X104" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AC104" s="6" t="s">
+      <c r="AC104" s="4" t="s">
         <v>307</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="330">
   <si>
     <t>Name</t>
   </si>
@@ -984,6 +984,27 @@
   </si>
   <si>
     <t>Maximum Carnage</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>Annihilation: Conquest</t>
+  </si>
+  <si>
+    <t>Phalanx-Infected</t>
+  </si>
+  <si>
+    <t>Destroy the Nova Corps</t>
+  </si>
+  <si>
+    <t>Modify starting deck; have 1 Nova hero</t>
+  </si>
+  <si>
+    <t>The Contest of Champions</t>
+  </si>
+  <si>
+    <t>Turn the Soul of Adam Warlock</t>
   </si>
 </sst>
 </file>
@@ -1337,11 +1358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1521,167 +1542,167 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>325</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P6" t="s">
         <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>161</v>
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
       <c r="P10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>267</v>
+        <v>42</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>268</v>
+        <v>41</v>
+      </c>
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>150</v>
@@ -1689,148 +1710,145 @@
       <c r="C12">
         <v>8</v>
       </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
       <c r="P12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>269</v>
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="R13" t="s">
+        <v>151</v>
       </c>
       <c r="AC13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="s">
         <v>39</v>
       </c>
-      <c r="T14">
-        <v>1</v>
+      <c r="AC14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>272</v>
+        <v>39</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>54</v>
-      </c>
-      <c r="R16" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>271</v>
       </c>
       <c r="AC16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>54</v>
       </c>
       <c r="R17" t="s">
-        <v>145</v>
+        <v>55</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>274</v>
+        <v>50</v>
+      </c>
+      <c r="R18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
         <v>150</v>
@@ -1845,628 +1863,631 @@
         <v>45</v>
       </c>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>153</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
-      </c>
-      <c r="R20" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="R21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>275</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P23" t="s">
         <v>41</v>
       </c>
-      <c r="R23" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s">
         <v>183</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
         <v>39</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="4" customFormat="1">
-      <c r="A25" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>96</v>
+      <c r="T25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="4" customFormat="1">
+      <c r="A27" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4">
         <v>6</v>
       </c>
-      <c r="O26" s="4">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4" t="s">
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T27" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y27" s="4">
         <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="P27" t="s">
-        <v>41</v>
-      </c>
-      <c r="V27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="6" customFormat="1">
+      <c r="A29" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9</v>
+      </c>
+      <c r="P29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" s="4" customFormat="1">
-      <c r="A29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="4">
-        <v>8</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC29" s="4" t="s">
-        <v>278</v>
+      <c r="R29" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" t="s">
         <v>42</v>
       </c>
       <c r="S30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
-      <c r="A31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="P31" t="s">
-        <v>39</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="4">
+        <v>8</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
       <c r="P32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>64</v>
-      </c>
-      <c r="R32" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="S32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>279</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P34" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>64</v>
       </c>
       <c r="R34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" t="s">
         <v>120</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
         <v>45</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q37" t="s">
         <v>61</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AC37" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="4" customFormat="1">
-      <c r="A36" s="4" t="s">
+    <row r="38" spans="1:29" s="4" customFormat="1">
+      <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C38" s="4">
         <v>10</v>
       </c>
-      <c r="K36" s="4">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4" t="s">
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="4" t="s">
+      <c r="V38" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="Z36" s="4" t="s">
+      <c r="Z38" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
+    <row r="39" spans="1:29" s="4" customFormat="1">
+      <c r="A39" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C39" s="4">
         <v>10</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC37" s="4" t="s">
+      <c r="AC39" s="4" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
-      <c r="A38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
-      <c r="A39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="P39" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>39</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>282</v>
+        <v>45</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
-      <c r="L41">
-        <v>2</v>
-      </c>
       <c r="P41" t="s">
-        <v>42</v>
-      </c>
-      <c r="R41" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
       <c r="P42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>71</v>
-      </c>
-      <c r="X42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="6" customFormat="1">
-      <c r="A43" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="N43" s="6">
-        <v>2</v>
-      </c>
-      <c r="P43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="P43" t="s">
         <v>42</v>
       </c>
-      <c r="R43" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="T43" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="6" t="s">
-        <v>283</v>
+      <c r="R43" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P44" t="s">
-        <v>39</v>
-      </c>
-      <c r="R44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
-      <c r="A45" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45">
-        <v>9</v>
-      </c>
-      <c r="P45" t="s">
-        <v>41</v>
-      </c>
-      <c r="S45" t="s">
-        <v>162</v>
+        <v>45</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>71</v>
+      </c>
+      <c r="X44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="6" customFormat="1">
+      <c r="A45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="N45" s="6">
+        <v>2</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T45" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>285</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P47" t="s">
         <v>41</v>
       </c>
+      <c r="S47" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="C48">
         <v>8</v>
       </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
       <c r="P48" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="R48" t="s">
+        <v>159</v>
       </c>
       <c r="AC48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P49" t="s">
         <v>41</v>
@@ -2474,832 +2495,835 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
-      <c r="I50" t="s">
-        <v>133</v>
-      </c>
-      <c r="J50">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
+      <c r="N50">
+        <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>42</v>
-      </c>
-      <c r="R50" t="s">
-        <v>134</v>
+        <v>45</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>72</v>
       </c>
       <c r="AC50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="C51">
-        <v>8</v>
-      </c>
-      <c r="L51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P51" t="s">
-        <v>42</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>8</v>
       </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
+      <c r="I52" t="s">
+        <v>133</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
       </c>
       <c r="P52" t="s">
-        <v>39</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>317</v>
+        <v>42</v>
+      </c>
+      <c r="R52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C53">
-        <v>11</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
       <c r="N54">
         <v>1</v>
       </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
       <c r="P54" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>288</v>
+        <v>39</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C55">
-        <v>8</v>
-      </c>
-      <c r="L55">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" s="4" customFormat="1">
-      <c r="A56" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="4">
-        <v>8</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="U56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="4" t="s">
-        <v>290</v>
+        <v>45</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
-      <c r="N57">
-        <v>1</v>
+      <c r="L57">
+        <v>2</v>
       </c>
       <c r="P57" t="s">
-        <v>39</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29">
-      <c r="A58" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="P58" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="4" customFormat="1">
+      <c r="A58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="4">
+        <v>8</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="U58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="L59">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C60">
-        <v>8</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="L60">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C61">
-        <v>8</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
       </c>
       <c r="P61" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>260</v>
-      </c>
-      <c r="W61" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" s="4" customFormat="1">
-      <c r="A62" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="4">
-        <v>8</v>
-      </c>
-      <c r="N62" s="4">
-        <v>1</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC62" s="4" t="s">
-        <v>291</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="P62" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C63">
         <v>8</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29">
-      <c r="A64" t="s">
-        <v>322</v>
-      </c>
-      <c r="B64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64">
-        <v>10</v>
-      </c>
-      <c r="K64">
-        <v>2</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="P64" t="s">
         <v>45</v>
       </c>
-      <c r="Q64" t="s">
-        <v>61</v>
-      </c>
-      <c r="R64" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>271</v>
+      <c r="Q63" t="s">
+        <v>260</v>
+      </c>
+      <c r="W63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="4" customFormat="1">
+      <c r="A64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="4">
+        <v>8</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC64" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C65">
         <v>8</v>
       </c>
       <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y65">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P66" t="s">
         <v>45</v>
       </c>
       <c r="Q66" t="s">
-        <v>99</v>
-      </c>
-      <c r="U66">
-        <v>1</v>
-      </c>
-      <c r="W66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" s="4" customFormat="1">
-      <c r="A67" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="4">
-        <v>7</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC67" s="4" t="s">
-        <v>292</v>
+        <v>61</v>
+      </c>
+      <c r="R66" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y67">
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>99</v>
       </c>
       <c r="U68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:29">
-      <c r="A69" t="s">
-        <v>213</v>
-      </c>
-      <c r="B69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69">
-        <v>8</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>61</v>
+      <c r="W68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" s="4" customFormat="1">
+      <c r="A69" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="4">
+        <v>7</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>8</v>
       </c>
-      <c r="N71">
-        <v>2</v>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
       </c>
       <c r="P71" t="s">
         <v>45</v>
       </c>
       <c r="Q71" t="s">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:29">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="K72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P72" t="s">
-        <v>40</v>
-      </c>
-      <c r="R72" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z72">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:29">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
       </c>
       <c r="P73" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:29">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
       </c>
       <c r="P74" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="R74" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z74">
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:29">
       <c r="A75" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C75">
         <v>6</v>
       </c>
-      <c r="N75">
-        <v>2</v>
+      <c r="O75">
+        <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>39</v>
-      </c>
-      <c r="T75">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:29">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>9</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:29">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C77">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
       </c>
       <c r="P77" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C79">
-        <v>5</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P79" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y79">
-        <v>18</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>293</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:29">
       <c r="A81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>41</v>
-      </c>
-      <c r="S81" t="s">
-        <v>161</v>
+        <v>45</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y81">
+        <v>18</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:29">
       <c r="A82" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
-      <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
+      <c r="N82">
+        <v>2</v>
       </c>
       <c r="P82" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:29">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C83">
-        <v>7</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P83" t="s">
-        <v>39</v>
-      </c>
-      <c r="U83">
-        <v>1</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>294</v>
+        <v>41</v>
+      </c>
+      <c r="S83" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:29">
       <c r="A84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="C84">
-        <v>11</v>
-      </c>
-      <c r="K84">
+        <v>8</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="O84">
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>295</v>
+        <v>45</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:29">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>297</v>
+        <v>91</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
       </c>
       <c r="P85" t="s">
-        <v>50</v>
-      </c>
-      <c r="R85" t="s">
-        <v>135</v>
+        <v>39</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
       </c>
       <c r="AC85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:29">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C86">
-        <v>8</v>
-      </c>
-      <c r="N86">
+        <v>11</v>
+      </c>
+      <c r="K86">
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>78</v>
-      </c>
-      <c r="R86" t="s">
-        <v>79</v>
-      </c>
-      <c r="S86" t="s">
-        <v>160</v>
-      </c>
-      <c r="X86" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AC86" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:29">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>297</v>
       </c>
       <c r="P87" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="R87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" s="4" customFormat="1">
-      <c r="A88" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="4">
-        <v>7</v>
-      </c>
-      <c r="P88" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
         <v>45</v>
       </c>
-      <c r="Q88" s="4" t="s">
-        <v>47</v>
+      <c r="Q88" t="s">
+        <v>78</v>
+      </c>
+      <c r="R88" t="s">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s">
+        <v>160</v>
+      </c>
+      <c r="X88" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:29">
       <c r="A89" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -3308,87 +3332,75 @@
         <v>41</v>
       </c>
       <c r="R89" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC89" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29">
-      <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" s="4" customFormat="1">
+      <c r="A90" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="4">
+        <v>7</v>
+      </c>
+      <c r="P90" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q90" t="s">
-        <v>61</v>
+      <c r="Q90" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:29">
       <c r="A91" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="P91" t="s">
+        <v>41</v>
+      </c>
+      <c r="R91" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC91" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="A92" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92">
         <v>6</v>
       </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="P91" t="s">
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="s">
         <v>45</v>
       </c>
-      <c r="Q91" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" s="6" customFormat="1">
-      <c r="A92" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92" s="6">
-        <v>8</v>
-      </c>
-      <c r="N92" s="6">
-        <v>2</v>
-      </c>
-      <c r="P92" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T92" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC92" s="6" t="s">
-        <v>302</v>
+      <c r="Q92" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:29">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C93">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3397,608 +3409,685 @@
         <v>45</v>
       </c>
       <c r="Q93" t="s">
-        <v>83</v>
-      </c>
-      <c r="X93" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29">
-      <c r="A94" t="s">
-        <v>231</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <v>8</v>
-      </c>
-      <c r="L94">
-        <v>2</v>
-      </c>
-      <c r="P94" t="s">
-        <v>42</v>
+        <v>82</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" s="6" customFormat="1">
+      <c r="A94" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="6">
+        <v>8</v>
+      </c>
+      <c r="N94" s="6">
+        <v>2</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T94" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:29">
       <c r="A95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C95">
         <v>8</v>
       </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
       <c r="P95" t="s">
-        <v>39</v>
-      </c>
-      <c r="T95">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>83</v>
+      </c>
+      <c r="X95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:29">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
       </c>
       <c r="P96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:29">
       <c r="A97" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="P97" t="s">
+        <v>39</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
+      <c r="A98" t="s">
+        <v>233</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="P98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
+      <c r="A99" t="s">
         <v>234</v>
       </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
         <v>303</v>
       </c>
-      <c r="L97">
-        <v>2</v>
-      </c>
-      <c r="P97" t="s">
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="P99" t="s">
         <v>42</v>
       </c>
-      <c r="S97" t="s">
+      <c r="S99" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:29" s="6" customFormat="1">
-      <c r="A98" s="6" t="s">
+    <row r="100" spans="1:29" s="6" customFormat="1">
+      <c r="A100" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B100" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C100" s="6">
         <v>9</v>
       </c>
-      <c r="N98" s="6">
-        <v>2</v>
-      </c>
-      <c r="P98" s="6" t="s">
+      <c r="N100" s="6">
+        <v>2</v>
+      </c>
+      <c r="P100" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T98" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC98" s="6" t="s">
+      <c r="T100" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC100" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:29" s="4" customFormat="1">
-      <c r="A99" s="4" t="s">
+    <row r="101" spans="1:29" s="4" customFormat="1">
+      <c r="A101" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C101" s="4">
         <v>11</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="P101" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R99" s="4" t="s">
+      <c r="R101" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T99" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC99" s="4" t="s">
+      <c r="T101" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="4" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29">
-      <c r="A100" t="s">
-        <v>235</v>
-      </c>
-      <c r="B100" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100">
-        <v>11</v>
-      </c>
-      <c r="K100">
-        <v>2</v>
-      </c>
-      <c r="P100" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29">
-      <c r="A101" t="s">
-        <v>236</v>
-      </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101">
-        <v>8</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="P101" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:29">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B102" t="s">
         <v>31</v>
       </c>
       <c r="C102">
-        <v>10</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
       </c>
       <c r="P102" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>84</v>
-      </c>
-      <c r="X102" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC102" t="s">
-        <v>306</v>
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:29">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B103" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" s="4" customFormat="1">
-      <c r="A104" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C104" s="4">
-        <v>8</v>
-      </c>
-      <c r="P104" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q104" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="X104" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC104" s="4" t="s">
-        <v>307</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" s="6" customFormat="1">
+      <c r="A104" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="6">
+        <v>11</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S104" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>39</v>
-      </c>
-      <c r="R105" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>84</v>
+      </c>
+      <c r="X105" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:29">
       <c r="A106" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C106">
-        <v>8</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P106" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
-      <c r="A107" t="s">
-        <v>129</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107">
-        <v>8</v>
-      </c>
-      <c r="I107" t="s">
-        <v>130</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="P107" t="s">
-        <v>41</v>
-      </c>
-      <c r="R107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" s="4" customFormat="1">
-      <c r="A108" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C108" s="4">
-        <v>8</v>
-      </c>
-      <c r="P108" s="4" t="s">
+    <row r="107" spans="1:29" s="4" customFormat="1">
+      <c r="A107" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="4">
+        <v>8</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X107" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC107" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="P108" t="s">
         <v>39</v>
       </c>
-      <c r="R108" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X108" s="4" t="s">
-        <v>308</v>
+      <c r="R108" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:29">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C109">
         <v>8</v>
       </c>
       <c r="H109">
-        <v>2</v>
-      </c>
-      <c r="K109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>271</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:29">
       <c r="A110" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>10</v>
-      </c>
-      <c r="N110">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="I110" t="s">
+        <v>130</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>87</v>
-      </c>
-      <c r="W110" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29">
-      <c r="A111" t="s">
-        <v>165</v>
-      </c>
-      <c r="B111" t="s">
-        <v>157</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-      <c r="P111" t="s">
         <v>41</v>
       </c>
-      <c r="AA111" t="s">
-        <v>317</v>
+      <c r="R110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" s="4" customFormat="1">
+      <c r="A111" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="4">
+        <v>8</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X111" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:29">
       <c r="A112" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
       </c>
       <c r="P112" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" s="4" customFormat="1">
-      <c r="A113" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C113" s="4">
-        <v>8</v>
-      </c>
-      <c r="N113" s="4">
-        <v>1</v>
-      </c>
-      <c r="P113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
+      <c r="A113" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="P113" t="s">
         <v>45</v>
       </c>
-      <c r="Q113" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y113" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC113" s="4" t="s">
-        <v>310</v>
+      <c r="Q113" t="s">
+        <v>87</v>
+      </c>
+      <c r="W113" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:29">
       <c r="A114" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
-      </c>
-      <c r="C114" t="s">
-        <v>311</v>
+        <v>157</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
       </c>
       <c r="P114" t="s">
-        <v>50</v>
-      </c>
-      <c r="R114" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:29">
       <c r="A115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C115">
-        <v>11</v>
-      </c>
-      <c r="N115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P115" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29">
-      <c r="A116" t="s">
-        <v>245</v>
-      </c>
-      <c r="B116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C116" t="s">
-        <v>313</v>
-      </c>
-      <c r="P116" t="s">
         <v>41</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" s="4" customFormat="1">
+      <c r="A116" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="4">
+        <v>8</v>
+      </c>
+      <c r="N116" s="4">
+        <v>1</v>
+      </c>
+      <c r="P116" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q116" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y116" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC116" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:29">
       <c r="A117" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B117" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P117" t="s">
         <v>50</v>
       </c>
       <c r="R117" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:29">
       <c r="A118" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>50</v>
-      </c>
-      <c r="R118" t="s">
-        <v>88</v>
+        <v>39</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:29">
       <c r="A119" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119">
-        <v>8</v>
+        <v>144</v>
+      </c>
+      <c r="C119" t="s">
+        <v>313</v>
       </c>
       <c r="P119" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
-      <c r="A120" t="s">
-        <v>252</v>
-      </c>
-      <c r="B120" t="s">
-        <v>139</v>
-      </c>
-      <c r="C120">
-        <v>9</v>
-      </c>
-      <c r="N120">
-        <v>2</v>
-      </c>
-      <c r="P120" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>141</v>
+    <row r="120" spans="1:29" s="6" customFormat="1">
+      <c r="A120" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C120" s="6">
+        <v>14</v>
+      </c>
+      <c r="P120" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:29">
       <c r="A121" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
-      </c>
-      <c r="C121">
-        <v>7</v>
+        <v>70</v>
+      </c>
+      <c r="C121" t="s">
+        <v>314</v>
       </c>
       <c r="P121" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" s="4" customFormat="1">
-      <c r="A122" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="4">
-        <v>9</v>
-      </c>
-      <c r="P122" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R122" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC122" s="4" t="s">
-        <v>315</v>
+        <v>50</v>
+      </c>
+      <c r="R121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122">
+        <v>10</v>
+      </c>
+      <c r="P122" t="s">
+        <v>50</v>
+      </c>
+      <c r="R122" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:29">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>8</v>
       </c>
-      <c r="L123">
-        <v>2</v>
-      </c>
       <c r="P123" t="s">
-        <v>42</v>
-      </c>
-      <c r="R123" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:29">
       <c r="A124" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="P124" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+      <c r="P125" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" s="4" customFormat="1">
+      <c r="A126" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126" s="4">
+        <v>9</v>
+      </c>
+      <c r="P126" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R126" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC126" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="P127" t="s">
+        <v>42</v>
+      </c>
+      <c r="R127" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" t="s">
         <v>250</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B128" t="s">
         <v>31</v>
       </c>
-      <c r="C124">
-        <v>8</v>
-      </c>
-      <c r="P124" t="s">
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="P128" t="s">
         <v>41</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="416">
   <si>
     <t>Name</t>
   </si>
@@ -1005,6 +1005,264 @@
   </si>
   <si>
     <t>Turn the Soul of Adam Warlock</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>antman,jpg</t>
+  </si>
+  <si>
+    <t>3 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 4 </t>
+  </si>
+  <si>
+    <t>5 4</t>
+  </si>
+  <si>
+    <t>10 5</t>
+  </si>
+  <si>
+    <t>base2,jpg</t>
+  </si>
+  <si>
+    <t>6 3</t>
+  </si>
+  <si>
+    <t>7 3</t>
+  </si>
+  <si>
+    <t>8 3</t>
+  </si>
+  <si>
+    <t>10 3</t>
+  </si>
+  <si>
+    <t>1 4</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>4 4</t>
+  </si>
+  <si>
+    <t>9 4</t>
+  </si>
+  <si>
+    <t>c75,jpg</t>
+  </si>
+  <si>
+    <t>10 4</t>
+  </si>
+  <si>
+    <t>1 5</t>
+  </si>
+  <si>
+    <t>2 5</t>
+  </si>
+  <si>
+    <t>civilwar,jpg</t>
+  </si>
+  <si>
+    <t>2 2</t>
+  </si>
+  <si>
+    <t>3 2</t>
+  </si>
+  <si>
+    <t>4 2</t>
+  </si>
+  <si>
+    <t>5 2</t>
+  </si>
+  <si>
+    <t>6 2</t>
+  </si>
+  <si>
+    <t>7 2</t>
+  </si>
+  <si>
+    <t>8 2</t>
+  </si>
+  <si>
+    <t>9 2</t>
+  </si>
+  <si>
+    <t>darkcity,jpg</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>5 5</t>
+  </si>
+  <si>
+    <t>7 5</t>
+  </si>
+  <si>
+    <t>6 5</t>
+  </si>
+  <si>
+    <t>8 5</t>
+  </si>
+  <si>
+    <t>9 5</t>
+  </si>
+  <si>
+    <t>dp,jpg</t>
+  </si>
+  <si>
+    <t>6 4</t>
+  </si>
+  <si>
+    <t>7 4</t>
+  </si>
+  <si>
+    <t>8 4</t>
+  </si>
+  <si>
+    <t>earthquake.png</t>
+  </si>
+  <si>
+    <t>file2</t>
+  </si>
+  <si>
+    <t>loc2</t>
+  </si>
+  <si>
+    <t>tsunami.png</t>
+  </si>
+  <si>
+    <t>fearitself,png</t>
+  </si>
+  <si>
+    <t>1 1</t>
+  </si>
+  <si>
+    <t>2 1</t>
+  </si>
+  <si>
+    <t>3 1</t>
+  </si>
+  <si>
+    <t>gotg,jpg</t>
+  </si>
+  <si>
+    <t>10 2</t>
+  </si>
+  <si>
+    <t>1 3</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>5 3</t>
+  </si>
+  <si>
+    <t>hoa,png</t>
+  </si>
+  <si>
+    <t>4 1</t>
+  </si>
+  <si>
+    <t>houseofm,png</t>
+  </si>
+  <si>
+    <t>nomore,png</t>
+  </si>
+  <si>
+    <t>shydra,png</t>
+  </si>
+  <si>
+    <t>hydrat,png</t>
+  </si>
+  <si>
+    <t>korvac,png</t>
+  </si>
+  <si>
+    <t>korvact,png</t>
+  </si>
+  <si>
+    <t>nmschemes,png</t>
+  </si>
+  <si>
+    <t>noir,jpg</t>
+  </si>
+  <si>
+    <t>officers,png</t>
+  </si>
+  <si>
+    <t>pttr,jpg</t>
+  </si>
+  <si>
+    <t>3 3</t>
+  </si>
+  <si>
+    <t>4 3</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>4 7</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>6 7</t>
+  </si>
+  <si>
+    <t>sw1,jpg</t>
+  </si>
+  <si>
+    <t>sw2,jpg</t>
+  </si>
+  <si>
+    <t>10 6</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>2 7</t>
+  </si>
+  <si>
+    <t>7 7</t>
+  </si>
+  <si>
+    <t>villains2,jpg</t>
+  </si>
+  <si>
+    <t>xmen,jpg</t>
+  </si>
+  <si>
+    <t>itc,png</t>
+  </si>
+  <si>
+    <t>venom,png</t>
+  </si>
+  <si>
+    <t>champions,jpg</t>
+  </si>
+  <si>
+    <t>homecoming,jpg</t>
+  </si>
+  <si>
+    <t>hulk,jpg</t>
+  </si>
+  <si>
+    <t>9 3</t>
   </si>
 </sst>
 </file>
@@ -1358,11 +1616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD128"/>
+  <dimension ref="A1:AG128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P105" sqref="P105"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1392,7 +1652,7 @@
     <col min="25" max="25" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,9 +1740,20 @@
       <c r="AC1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AD1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1504,8 +1775,14 @@
       <c r="S2" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AD2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1539,8 +1816,14 @@
       <c r="Z3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AD3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -1559,8 +1842,14 @@
       <c r="S4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AD4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1579,8 +1868,14 @@
       <c r="R5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AD5" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -1596,8 +1891,14 @@
       <c r="R6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AD6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -1616,8 +1917,14 @@
       <c r="R7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AD7" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -1633,8 +1940,14 @@
       <c r="P8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AD8" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -1659,8 +1972,14 @@
       <c r="AC9" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AD9" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -1679,8 +1998,14 @@
       <c r="S10" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AD10" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -1699,8 +2024,14 @@
       <c r="AC11" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AD11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -1719,8 +2050,14 @@
       <c r="Z12" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AD12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -1739,8 +2076,14 @@
       <c r="AC13" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AD13" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1759,8 +2102,14 @@
       <c r="AC14" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AD14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -1779,8 +2128,14 @@
       <c r="T15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AD15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -1802,8 +2157,14 @@
       <c r="AC16" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -1828,8 +2189,14 @@
       <c r="AC17" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>179</v>
       </c>
@@ -1845,8 +2212,14 @@
       <c r="R18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -1868,8 +2241,14 @@
       <c r="AC19" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>154</v>
       </c>
@@ -1888,8 +2267,14 @@
       <c r="Q20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>180</v>
       </c>
@@ -1905,8 +2290,14 @@
       <c r="R21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -1934,8 +2325,14 @@
       <c r="AC22" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1948,8 +2345,14 @@
       <c r="P23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -1965,8 +2368,14 @@
       <c r="R24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -1985,8 +2394,14 @@
       <c r="T25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" s="4" customFormat="1">
+      <c r="AD25" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>184</v>
       </c>
@@ -2011,8 +2426,14 @@
       <c r="V26" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" s="4" customFormat="1">
+      <c r="AD26" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="4" customFormat="1">
       <c r="A27" s="4" t="s">
         <v>185</v>
       </c>
@@ -2037,8 +2458,14 @@
       <c r="Y27" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE27" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>186</v>
       </c>
@@ -2054,8 +2481,14 @@
       <c r="V28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" s="6" customFormat="1">
+      <c r="AD28" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" s="6" customFormat="1">
       <c r="A29" s="6" t="s">
         <v>326</v>
       </c>
@@ -2071,8 +2504,14 @@
       <c r="R29" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>187</v>
       </c>
@@ -2091,8 +2530,14 @@
       <c r="S30" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" s="4" customFormat="1">
+      <c r="AD30" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" s="4" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>118</v>
       </c>
@@ -2111,8 +2556,14 @@
       <c r="AC31" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE31" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>188</v>
       </c>
@@ -2146,8 +2597,14 @@
       <c r="S32" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
         <v>189</v>
       </c>
@@ -2166,8 +2623,20 @@
       <c r="T33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AD33" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
         <v>190</v>
       </c>
@@ -2186,8 +2655,14 @@
       <c r="R34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -2203,8 +2678,14 @@
       <c r="P35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AD35" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -2223,8 +2704,14 @@
       <c r="R36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -2246,8 +2733,14 @@
       <c r="AC37" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" s="4" customFormat="1">
+      <c r="AD37" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" s="4" customFormat="1">
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
@@ -2272,8 +2765,14 @@
       <c r="Z38" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" s="4" customFormat="1">
+      <c r="AD38" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" s="4" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>156</v>
       </c>
@@ -2289,8 +2788,14 @@
       <c r="AC39" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AD39" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -2312,8 +2817,14 @@
       <c r="Q40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AD40" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE40" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
         <v>193</v>
       </c>
@@ -2332,8 +2843,14 @@
       <c r="AA41" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AD41" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -2355,8 +2872,14 @@
       <c r="AC42" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AD42" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -2375,8 +2898,14 @@
       <c r="R43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AD43" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -2395,8 +2924,14 @@
       <c r="X44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" s="6" customFormat="1">
+      <c r="AD44" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="6" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>197</v>
       </c>
@@ -2421,8 +2956,14 @@
       <c r="AC45" s="6" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE45" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -2441,8 +2982,14 @@
       <c r="R46" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="1:29">
+      <c r="AD46" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
         <v>199</v>
       </c>
@@ -2458,8 +3005,14 @@
       <c r="S47" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AD47" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
         <v>158</v>
       </c>
@@ -2478,8 +3031,14 @@
       <c r="AC48" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AD48" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -2492,8 +3051,14 @@
       <c r="P49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AD49" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -2515,8 +3080,14 @@
       <c r="AC50" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AD50" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -2529,8 +3100,14 @@
       <c r="P51" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="AD51" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -2558,8 +3135,20 @@
       <c r="AC52" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="53" spans="1:29">
+      <c r="AD52" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -2578,8 +3167,14 @@
       <c r="S53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:29">
+      <c r="AD53" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -2604,8 +3199,14 @@
       <c r="Y54" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="55" spans="1:29">
+      <c r="AD54" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -2627,8 +3228,14 @@
       <c r="Q55" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:29">
+      <c r="AD55" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
         <v>259</v>
       </c>
@@ -2653,8 +3260,14 @@
       <c r="AC56" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="57" spans="1:29">
+      <c r="AD56" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -2673,8 +3286,14 @@
       <c r="AC57" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" s="4" customFormat="1">
+      <c r="AD57" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" s="4" customFormat="1">
       <c r="A58" s="4" t="s">
         <v>205</v>
       </c>
@@ -2696,8 +3315,14 @@
       <c r="AC58" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="59" spans="1:29">
+      <c r="AD58" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -2716,8 +3341,14 @@
       <c r="U59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AD59" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE59" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
         <v>206</v>
       </c>
@@ -2730,8 +3361,14 @@
       <c r="P60" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AD60" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -2747,8 +3384,14 @@
       <c r="P61" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AD61" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
         <v>207</v>
       </c>
@@ -2767,8 +3410,14 @@
       <c r="P62" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="AD62" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -2790,8 +3439,14 @@
       <c r="W63" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" s="4" customFormat="1">
+      <c r="AD63" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" s="4" customFormat="1">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -2816,8 +3471,14 @@
       <c r="AC64" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="65" spans="1:29">
+      <c r="AD64" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE64" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -2833,8 +3494,14 @@
       <c r="P65" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="66" spans="1:29">
+      <c r="AD65" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE65" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
         <v>322</v>
       </c>
@@ -2862,8 +3529,14 @@
       <c r="Z66" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="67" spans="1:29">
+      <c r="AD66" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE66" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
         <v>209</v>
       </c>
@@ -2888,8 +3561,14 @@
       <c r="Y67">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:29">
+      <c r="AD67" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
         <v>210</v>
       </c>
@@ -2914,8 +3593,14 @@
       <c r="W68" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" s="4" customFormat="1">
+      <c r="AD68" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" s="4" customFormat="1">
       <c r="A69" s="4" t="s">
         <v>211</v>
       </c>
@@ -2934,8 +3619,14 @@
       <c r="AC69" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="70" spans="1:29">
+      <c r="AD69" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE69" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -2954,8 +3645,14 @@
       <c r="U70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:29">
+      <c r="AD70" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
         <v>213</v>
       </c>
@@ -2977,8 +3674,14 @@
       <c r="Q71" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="72" spans="1:29">
+      <c r="AD71" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
         <v>214</v>
       </c>
@@ -2991,8 +3694,14 @@
       <c r="P72" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="73" spans="1:29">
+      <c r="AD72" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3014,8 +3723,14 @@
       <c r="W73" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="74" spans="1:29">
+      <c r="AD73" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
         <v>216</v>
       </c>
@@ -3037,8 +3752,14 @@
       <c r="Z74">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:29">
+      <c r="AD74" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -3054,8 +3775,14 @@
       <c r="P75" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="76" spans="1:29">
+      <c r="AD75" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
         <v>217</v>
       </c>
@@ -3068,8 +3795,14 @@
       <c r="P76" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:29">
+      <c r="AD76" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -3088,8 +3821,14 @@
       <c r="T77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:29">
+      <c r="AD77" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
         <v>219</v>
       </c>
@@ -3105,8 +3844,14 @@
       <c r="P78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:29">
+      <c r="AD78" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
         <v>257</v>
       </c>
@@ -3119,8 +3864,14 @@
       <c r="P79" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="80" spans="1:29">
+      <c r="AD79" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
         <v>143</v>
       </c>
@@ -3136,8 +3887,14 @@
       <c r="P80" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:29">
+      <c r="AD80" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
         <v>220</v>
       </c>
@@ -3162,8 +3919,14 @@
       <c r="AC81" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="82" spans="1:29">
+      <c r="AD81" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
         <v>256</v>
       </c>
@@ -3179,8 +3942,14 @@
       <c r="P82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:29">
+      <c r="AD82" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
         <v>221</v>
       </c>
@@ -3196,8 +3965,14 @@
       <c r="S83" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="84" spans="1:29">
+      <c r="AD83" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
         <v>222</v>
       </c>
@@ -3222,8 +3997,14 @@
       <c r="Q84" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="85" spans="1:29">
+      <c r="AD84" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
         <v>125</v>
       </c>
@@ -3245,8 +4026,14 @@
       <c r="AC85" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="86" spans="1:29">
+      <c r="AD85" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -3265,8 +4052,14 @@
       <c r="AC86" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="87" spans="1:29">
+      <c r="AD86" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -3285,8 +4078,20 @@
       <c r="AC87" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="88" spans="1:29">
+      <c r="AD87" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
         <v>225</v>
       </c>
@@ -3317,8 +4122,14 @@
       <c r="AC88" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="89" spans="1:29">
+      <c r="AD88" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -3334,8 +4145,14 @@
       <c r="R89" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" s="4" customFormat="1">
+      <c r="AD89" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" s="4" customFormat="1">
       <c r="A90" s="4" t="s">
         <v>224</v>
       </c>
@@ -3351,8 +4168,14 @@
       <c r="Q90" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="91" spans="1:29">
+      <c r="AD90" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE90" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
         <v>226</v>
       </c>
@@ -3371,8 +4194,14 @@
       <c r="AC91" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="92" spans="1:29">
+      <c r="AD91" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE91" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
         <v>227</v>
       </c>
@@ -3391,8 +4220,14 @@
       <c r="Q92" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="93" spans="1:29">
+      <c r="AD92" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
         <v>228</v>
       </c>
@@ -3414,8 +4249,14 @@
       <c r="AC93" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" s="6" customFormat="1">
+      <c r="AD93" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" s="6" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>229</v>
       </c>
@@ -3437,8 +4278,14 @@
       <c r="AC94" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="95" spans="1:29">
+      <c r="AD94" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE94" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
         <v>230</v>
       </c>
@@ -3460,8 +4307,14 @@
       <c r="X95" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="96" spans="1:29">
+      <c r="AD95" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
         <v>231</v>
       </c>
@@ -3477,8 +4330,14 @@
       <c r="P96" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="97" spans="1:29">
+      <c r="AD96" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
         <v>232</v>
       </c>
@@ -3494,8 +4353,14 @@
       <c r="T97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:29">
+      <c r="AD97" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -3508,8 +4373,14 @@
       <c r="P98" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="1:29">
+      <c r="AD98" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
         <v>234</v>
       </c>
@@ -3528,8 +4399,14 @@
       <c r="S99" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" s="6" customFormat="1">
+      <c r="AD99" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" s="6" customFormat="1">
       <c r="A100" s="6" t="s">
         <v>149</v>
       </c>
@@ -3551,8 +4428,14 @@
       <c r="AC100" s="6" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" s="4" customFormat="1">
+      <c r="AD100" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE100" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" s="4" customFormat="1">
       <c r="A101" s="4" t="s">
         <v>126</v>
       </c>
@@ -3574,8 +4457,14 @@
       <c r="AC101" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="102" spans="1:29">
+      <c r="AD101" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE101" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
         <v>235</v>
       </c>
@@ -3594,8 +4483,14 @@
       <c r="Z102" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="103" spans="1:29">
+      <c r="AD102" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE102" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
         <v>236</v>
       </c>
@@ -3611,8 +4506,14 @@
       <c r="P103" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" s="6" customFormat="1">
+      <c r="AD103" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" s="6" customFormat="1">
       <c r="A104" s="6" t="s">
         <v>328</v>
       </c>
@@ -3628,8 +4529,14 @@
       <c r="S104" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:29">
+      <c r="AD104" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE104" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -3654,8 +4561,14 @@
       <c r="AC105" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="106" spans="1:29">
+      <c r="AD105" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
         <v>142</v>
       </c>
@@ -3668,8 +4581,14 @@
       <c r="P106" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" s="4" customFormat="1">
+      <c r="AD106" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" s="4" customFormat="1">
       <c r="A107" s="4" t="s">
         <v>146</v>
       </c>
@@ -3691,8 +4610,14 @@
       <c r="AC107" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="108" spans="1:29">
+      <c r="AD107" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -3711,8 +4636,14 @@
       <c r="R108" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="109" spans="1:29">
+      <c r="AD108" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
         <v>239</v>
       </c>
@@ -3728,8 +4659,14 @@
       <c r="P109" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="110" spans="1:29">
+      <c r="AD109" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -3754,8 +4691,20 @@
       <c r="R110" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" s="4" customFormat="1">
+      <c r="AD110" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE110">
+        <v>1</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" s="4" customFormat="1">
       <c r="A111" s="4" t="s">
         <v>254</v>
       </c>
@@ -3774,8 +4723,14 @@
       <c r="X111" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="112" spans="1:29">
+      <c r="AD111" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE111" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -3797,8 +4752,14 @@
       <c r="Z112" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="113" spans="1:29">
+      <c r="AD112" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31">
       <c r="A113" t="s">
         <v>241</v>
       </c>
@@ -3823,8 +4784,14 @@
       <c r="AC113" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="114" spans="1:29">
+      <c r="AD113" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" t="s">
         <v>165</v>
       </c>
@@ -3840,8 +4807,14 @@
       <c r="AA114" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="115" spans="1:29">
+      <c r="AD114" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -3857,8 +4830,14 @@
       <c r="AA115" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" s="4" customFormat="1">
+      <c r="AD115" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
         <v>253</v>
       </c>
@@ -3883,8 +4862,14 @@
       <c r="AC116" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="117" spans="1:29">
+      <c r="AD116" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE116" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31">
       <c r="A117" t="s">
         <v>243</v>
       </c>
@@ -3900,8 +4885,14 @@
       <c r="R117" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="118" spans="1:29">
+      <c r="AD117" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31">
       <c r="A118" t="s">
         <v>244</v>
       </c>
@@ -3920,8 +4911,14 @@
       <c r="AC118" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="119" spans="1:29">
+      <c r="AD118" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -3934,8 +4931,14 @@
       <c r="P119" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" s="6" customFormat="1">
+      <c r="AD119" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" s="6" customFormat="1">
       <c r="A120" s="6" t="s">
         <v>329</v>
       </c>
@@ -3948,8 +4951,14 @@
       <c r="P120" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="121" spans="1:29">
+      <c r="AD120" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE120" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31">
       <c r="A121" t="s">
         <v>246</v>
       </c>
@@ -3965,8 +4974,14 @@
       <c r="R121" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="122" spans="1:29">
+      <c r="AD121" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31">
       <c r="A122" t="s">
         <v>247</v>
       </c>
@@ -3982,8 +4997,14 @@
       <c r="R122" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="123" spans="1:29">
+      <c r="AD122" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31">
       <c r="A123" t="s">
         <v>248</v>
       </c>
@@ -3996,8 +5017,14 @@
       <c r="P123" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="124" spans="1:29">
+      <c r="AD123" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31">
       <c r="A124" t="s">
         <v>252</v>
       </c>
@@ -4016,8 +5043,14 @@
       <c r="Q124" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="125" spans="1:29">
+      <c r="AD124" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -4030,8 +5063,14 @@
       <c r="P125" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="126" spans="1:29" s="4" customFormat="1">
+      <c r="AD125" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" s="4" customFormat="1">
       <c r="A126" s="4" t="s">
         <v>106</v>
       </c>
@@ -4050,8 +5089,14 @@
       <c r="AC126" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="127" spans="1:29">
+      <c r="AD126" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE126" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31">
       <c r="A127" t="s">
         <v>251</v>
       </c>
@@ -4076,8 +5121,14 @@
       <c r="AC127" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="128" spans="1:29">
+      <c r="AD127" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31">
       <c r="A128" t="s">
         <v>250</v>
       </c>
@@ -4089,6 +5140,12 @@
       </c>
       <c r="P128" t="s">
         <v>41</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1142,9 +1142,6 @@
     <t>tsunami.png</t>
   </si>
   <si>
-    <t>fearitself,png</t>
-  </si>
-  <si>
     <t>1 1</t>
   </si>
   <si>
@@ -1263,6 +1260,9 @@
   </si>
   <si>
     <t>9 3</t>
+  </si>
+  <si>
+    <t>fearitself,jpg</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1817,7 @@
         <v>30</v>
       </c>
       <c r="AD3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE3" t="s">
         <v>356</v>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE4" t="s">
         <v>347</v>
@@ -1869,10 +1869,10 @@
         <v>34</v>
       </c>
       <c r="AD5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1892,10 +1892,10 @@
         <v>140</v>
       </c>
       <c r="AD6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE6" t="s">
         <v>384</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1941,10 +1941,10 @@
         <v>42</v>
       </c>
       <c r="AD8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1999,7 +1999,7 @@
         <v>161</v>
       </c>
       <c r="AD10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE10" t="s">
         <v>341</v>
@@ -2025,7 +2025,7 @@
         <v>267</v>
       </c>
       <c r="AD11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE11" t="s">
         <v>364</v>
@@ -2051,7 +2051,7 @@
         <v>268</v>
       </c>
       <c r="AD12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE12" t="s">
         <v>368</v>
@@ -2077,7 +2077,7 @@
         <v>269</v>
       </c>
       <c r="AD13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE13" t="s">
         <v>345</v>
@@ -2158,10 +2158,10 @@
         <v>272</v>
       </c>
       <c r="AD16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2190,7 +2190,7 @@
         <v>273</v>
       </c>
       <c r="AD17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE17" t="s">
         <v>362</v>
@@ -2213,10 +2213,10 @@
         <v>145</v>
       </c>
       <c r="AD18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2242,7 +2242,7 @@
         <v>274</v>
       </c>
       <c r="AD19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE19" t="s">
         <v>335</v>
@@ -2268,7 +2268,7 @@
         <v>78</v>
       </c>
       <c r="AD20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE20" t="s">
         <v>370</v>
@@ -2291,7 +2291,7 @@
         <v>56</v>
       </c>
       <c r="AD21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE21" t="s">
         <v>361</v>
@@ -2326,10 +2326,10 @@
         <v>275</v>
       </c>
       <c r="AD22" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE22" t="s">
         <v>414</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2346,7 +2346,7 @@
         <v>41</v>
       </c>
       <c r="AD23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE23" t="s">
         <v>349</v>
@@ -2395,10 +2395,10 @@
         <v>1</v>
       </c>
       <c r="AD25" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE25" t="s">
         <v>403</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:31" s="4" customFormat="1">
@@ -2505,7 +2505,7 @@
         <v>327</v>
       </c>
       <c r="AD29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>345</v>
@@ -2557,10 +2557,10 @@
         <v>278</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -2598,10 +2598,10 @@
         <v>161</v>
       </c>
       <c r="AD32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -2656,10 +2656,10 @@
         <v>63</v>
       </c>
       <c r="AD34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -2734,10 +2734,10 @@
         <v>280</v>
       </c>
       <c r="AD37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:33" s="4" customFormat="1">
@@ -2766,7 +2766,7 @@
         <v>271</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE38" s="4" t="s">
         <v>340</v>
@@ -2789,10 +2789,10 @@
         <v>281</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -2818,10 +2818,10 @@
         <v>61</v>
       </c>
       <c r="AD40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -2844,7 +2844,7 @@
         <v>317</v>
       </c>
       <c r="AD41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE41" t="s">
         <v>364</v>
@@ -2873,7 +2873,7 @@
         <v>282</v>
       </c>
       <c r="AD42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE42" t="s">
         <v>362</v>
@@ -2899,10 +2899,10 @@
         <v>69</v>
       </c>
       <c r="AD43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -2925,10 +2925,10 @@
         <v>71</v>
       </c>
       <c r="AD44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AE44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="6" customFormat="1">
@@ -2957,7 +2957,7 @@
         <v>283</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE45" s="6" t="s">
         <v>348</v>
@@ -2983,7 +2983,7 @@
         <v>110</v>
       </c>
       <c r="AD46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE46" t="s">
         <v>338</v>
@@ -3032,7 +3032,7 @@
         <v>285</v>
       </c>
       <c r="AD48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE48" t="s">
         <v>347</v>
@@ -3052,7 +3052,7 @@
         <v>41</v>
       </c>
       <c r="AD49" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE49" t="s">
         <v>339</v>
@@ -3081,7 +3081,7 @@
         <v>286</v>
       </c>
       <c r="AD50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE50" t="s">
         <v>361</v>
@@ -3101,10 +3101,10 @@
         <v>41</v>
       </c>
       <c r="AD51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -3136,13 +3136,13 @@
         <v>287</v>
       </c>
       <c r="AD52" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="s">
         <v>386</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>387</v>
       </c>
       <c r="AG52">
         <v>1</v>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="AD53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE53" t="s">
         <v>338</v>
@@ -3200,10 +3200,10 @@
         <v>317</v>
       </c>
       <c r="AD54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE54" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -3261,7 +3261,7 @@
         <v>288</v>
       </c>
       <c r="AD56" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE56" t="s">
         <v>369</v>
@@ -3287,10 +3287,10 @@
         <v>289</v>
       </c>
       <c r="AD57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AE57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="58" spans="1:33" s="4" customFormat="1">
@@ -3316,10 +3316,10 @@
         <v>290</v>
       </c>
       <c r="AD58" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="AD59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE59" s="4" t="s">
         <v>342</v>
@@ -3362,10 +3362,10 @@
         <v>41</v>
       </c>
       <c r="AD60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -3385,10 +3385,10 @@
         <v>42</v>
       </c>
       <c r="AD61" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE61" t="s">
         <v>375</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -3440,7 +3440,7 @@
         <v>260</v>
       </c>
       <c r="AD63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE63" t="s">
         <v>344</v>
@@ -3472,7 +3472,7 @@
         <v>291</v>
       </c>
       <c r="AD64" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE64" s="4" t="s">
         <v>360</v>
@@ -3495,10 +3495,10 @@
         <v>39</v>
       </c>
       <c r="AD65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -3530,7 +3530,7 @@
         <v>271</v>
       </c>
       <c r="AD66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE66" s="4" t="s">
         <v>343</v>
@@ -3594,10 +3594,10 @@
         <v>99</v>
       </c>
       <c r="AD68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:31" s="4" customFormat="1">
@@ -3620,7 +3620,7 @@
         <v>292</v>
       </c>
       <c r="AD69" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE69" s="4" t="s">
         <v>342</v>
@@ -3695,7 +3695,7 @@
         <v>41</v>
       </c>
       <c r="AD72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE72" t="s">
         <v>357</v>
@@ -3753,7 +3753,7 @@
         <v>30</v>
       </c>
       <c r="AD74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE74" t="s">
         <v>347</v>
@@ -3776,7 +3776,7 @@
         <v>41</v>
       </c>
       <c r="AD75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE75" t="s">
         <v>333</v>
@@ -3865,10 +3865,10 @@
         <v>41</v>
       </c>
       <c r="AD79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE79" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -3888,10 +3888,10 @@
         <v>50</v>
       </c>
       <c r="AD80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AE80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -3943,7 +3943,7 @@
         <v>39</v>
       </c>
       <c r="AD82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE82" t="s">
         <v>348</v>
@@ -4027,7 +4027,7 @@
         <v>294</v>
       </c>
       <c r="AD85" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE85" t="s">
         <v>338</v>
@@ -4053,10 +4053,10 @@
         <v>295</v>
       </c>
       <c r="AD86" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:33">
@@ -4079,13 +4079,13 @@
         <v>296</v>
       </c>
       <c r="AD87" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
+      </c>
+      <c r="AF87" t="s">
         <v>388</v>
-      </c>
-      <c r="AE87">
-        <v>1</v>
-      </c>
-      <c r="AF87" t="s">
-        <v>389</v>
       </c>
       <c r="AG87">
         <v>1</v>
@@ -4146,10 +4146,10 @@
         <v>81</v>
       </c>
       <c r="AD89" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:33" s="4" customFormat="1">
@@ -4169,7 +4169,7 @@
         <v>47</v>
       </c>
       <c r="AD90" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE90" s="4" t="s">
         <v>340</v>
@@ -4195,10 +4195,10 @@
         <v>300</v>
       </c>
       <c r="AD91" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE91" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:33">
@@ -4221,7 +4221,7 @@
         <v>61</v>
       </c>
       <c r="AD92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE92" t="s">
         <v>363</v>
@@ -4250,10 +4250,10 @@
         <v>301</v>
       </c>
       <c r="AD93" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE93" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:33" s="6" customFormat="1">
@@ -4279,7 +4279,7 @@
         <v>302</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE94" s="6" t="s">
         <v>345</v>
@@ -4308,10 +4308,10 @@
         <v>83</v>
       </c>
       <c r="AD95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:33">
@@ -4331,7 +4331,7 @@
         <v>42</v>
       </c>
       <c r="AD96" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE96" t="s">
         <v>338</v>
@@ -4374,10 +4374,10 @@
         <v>41</v>
       </c>
       <c r="AD98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE98" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="1:33">
@@ -4429,10 +4429,10 @@
         <v>304</v>
       </c>
       <c r="AD100" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE100" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:33" s="4" customFormat="1">
@@ -4458,7 +4458,7 @@
         <v>305</v>
       </c>
       <c r="AD101" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE101" s="4" t="s">
         <v>344</v>
@@ -4484,10 +4484,10 @@
         <v>271</v>
       </c>
       <c r="AD102" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE102" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:33">
@@ -4507,7 +4507,7 @@
         <v>39</v>
       </c>
       <c r="AD103" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE103" t="s">
         <v>338</v>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="AD104" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE104" s="6" t="s">
         <v>370</v>
@@ -4562,10 +4562,10 @@
         <v>306</v>
       </c>
       <c r="AD105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE105" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:33">
@@ -4582,10 +4582,10 @@
         <v>41</v>
       </c>
       <c r="AD106" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AE106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:33" s="4" customFormat="1">
@@ -4611,10 +4611,10 @@
         <v>307</v>
       </c>
       <c r="AD107" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:33">
@@ -4637,10 +4637,10 @@
         <v>85</v>
       </c>
       <c r="AD108" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE108" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:33">
@@ -4660,10 +4660,10 @@
         <v>41</v>
       </c>
       <c r="AD109" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE109" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:33">
@@ -4692,13 +4692,13 @@
         <v>131</v>
       </c>
       <c r="AD110" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE110">
+        <v>1</v>
+      </c>
+      <c r="AF110" t="s">
         <v>390</v>
-      </c>
-      <c r="AE110">
-        <v>1</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>391</v>
       </c>
       <c r="AG110">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>308</v>
       </c>
       <c r="AD111" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AE111" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -4785,10 +4785,10 @@
         <v>309</v>
       </c>
       <c r="AD113" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AE113" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -4808,10 +4808,10 @@
         <v>317</v>
       </c>
       <c r="AD114" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="AE114" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -4932,10 +4932,10 @@
         <v>41</v>
       </c>
       <c r="AD119" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE119" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:31" s="6" customFormat="1">
@@ -4952,7 +4952,7 @@
         <v>50</v>
       </c>
       <c r="AD120" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE120" s="6" t="s">
         <v>369</v>
@@ -4975,10 +4975,10 @@
         <v>89</v>
       </c>
       <c r="AD121" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE121" t="s">
         <v>379</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:31">
@@ -5044,10 +5044,10 @@
         <v>141</v>
       </c>
       <c r="AD124" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AE124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:31">
@@ -5064,10 +5064,10 @@
         <v>41</v>
       </c>
       <c r="AD125" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE125" t="s">
         <v>395</v>
-      </c>
-      <c r="AE125" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:31" s="4" customFormat="1">
@@ -5090,7 +5090,7 @@
         <v>315</v>
       </c>
       <c r="AD126" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE126" s="4" t="s">
         <v>339</v>
@@ -5142,7 +5142,7 @@
         <v>41</v>
       </c>
       <c r="AD128" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE128" t="s">
         <v>358</v>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1619,10 +1619,10 @@
   <dimension ref="A1:AG128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
+      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2488,26 +2488,26 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="6" customFormat="1">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:31" s="4" customFormat="1">
+      <c r="A29" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>9</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AD29" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="AE29" s="6" t="s">
+      <c r="AE29" s="4" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4513,26 +4513,26 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:33" s="6" customFormat="1">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:33" s="4" customFormat="1">
+      <c r="A104" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="4">
         <v>11</v>
       </c>
-      <c r="P104" s="6" t="s">
+      <c r="P104" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S104" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD104" s="6" t="s">
+      <c r="S104" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="AE104" s="6" t="s">
+      <c r="AE104" s="4" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4938,23 +4938,23 @@
         <v>376</v>
       </c>
     </row>
-    <row r="120" spans="1:31" s="6" customFormat="1">
-      <c r="A120" s="6" t="s">
+    <row r="120" spans="1:31" s="4" customFormat="1">
+      <c r="A120" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="4">
         <v>14</v>
       </c>
-      <c r="P120" s="6" t="s">
+      <c r="P120" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AD120" s="6" t="s">
+      <c r="AD120" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="AE120" s="6" t="s">
+      <c r="AE120" s="4" t="s">
         <v>369</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="429">
   <si>
     <t>Name</t>
   </si>
@@ -1263,6 +1263,45 @@
   </si>
   <si>
     <t>fearitself,jpg</t>
+  </si>
+  <si>
+    <t>War of Kings</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>Can't pay war's wage</t>
+  </si>
+  <si>
+    <t>roksch,jpg</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>Ruin the Perfect Wedding</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Devolve with Xerogen Crystals</t>
+  </si>
+  <si>
+    <t>2:5;3:6;4:7;5:8</t>
+  </si>
+  <si>
+    <t>Extra henchmen group that has abomination</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Tornado of Terrigen Mists</t>
+  </si>
+  <si>
+    <t>Put player tokens into the sewers</t>
   </si>
 </sst>
 </file>
@@ -1616,13 +1655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG128"/>
+  <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2537,322 +2576,325 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="4" customFormat="1">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:31" s="6" customFormat="1">
+      <c r="A31" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N31" s="6">
+        <v>2</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" s="4" customFormat="1">
+      <c r="A32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="4">
-        <v>8</v>
-      </c>
-      <c r="P31" s="4" t="s">
+      <c r="C32" s="4">
+        <v>8</v>
+      </c>
+      <c r="P32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AC31" s="4" t="s">
+      <c r="AC32" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AD31" s="4" t="s">
+      <c r="AD32" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="AE31" s="4" t="s">
+      <c r="AE32" s="4" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="P32" t="s">
-        <v>42</v>
-      </c>
-      <c r="S32" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE32" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="C33">
-        <v>11</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="S33" t="s">
+        <v>161</v>
       </c>
       <c r="AD33" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG33">
-        <v>1</v>
+        <v>411</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>64</v>
-      </c>
-      <c r="R34" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
       </c>
       <c r="AD34" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>404</v>
+        <v>371</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>279</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>64</v>
+      </c>
+      <c r="R35" t="s">
+        <v>63</v>
       </c>
       <c r="AD35" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="AE35" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="N36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36">
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>39</v>
-      </c>
-      <c r="R36" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="AD36" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="AE36" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="A38" t="s">
         <v>120</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
         <v>45</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q38" t="s">
         <v>61</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AC38" t="s">
         <v>280</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AD38" t="s">
         <v>412</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AE38" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" s="4" customFormat="1">
-      <c r="A38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="4">
-        <v>10</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z38" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD38" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE38" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="4" customFormat="1">
       <c r="A39" s="4" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C39" s="4">
         <v>10</v>
       </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
       <c r="P39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD39" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" s="4" customFormat="1">
+      <c r="A40" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10</v>
+      </c>
+      <c r="P40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC39" s="4" t="s">
+      <c r="AC40" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AD39" s="4" t="s">
+      <c r="AD40" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="AE39" s="4" t="s">
+      <c r="AE40" s="4" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33">
-      <c r="A40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="P40" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE40" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="AD41" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>364</v>
+        <v>412</v>
+      </c>
+      <c r="AE41" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -2860,303 +2902,294 @@
       <c r="C42">
         <v>8</v>
       </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
       <c r="P42" t="s">
-        <v>39</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>282</v>
+        <v>50</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>317</v>
       </c>
       <c r="AD42" t="s">
         <v>392</v>
       </c>
       <c r="AE42" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>2</v>
       </c>
       <c r="P43" t="s">
-        <v>42</v>
-      </c>
-      <c r="R43" t="s">
-        <v>69</v>
+        <v>39</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>282</v>
       </c>
       <c r="AD43" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AE43" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:33">
       <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="A45" t="s">
         <v>196</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>70</v>
       </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="P45" t="s">
         <v>45</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q45" t="s">
         <v>71</v>
       </c>
-      <c r="X44" t="s">
+      <c r="X45" t="s">
         <v>71</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AD45" t="s">
         <v>378</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AE45" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="6" customFormat="1">
-      <c r="A45" s="6" t="s">
+    <row r="46" spans="1:33" s="6" customFormat="1">
+      <c r="A46" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N46" s="6">
         <v>2</v>
       </c>
-      <c r="P45" s="6" t="s">
+      <c r="P46" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R45" s="6" t="s">
+      <c r="R46" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="T45" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="6" t="s">
+      <c r="T46" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AD45" s="6" t="s">
+      <c r="AD46" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="AE45" s="6" t="s">
+      <c r="AE46" s="6" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33">
-      <c r="A46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46">
-        <v>6</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="P46" t="s">
-        <v>39</v>
-      </c>
-      <c r="R46" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>41</v>
-      </c>
-      <c r="S47" t="s">
-        <v>162</v>
+        <v>39</v>
+      </c>
+      <c r="R47" t="s">
+        <v>110</v>
       </c>
       <c r="AD47" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="AE47" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P48" t="s">
         <v>41</v>
       </c>
-      <c r="R48" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>285</v>
+      <c r="S48" t="s">
+        <v>162</v>
       </c>
       <c r="AD48" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="AE48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P49" t="s">
         <v>41</v>
       </c>
+      <c r="R49" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>285</v>
+      </c>
       <c r="AD49" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AE49" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P50" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="AD50" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AE50" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>286</v>
       </c>
       <c r="AD51" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="AE51" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="I52" t="s">
-        <v>133</v>
-      </c>
-      <c r="J52">
-        <v>2</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P52" t="s">
-        <v>42</v>
-      </c>
-      <c r="R52" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AD52" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG52">
-        <v>1</v>
+        <v>408</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -3164,88 +3197,94 @@
       <c r="P53" t="s">
         <v>42</v>
       </c>
-      <c r="S53">
-        <v>1</v>
+      <c r="R53" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>287</v>
       </c>
       <c r="AD53" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>338</v>
+        <v>385</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
+      <c r="L54">
+        <v>2</v>
       </c>
       <c r="P54" t="s">
-        <v>39</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>317</v>
+        <v>42</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
       </c>
       <c r="AD54" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="AE54" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C55">
-        <v>11</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
       <c r="P55" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>317</v>
       </c>
       <c r="AD55" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="AE55" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="L56">
+        <v>11</v>
+      </c>
+      <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
@@ -3257,152 +3296,155 @@
       <c r="Q56" t="s">
         <v>61</v>
       </c>
-      <c r="AC56" t="s">
-        <v>288</v>
-      </c>
       <c r="AD56" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="AE56" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58" t="s">
         <v>258</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>70</v>
       </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="L57">
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="L58">
         <v>2</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P58" t="s">
         <v>42</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AC58" t="s">
         <v>289</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AD58" t="s">
         <v>378</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AE58" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="58" spans="1:33" s="4" customFormat="1">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:33" s="4" customFormat="1">
+      <c r="A59" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="4">
-        <v>8</v>
-      </c>
-      <c r="P58" s="4" t="s">
+      <c r="C59" s="4">
+        <v>8</v>
+      </c>
+      <c r="P59" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q58" s="4" t="s">
+      <c r="Q59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="U58" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="4" t="s">
+      <c r="U59" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AD58" s="4" t="s">
+      <c r="AD59" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AE58" s="4" t="s">
+      <c r="AE59" s="4" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33">
-      <c r="A59" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59">
-        <v>8</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="P59" t="s">
-        <v>39</v>
-      </c>
-      <c r="U59">
-        <v>1</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE59" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
       </c>
       <c r="AD60" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>399</v>
+        <v>410</v>
+      </c>
+      <c r="AE60" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="C61">
-        <v>6</v>
-      </c>
-      <c r="L61">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD61" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="AE61" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C62">
-        <v>8</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -3411,145 +3453,136 @@
         <v>42</v>
       </c>
       <c r="AD62" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="AE62" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="P63" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="A64" t="s">
         <v>164</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>150</v>
       </c>
-      <c r="C63">
-        <v>8</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="s">
         <v>45</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q64" t="s">
         <v>260</v>
       </c>
-      <c r="W63" t="s">
+      <c r="W64" t="s">
         <v>260</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AD64" t="s">
         <v>407</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="AE64" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:33" s="4" customFormat="1">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:31" s="4" customFormat="1">
+      <c r="A65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="4">
-        <v>8</v>
-      </c>
-      <c r="N64" s="4">
-        <v>1</v>
-      </c>
-      <c r="P64" s="4" t="s">
+      <c r="C65" s="4">
+        <v>8</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q64" s="4" t="s">
+      <c r="Q65" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R64" s="4" t="s">
+      <c r="R65" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AC64" s="4" t="s">
+      <c r="AC65" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="AD64" s="4" t="s">
+      <c r="AD65" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="AE64" s="4" t="s">
+      <c r="AE65" s="4" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31">
-      <c r="A65" t="s">
-        <v>208</v>
-      </c>
-      <c r="B65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65">
-        <v>8</v>
-      </c>
-      <c r="N65">
-        <v>2</v>
-      </c>
-      <c r="P65" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE65" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="P66" t="s">
         <v>39</v>
       </c>
-      <c r="C66">
-        <v>10</v>
-      </c>
-      <c r="K66">
-        <v>2</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="P66" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>61</v>
-      </c>
-      <c r="R66" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>271</v>
-      </c>
       <c r="AD66" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
       <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="K67">
         <v>2</v>
       </c>
-      <c r="C67">
-        <v>8</v>
-      </c>
       <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
         <v>1</v>
       </c>
       <c r="P67" t="s">
@@ -3558,629 +3591,641 @@
       <c r="Q67" t="s">
         <v>61</v>
       </c>
-      <c r="Y67">
-        <v>12</v>
+      <c r="R67" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>271</v>
       </c>
       <c r="AD67" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>342</v>
+        <v>410</v>
+      </c>
+      <c r="AE67" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
       </c>
       <c r="P68" t="s">
         <v>45</v>
       </c>
       <c r="Q68" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y68">
+        <v>12</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
+      <c r="A69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="P69" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q69" t="s">
         <v>99</v>
       </c>
-      <c r="U68">
-        <v>1</v>
-      </c>
-      <c r="W68" t="s">
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="W69" t="s">
         <v>99</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AD69" t="s">
         <v>408</v>
       </c>
-      <c r="AE68" t="s">
+      <c r="AE69" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="1:31" s="4" customFormat="1">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:31" s="4" customFormat="1">
+      <c r="A70" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C70" s="4">
         <v>7</v>
       </c>
-      <c r="P69" s="4" t="s">
+      <c r="P70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R69" s="4" t="s">
+      <c r="R70" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AC69" s="4" t="s">
+      <c r="AC70" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AD69" s="4" t="s">
+      <c r="AD70" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="AE69" s="4" t="s">
+      <c r="AE70" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31">
-      <c r="A70" t="s">
-        <v>212</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>8</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="P70" t="s">
-        <v>39</v>
-      </c>
-      <c r="U70">
-        <v>1</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>8</v>
       </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="O71">
+      <c r="N71">
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
       </c>
       <c r="AD71" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AE71" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>61</v>
       </c>
       <c r="AD72" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="AE72" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C73">
-        <v>8</v>
-      </c>
-      <c r="N73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P73" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AD73" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="AE73" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C74">
-        <v>10</v>
-      </c>
-      <c r="K74">
+        <v>8</v>
+      </c>
+      <c r="N74">
         <v>2</v>
       </c>
       <c r="P74" t="s">
-        <v>40</v>
-      </c>
-      <c r="R74" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z74">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s">
+        <v>77</v>
       </c>
       <c r="AD74" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="AE74" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C75">
-        <v>6</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
       </c>
       <c r="P75" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="R75" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z75">
+        <v>30</v>
       </c>
       <c r="AD75" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AE75" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
       </c>
       <c r="P76" t="s">
         <v>41</v>
       </c>
       <c r="AD76" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="AE76" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>6</v>
-      </c>
-      <c r="N77">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P77" t="s">
-        <v>39</v>
-      </c>
-      <c r="T77">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AD77" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="AE77" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" t="s">
         <v>39</v>
       </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
       <c r="AD78" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="AE78" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C79">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD79" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="AE79" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C80">
-        <v>11</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P80" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AD80" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="AE80" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="C81">
-        <v>5</v>
-      </c>
-      <c r="O81">
+        <v>11</v>
+      </c>
+      <c r="N81">
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y81">
-        <v>18</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="AD81" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="AE81" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>8</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y82">
+        <v>18</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>293</v>
       </c>
       <c r="AD82" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="AE82" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
       </c>
       <c r="P83" t="s">
-        <v>41</v>
-      </c>
-      <c r="S83" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="AD83" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="AE83" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C84">
-        <v>8</v>
-      </c>
-      <c r="G84">
+        <v>6</v>
+      </c>
+      <c r="P84" t="s">
+        <v>41</v>
+      </c>
+      <c r="S84" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" s="6" customFormat="1">
+      <c r="A85" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C85" s="6">
+        <v>11</v>
+      </c>
+      <c r="N85" s="6">
         <v>2</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33">
-      <c r="A85" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85">
-        <v>7</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="P85" t="s">
-        <v>39</v>
-      </c>
-      <c r="U85">
-        <v>1</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>338</v>
+      <c r="P85" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD85" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE85" s="6" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="C86">
-        <v>11</v>
-      </c>
-      <c r="K86">
+        <v>8</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="O86">
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>295</v>
+        <v>45</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>61</v>
       </c>
       <c r="AD86" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="AE86" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>297</v>
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
       </c>
       <c r="P87" t="s">
-        <v>50</v>
-      </c>
-      <c r="R87" t="s">
-        <v>135</v>
+        <v>39</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AD87" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE87">
-        <v>1</v>
-      </c>
-      <c r="AF87" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG87">
-        <v>1</v>
+        <v>412</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C88">
-        <v>8</v>
-      </c>
-      <c r="N88">
+        <v>11</v>
+      </c>
+      <c r="K88">
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>78</v>
-      </c>
-      <c r="R88" t="s">
-        <v>79</v>
-      </c>
-      <c r="S88" t="s">
-        <v>160</v>
-      </c>
-      <c r="X88" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AC88" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AD88" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="AE88" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C89">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>297</v>
       </c>
       <c r="P89" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="R89" t="s">
-        <v>81</v>
+        <v>135</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>296</v>
       </c>
       <c r="AD89" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="90" spans="1:33" s="4" customFormat="1">
-      <c r="A90" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="4">
-        <v>7</v>
-      </c>
-      <c r="P90" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
+      <c r="A90" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="s">
         <v>45</v>
       </c>
-      <c r="Q90" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD90" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE90" s="4" t="s">
-        <v>340</v>
+      <c r="Q90" t="s">
+        <v>78</v>
+      </c>
+      <c r="R90" t="s">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s">
+        <v>160</v>
+      </c>
+      <c r="X90" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C91">
         <v>8</v>
@@ -4189,111 +4234,99 @@
         <v>41</v>
       </c>
       <c r="R91" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC91" s="4" t="s">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AD91" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE91" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33">
-      <c r="A92" t="s">
-        <v>227</v>
-      </c>
-      <c r="B92" t="s">
-        <v>67</v>
-      </c>
-      <c r="C92">
-        <v>6</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" s="4" customFormat="1">
+      <c r="A92" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="4">
+        <v>7</v>
+      </c>
+      <c r="P92" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q92" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>363</v>
+      <c r="Q92" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD92" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE92" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="P93" t="s">
+        <v>41</v>
+      </c>
+      <c r="R93" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC93" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE93" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
+      <c r="A94" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94">
         <v>6</v>
       </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="P93" t="s">
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94" t="s">
         <v>45</v>
       </c>
-      <c r="Q93" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:33" s="6" customFormat="1">
-      <c r="A94" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="6">
-        <v>8</v>
-      </c>
-      <c r="N94" s="6">
-        <v>2</v>
-      </c>
-      <c r="P94" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T94" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC94" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD94" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE94" s="6" t="s">
-        <v>345</v>
+      <c r="Q94" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -4302,849 +4335,953 @@
         <v>45</v>
       </c>
       <c r="Q95" t="s">
-        <v>83</v>
-      </c>
-      <c r="X95" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>301</v>
       </c>
       <c r="AD95" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="AE95" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="96" spans="1:33">
-      <c r="A96" t="s">
-        <v>231</v>
-      </c>
-      <c r="B96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96">
-        <v>8</v>
-      </c>
-      <c r="L96">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" s="6" customFormat="1">
+      <c r="A96" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="6">
+        <v>8</v>
+      </c>
+      <c r="N96" s="6">
         <v>2</v>
       </c>
-      <c r="P96" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD96" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>338</v>
+      <c r="P96" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T96" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD96" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE96" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C97">
         <v>8</v>
       </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
       <c r="P97" t="s">
-        <v>39</v>
-      </c>
-      <c r="T97">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>83</v>
+      </c>
+      <c r="X97" t="s">
+        <v>83</v>
       </c>
       <c r="AD97" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="AE97" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
       </c>
       <c r="P98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD98" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AE98" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:33">
       <c r="A99" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="P99" t="s">
+        <v>39</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
+      <c r="A100" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100">
+        <v>11</v>
+      </c>
+      <c r="P100" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
+      <c r="A101" t="s">
         <v>234</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>2</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>303</v>
       </c>
-      <c r="L99">
+      <c r="L101">
         <v>2</v>
       </c>
-      <c r="P99" t="s">
+      <c r="P101" t="s">
         <v>42</v>
       </c>
-      <c r="S99" t="s">
+      <c r="S101" t="s">
         <v>155</v>
       </c>
-      <c r="AD99" t="s">
+      <c r="AD101" t="s">
         <v>337</v>
       </c>
-      <c r="AE99" t="s">
+      <c r="AE101" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="100" spans="1:33" s="6" customFormat="1">
-      <c r="A100" s="6" t="s">
+    <row r="102" spans="1:33" s="6" customFormat="1">
+      <c r="A102" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B102" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C102" s="6">
         <v>9</v>
       </c>
-      <c r="N100" s="6">
+      <c r="N102" s="6">
         <v>2</v>
       </c>
-      <c r="P100" s="6" t="s">
+      <c r="P102" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T100" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC100" s="6" t="s">
+      <c r="T102" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AD100" s="6" t="s">
+      <c r="AD102" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="AE100" s="6" t="s">
+      <c r="AE102" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:33" s="4" customFormat="1">
-      <c r="A101" s="4" t="s">
+    <row r="103" spans="1:33" s="4" customFormat="1">
+      <c r="A103" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C103" s="4">
         <v>11</v>
       </c>
-      <c r="P101" s="4" t="s">
+      <c r="P103" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R101" s="4" t="s">
+      <c r="R103" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T101" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC101" s="4" t="s">
+      <c r="T103" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC103" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AD101" s="4" t="s">
+      <c r="AD103" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="AE101" s="4" t="s">
+      <c r="AE103" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
-      <c r="A102" t="s">
+    <row r="104" spans="1:33">
+      <c r="A104" t="s">
         <v>235</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>31</v>
       </c>
-      <c r="C102">
+      <c r="C104">
         <v>11</v>
       </c>
-      <c r="K102">
+      <c r="K104">
         <v>2</v>
       </c>
-      <c r="P102" t="s">
+      <c r="P104" t="s">
         <v>40</v>
       </c>
-      <c r="Z102" t="s">
+      <c r="Z104" t="s">
         <v>271</v>
       </c>
-      <c r="AD102" t="s">
+      <c r="AD104" t="s">
         <v>408</v>
       </c>
-      <c r="AE102" s="4" t="s">
+      <c r="AE104" s="4" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="103" spans="1:33">
-      <c r="A103" t="s">
-        <v>236</v>
-      </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-      <c r="C103">
-        <v>8</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="P103" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="104" spans="1:33" s="4" customFormat="1">
-      <c r="A104" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C104" s="4">
-        <v>11</v>
-      </c>
-      <c r="P104" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S104" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD104" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE104" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:33">
       <c r="A105" t="s">
+        <v>236</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" s="4" customFormat="1">
+      <c r="A106" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="4">
+        <v>11</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S106" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD106" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE106" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
+      <c r="A107" t="s">
         <v>237</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>31</v>
       </c>
-      <c r="C105">
+      <c r="C107">
         <v>10</v>
       </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="P105" t="s">
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="s">
         <v>45</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="Q107" t="s">
         <v>84</v>
       </c>
-      <c r="X105" t="s">
+      <c r="X107" t="s">
         <v>103</v>
       </c>
-      <c r="AC105" t="s">
+      <c r="AC107" t="s">
         <v>306</v>
       </c>
-      <c r="AD105" t="s">
+      <c r="AD107" t="s">
         <v>408</v>
       </c>
-      <c r="AE105" t="s">
+      <c r="AE107" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:33">
-      <c r="A106" t="s">
-        <v>142</v>
-      </c>
-      <c r="B106" t="s">
-        <v>139</v>
-      </c>
-      <c r="C106">
-        <v>10</v>
-      </c>
-      <c r="P106" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD106" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="107" spans="1:33" s="4" customFormat="1">
-      <c r="A107" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C107" s="4">
-        <v>8</v>
-      </c>
-      <c r="P107" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q107" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="X107" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC107" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD107" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C108">
-        <v>8</v>
-      </c>
-      <c r="N108">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P108" t="s">
-        <v>39</v>
-      </c>
-      <c r="R108" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AD108" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="AE108" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="109" spans="1:33">
-      <c r="A109" t="s">
-        <v>239</v>
-      </c>
-      <c r="B109" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="P109" t="s">
-        <v>41</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" s="4" customFormat="1">
+      <c r="A109" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="4">
+        <v>8</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q109" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X109" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC109" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="AD109" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AE109" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C110">
         <v>8</v>
       </c>
-      <c r="I110" t="s">
-        <v>130</v>
-      </c>
-      <c r="J110">
-        <v>1</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
+      <c r="N110">
+        <v>2</v>
       </c>
       <c r="P110" t="s">
+        <v>39</v>
+      </c>
+      <c r="R110" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
+      <c r="A111" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="s">
         <v>41</v>
       </c>
-      <c r="R110" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD110" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE110">
-        <v>1</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>390</v>
-      </c>
-      <c r="AG110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:33" s="4" customFormat="1">
-      <c r="A111" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C111" s="4">
-        <v>8</v>
-      </c>
-      <c r="P111" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R111" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X111" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD111" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AE111" s="4" t="s">
-        <v>380</v>
+      <c r="AD111" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>8</v>
       </c>
-      <c r="H112">
-        <v>2</v>
+      <c r="I112" t="s">
+        <v>130</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>271</v>
+        <v>41</v>
+      </c>
+      <c r="R112" t="s">
+        <v>131</v>
       </c>
       <c r="AD112" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31">
-      <c r="A113" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" t="s">
-        <v>58</v>
-      </c>
-      <c r="C113">
-        <v>10</v>
-      </c>
-      <c r="N113">
-        <v>2</v>
-      </c>
-      <c r="P113" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>87</v>
-      </c>
-      <c r="W113" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC113" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD113" t="s">
-        <v>402</v>
-      </c>
-      <c r="AE113" t="s">
-        <v>398</v>
+        <v>389</v>
+      </c>
+      <c r="AE112">
+        <v>1</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" s="4" customFormat="1">
+      <c r="A113" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="4">
+        <v>8</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R113" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X113" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD113" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE113" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:31">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>8</v>
       </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
       <c r="P114" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>317</v>
+        <v>40</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>271</v>
       </c>
       <c r="AD114" t="s">
-        <v>415</v>
+        <v>337</v>
       </c>
       <c r="AE114" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:31">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
       </c>
       <c r="P115" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>87</v>
+      </c>
+      <c r="W115" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31">
+      <c r="A116" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="P116" t="s">
         <v>41</v>
       </c>
-      <c r="AA115" t="s">
+      <c r="AA116" t="s">
         <v>317</v>
       </c>
-      <c r="AD115" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" s="4" customFormat="1">
-      <c r="A116" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C116" s="4">
-        <v>8</v>
-      </c>
-      <c r="N116" s="4">
-        <v>1</v>
-      </c>
-      <c r="P116" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q116" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y116" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC116" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD116" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE116" s="4" t="s">
-        <v>362</v>
+      <c r="AD116" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:31">
       <c r="A117" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="P117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" s="6" customFormat="1">
+      <c r="A118" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C118" s="6">
+        <v>10</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC118" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD118" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AE118" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" s="4" customFormat="1">
+      <c r="A119" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="4">
+        <v>8</v>
+      </c>
+      <c r="N119" s="4">
+        <v>1</v>
+      </c>
+      <c r="P119" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q119" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y119" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC119" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD119" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE119" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31">
+      <c r="A120" t="s">
         <v>243</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B120" t="s">
         <v>116</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C120" t="s">
         <v>311</v>
       </c>
-      <c r="P117" t="s">
+      <c r="P120" t="s">
         <v>50</v>
       </c>
-      <c r="R117" t="s">
+      <c r="R120" t="s">
         <v>128</v>
       </c>
-      <c r="AD117" t="s">
+      <c r="AD120" t="s">
         <v>332</v>
       </c>
-      <c r="AE117" t="s">
+      <c r="AE120" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31">
-      <c r="A118" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" t="s">
-        <v>116</v>
-      </c>
-      <c r="C118">
-        <v>11</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="P118" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD118" t="s">
-        <v>332</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="119" spans="1:31">
-      <c r="A119" t="s">
-        <v>245</v>
-      </c>
-      <c r="B119" t="s">
-        <v>144</v>
-      </c>
-      <c r="C119" t="s">
-        <v>313</v>
-      </c>
-      <c r="P119" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD119" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="120" spans="1:31" s="4" customFormat="1">
-      <c r="A120" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C120" s="4">
-        <v>14</v>
-      </c>
-      <c r="P120" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD120" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE120" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:31">
       <c r="A121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B121" t="s">
-        <v>70</v>
-      </c>
-      <c r="C121" t="s">
-        <v>314</v>
+        <v>116</v>
+      </c>
+      <c r="C121">
+        <v>11</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>50</v>
-      </c>
-      <c r="R121" t="s">
-        <v>89</v>
+        <v>39</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>312</v>
       </c>
       <c r="AD121" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="AE121" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:31">
       <c r="A122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122">
-        <v>10</v>
+        <v>144</v>
+      </c>
+      <c r="C122" t="s">
+        <v>313</v>
       </c>
       <c r="P122" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" s="4" customFormat="1">
+      <c r="A123" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C123" s="4">
+        <v>14</v>
+      </c>
+      <c r="P123" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD122" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE122" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="123" spans="1:31">
-      <c r="A123" t="s">
-        <v>248</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123">
-        <v>8</v>
-      </c>
-      <c r="P123" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD123" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE123" t="s">
-        <v>339</v>
+      <c r="AD123" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE123" s="4" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:31">
       <c r="A124" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124">
-        <v>9</v>
-      </c>
-      <c r="N124">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="C124" t="s">
+        <v>314</v>
       </c>
       <c r="P124" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>141</v>
+        <v>50</v>
+      </c>
+      <c r="R124" t="s">
+        <v>89</v>
       </c>
       <c r="AD124" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AE124" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:31">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B125" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P125" t="s">
+        <v>50</v>
+      </c>
+      <c r="R125" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="P126" t="s">
         <v>41</v>
       </c>
-      <c r="AD125" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE125" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="126" spans="1:31" s="4" customFormat="1">
-      <c r="A126" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C126" s="4">
-        <v>9</v>
-      </c>
-      <c r="P126" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R126" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC126" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD126" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE126" s="4" t="s">
+      <c r="AD126" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE126" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="127" spans="1:31">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>416</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
+        <v>417</v>
       </c>
       <c r="C127">
-        <v>8</v>
-      </c>
-      <c r="L127">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P127" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R127" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC127" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="AD127" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="AE127" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:31">
       <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="P128" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31">
+      <c r="A129" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="P129" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" s="4" customFormat="1">
+      <c r="A130" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="4">
+        <v>9</v>
+      </c>
+      <c r="P130" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R130" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC130" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD130" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE130" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31">
+      <c r="A131" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="P131" t="s">
+        <v>42</v>
+      </c>
+      <c r="R131" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31">
+      <c r="A132" t="s">
         <v>250</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B132" t="s">
         <v>31</v>
       </c>
-      <c r="C128">
-        <v>8</v>
-      </c>
-      <c r="P128" t="s">
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="P132" t="s">
         <v>41</v>
       </c>
-      <c r="AD128" t="s">
+      <c r="AD132" t="s">
         <v>408</v>
       </c>
-      <c r="AE128" t="s">
+      <c r="AE132" t="s">
         <v>358</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1658,10 +1658,10 @@
   <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2576,32 +2576,32 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="6" customFormat="1">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:31" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="4">
         <v>2</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="P31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="6" t="s">
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="AD31" s="6" t="s">
+      <c r="AD31" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="AE31" s="6" t="s">
+      <c r="AE31" s="4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4040,26 +4040,26 @@
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="6" customFormat="1">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:33" s="4" customFormat="1">
+      <c r="A85" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="4">
         <v>11</v>
       </c>
-      <c r="N85" s="6">
+      <c r="N85" s="4">
         <v>2</v>
       </c>
-      <c r="P85" s="6" t="s">
+      <c r="P85" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AD85" s="6" t="s">
+      <c r="AD85" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="AE85" s="6" t="s">
+      <c r="AE85" s="4" t="s">
         <v>422</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -572,9 +572,6 @@
     <t>Deadpool Kills the Marvel Universe</t>
   </si>
   <si>
-    <t>Deadpool Wants a Chimichanga</t>
-  </si>
-  <si>
     <t>Deadpool Writes a Scheme</t>
   </si>
   <si>
@@ -1302,6 +1299,9 @@
   </si>
   <si>
     <t>Put player tokens into the sewers</t>
+  </si>
+  <si>
+    <t>Deadpool Wants A Chimichanga</t>
   </si>
 </sst>
 </file>
@@ -1658,10 +1658,10 @@
   <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1765,31 +1765,31 @@
         <v>101</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -1812,13 +1812,13 @@
         <v>117</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AD2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE2" t="s">
         <v>332</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1850,24 +1850,24 @@
         <v>98</v>
       </c>
       <c r="Y3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z3">
         <v>30</v>
       </c>
       <c r="AD3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -1876,16 +1876,16 @@
         <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1908,10 +1908,10 @@
         <v>34</v>
       </c>
       <c r="AD5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1931,10 +1931,10 @@
         <v>140</v>
       </c>
       <c r="AD6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE6" t="s">
         <v>383</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1957,10 +1957,10 @@
         <v>36</v>
       </c>
       <c r="AD7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1980,10 +1980,10 @@
         <v>42</v>
       </c>
       <c r="AD8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -2009,13 +2009,13 @@
         <v>44</v>
       </c>
       <c r="AC9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AE9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -2038,10 +2038,10 @@
         <v>161</v>
       </c>
       <c r="AD10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -2061,13 +2061,13 @@
         <v>51</v>
       </c>
       <c r="AC11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -2087,13 +2087,13 @@
         <v>40</v>
       </c>
       <c r="Z12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -2113,13 +2113,13 @@
         <v>151</v>
       </c>
       <c r="AC13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2139,13 +2139,13 @@
         <v>39</v>
       </c>
       <c r="AC14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2168,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="AD15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE15" t="s">
         <v>346</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2191,16 +2191,16 @@
         <v>40</v>
       </c>
       <c r="Z16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC16" t="s">
         <v>271</v>
       </c>
-      <c r="AC16" t="s">
-        <v>272</v>
-      </c>
       <c r="AD16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2226,13 +2226,13 @@
         <v>55</v>
       </c>
       <c r="AC17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2252,10 +2252,10 @@
         <v>145</v>
       </c>
       <c r="AD18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2278,13 +2278,13 @@
         <v>153</v>
       </c>
       <c r="AC19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2307,10 +2307,10 @@
         <v>78</v>
       </c>
       <c r="AD20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2330,10 +2330,10 @@
         <v>56</v>
       </c>
       <c r="AD21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2362,13 +2362,13 @@
         <v>113</v>
       </c>
       <c r="AC22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD22" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE22" t="s">
         <v>413</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2385,10 +2385,10 @@
         <v>41</v>
       </c>
       <c r="AD23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2408,10 +2408,10 @@
         <v>44</v>
       </c>
       <c r="AD24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2434,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="AD25" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE25" t="s">
         <v>402</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:31" s="4" customFormat="1">
@@ -2448,7 +2448,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L26" s="4">
         <v>1</v>
@@ -2466,15 +2466,15 @@
         <v>96</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="4" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>185</v>
+        <v>428</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>59</v>
@@ -2492,21 +2492,21 @@
         <v>61</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y27" s="4">
         <v>12</v>
       </c>
       <c r="AD27" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE27" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="AE27" s="4" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -2521,18 +2521,18 @@
         <v>96</v>
       </c>
       <c r="AD28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AE28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="4" customFormat="1">
       <c r="A29" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C29" s="4">
         <v>9</v>
@@ -2541,18 +2541,18 @@
         <v>42</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -2570,21 +2570,21 @@
         <v>160</v>
       </c>
       <c r="AD30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="4" customFormat="1">
       <c r="A31" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="N31" s="4">
         <v>2</v>
@@ -2596,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="AC31" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE31" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="4" customFormat="1">
@@ -2622,18 +2622,18 @@
         <v>119</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
         <v>93</v>
@@ -2666,15 +2666,15 @@
         <v>161</v>
       </c>
       <c r="AD33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -2692,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="AD34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AE34">
         <v>1</v>
       </c>
       <c r="AF34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG34">
         <v>1</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
@@ -2724,21 +2724,21 @@
         <v>63</v>
       </c>
       <c r="AD35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2747,15 +2747,15 @@
         <v>42</v>
       </c>
       <c r="AD36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
@@ -2773,10 +2773,10 @@
         <v>66</v>
       </c>
       <c r="AD37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AE37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -2799,13 +2799,13 @@
         <v>61</v>
       </c>
       <c r="AC38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AD38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="4" customFormat="1">
@@ -2828,16 +2828,16 @@
         <v>112</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:33" s="4" customFormat="1">
@@ -2854,13 +2854,13 @@
         <v>41</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -2886,15 +2886,15 @@
         <v>61</v>
       </c>
       <c r="AD41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -2909,18 +2909,18 @@
         <v>68</v>
       </c>
       <c r="AA42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -2938,18 +2938,18 @@
         <v>2</v>
       </c>
       <c r="AC43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AD43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -2967,15 +2967,15 @@
         <v>69</v>
       </c>
       <c r="AD44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
@@ -2993,47 +2993,47 @@
         <v>71</v>
       </c>
       <c r="AD45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AE45" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" s="6" customFormat="1">
-      <c r="A46" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B46" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" s="4" customFormat="1">
+      <c r="A46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="N46" s="6">
+      <c r="C46" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="N46" s="4">
         <v>2</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="P46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="R46" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T46" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD46" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE46" s="6" t="s">
-        <v>348</v>
+      <c r="T46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD46" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE46" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
         <v>107</v>
@@ -3051,15 +3051,15 @@
         <v>110</v>
       </c>
       <c r="AD47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
@@ -3074,10 +3074,10 @@
         <v>162</v>
       </c>
       <c r="AD48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AE48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -3097,13 +3097,13 @@
         <v>159</v>
       </c>
       <c r="AC49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AD49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -3120,15 +3120,15 @@
         <v>41</v>
       </c>
       <c r="AD50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
@@ -3146,18 +3146,18 @@
         <v>72</v>
       </c>
       <c r="AC51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
@@ -3169,10 +3169,10 @@
         <v>41</v>
       </c>
       <c r="AD52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -3201,16 +3201,16 @@
         <v>134</v>
       </c>
       <c r="AC53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD53" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="s">
         <v>385</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>386</v>
       </c>
       <c r="AG53">
         <v>1</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" t="s">
         <v>137</v>
@@ -3236,15 +3236,15 @@
         <v>1</v>
       </c>
       <c r="AD54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -3265,18 +3265,18 @@
         <v>1</v>
       </c>
       <c r="Y55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -3297,15 +3297,15 @@
         <v>61</v>
       </c>
       <c r="AD56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" t="s">
         <v>150</v>
@@ -3326,18 +3326,18 @@
         <v>61</v>
       </c>
       <c r="AC57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
@@ -3352,18 +3352,18 @@
         <v>42</v>
       </c>
       <c r="AC58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AE58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:33" s="4" customFormat="1">
       <c r="A59" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>73</v>
@@ -3381,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -3410,15 +3410,15 @@
         <v>1</v>
       </c>
       <c r="AD60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -3430,10 +3430,10 @@
         <v>41</v>
       </c>
       <c r="AD61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -3453,15 +3453,15 @@
         <v>42</v>
       </c>
       <c r="AD62" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AE62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s">
         <v>53</v>
@@ -3479,10 +3479,10 @@
         <v>42</v>
       </c>
       <c r="AD63" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE63" t="s">
         <v>359</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -3502,16 +3502,16 @@
         <v>45</v>
       </c>
       <c r="Q64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:31" s="4" customFormat="1">
@@ -3537,18 +3537,18 @@
         <v>76</v>
       </c>
       <c r="AC65" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AD65" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
         <v>58</v>
@@ -3563,15 +3563,15 @@
         <v>39</v>
       </c>
       <c r="AD66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B67" t="s">
         <v>39</v>
@@ -3595,18 +3595,18 @@
         <v>123</v>
       </c>
       <c r="Z67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD67" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -3630,15 +3630,15 @@
         <v>12</v>
       </c>
       <c r="AD68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
         <v>31</v>
@@ -3662,15 +3662,15 @@
         <v>99</v>
       </c>
       <c r="AD69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:31" s="4" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>107</v>
@@ -3685,18 +3685,18 @@
         <v>109</v>
       </c>
       <c r="AC70" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD70" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -3714,15 +3714,15 @@
         <v>1</v>
       </c>
       <c r="AD71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -3743,15 +3743,15 @@
         <v>61</v>
       </c>
       <c r="AD72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
         <v>31</v>
@@ -3763,15 +3763,15 @@
         <v>41</v>
       </c>
       <c r="AD73" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
         <v>53</v>
@@ -3792,15 +3792,15 @@
         <v>77</v>
       </c>
       <c r="AD74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
         <v>49</v>
@@ -3821,10 +3821,10 @@
         <v>30</v>
       </c>
       <c r="AD75" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -3844,15 +3844,15 @@
         <v>41</v>
       </c>
       <c r="AD76" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -3864,15 +3864,15 @@
         <v>41</v>
       </c>
       <c r="AD77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
@@ -3890,15 +3890,15 @@
         <v>1</v>
       </c>
       <c r="AD78" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B79" t="s">
         <v>116</v>
@@ -3913,15 +3913,15 @@
         <v>39</v>
       </c>
       <c r="AD79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AE79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -3933,10 +3933,10 @@
         <v>41</v>
       </c>
       <c r="AD80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -3956,15 +3956,15 @@
         <v>50</v>
       </c>
       <c r="AD81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -3985,18 +3985,18 @@
         <v>18</v>
       </c>
       <c r="AC82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD82" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B83" t="s">
         <v>150</v>
@@ -4011,15 +4011,15 @@
         <v>39</v>
       </c>
       <c r="AD83" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B84" t="s">
         <v>35</v>
@@ -4034,18 +4034,18 @@
         <v>161</v>
       </c>
       <c r="AD84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AE84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:33" s="4" customFormat="1">
       <c r="A85" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C85" s="4">
         <v>11</v>
@@ -4057,15 +4057,15 @@
         <v>50</v>
       </c>
       <c r="AD85" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
@@ -4089,10 +4089,10 @@
         <v>61</v>
       </c>
       <c r="AD86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:33">
@@ -4115,18 +4115,18 @@
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD87" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s">
         <v>137</v>
@@ -4141,24 +4141,24 @@
         <v>41</v>
       </c>
       <c r="AC88" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AD88" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P89" t="s">
         <v>50</v>
@@ -4167,16 +4167,16 @@
         <v>135</v>
       </c>
       <c r="AC89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AD89" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
+      <c r="AF89" t="s">
         <v>387</v>
-      </c>
-      <c r="AE89">
-        <v>1</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>388</v>
       </c>
       <c r="AG89">
         <v>1</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -4211,13 +4211,13 @@
         <v>102</v>
       </c>
       <c r="AC90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AD90" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE90" t="s">
         <v>337</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:33">
@@ -4237,15 +4237,15 @@
         <v>81</v>
       </c>
       <c r="AD91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE91" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:33" s="4" customFormat="1">
       <c r="A92" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>137</v>
@@ -4260,15 +4260,15 @@
         <v>47</v>
       </c>
       <c r="AD92" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE92" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
@@ -4283,18 +4283,18 @@
         <v>109</v>
       </c>
       <c r="AC93" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE93" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B94" t="s">
         <v>67</v>
@@ -4312,15 +4312,15 @@
         <v>61</v>
       </c>
       <c r="AD94" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE94" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B95" t="s">
         <v>58</v>
@@ -4338,18 +4338,18 @@
         <v>82</v>
       </c>
       <c r="AC95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE95" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:33" s="6" customFormat="1">
       <c r="A96" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>49</v>
@@ -4367,18 +4367,18 @@
         <v>1</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s">
         <v>73</v>
@@ -4399,15 +4399,15 @@
         <v>83</v>
       </c>
       <c r="AD97" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B98" t="s">
         <v>93</v>
@@ -4422,15 +4422,15 @@
         <v>42</v>
       </c>
       <c r="AD98" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
@@ -4445,15 +4445,15 @@
         <v>1</v>
       </c>
       <c r="AD99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE99" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
@@ -4465,21 +4465,21 @@
         <v>41</v>
       </c>
       <c r="AD100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE100" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L101">
         <v>2</v>
@@ -4491,10 +4491,10 @@
         <v>155</v>
       </c>
       <c r="AD101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:33" s="6" customFormat="1">
@@ -4517,13 +4517,13 @@
         <v>1</v>
       </c>
       <c r="AC102" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD102" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE102" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:33" s="4" customFormat="1">
@@ -4546,18 +4546,18 @@
         <v>1</v>
       </c>
       <c r="AC103" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD103" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B104" t="s">
         <v>31</v>
@@ -4572,18 +4572,18 @@
         <v>40</v>
       </c>
       <c r="Z104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD104" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B105" t="s">
         <v>73</v>
@@ -4598,18 +4598,18 @@
         <v>39</v>
       </c>
       <c r="AD105" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AE105" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:33" s="4" customFormat="1">
       <c r="A106" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C106" s="4">
         <v>11</v>
@@ -4621,15 +4621,15 @@
         <v>1</v>
       </c>
       <c r="AD106" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE106" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B107" t="s">
         <v>31</v>
@@ -4650,13 +4650,13 @@
         <v>103</v>
       </c>
       <c r="AC107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD107" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:33">
@@ -4673,10 +4673,10 @@
         <v>41</v>
       </c>
       <c r="AD108" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE108" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:33" s="4" customFormat="1">
@@ -4699,18 +4699,18 @@
         <v>147</v>
       </c>
       <c r="AC109" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AD109" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE109" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -4728,15 +4728,15 @@
         <v>85</v>
       </c>
       <c r="AD110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE110" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B111" t="s">
         <v>58</v>
@@ -4751,10 +4751,10 @@
         <v>41</v>
       </c>
       <c r="AD111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -4783,13 +4783,13 @@
         <v>131</v>
       </c>
       <c r="AD112" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE112">
+        <v>1</v>
+      </c>
+      <c r="AF112" t="s">
         <v>389</v>
-      </c>
-      <c r="AE112">
-        <v>1</v>
-      </c>
-      <c r="AF112" t="s">
-        <v>390</v>
       </c>
       <c r="AG112">
         <v>1</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="113" spans="1:31" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>70</v>
@@ -4812,18 +4812,18 @@
         <v>86</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD113" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:31">
       <c r="A114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -4841,18 +4841,18 @@
         <v>40</v>
       </c>
       <c r="Z114" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE114" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:31">
       <c r="A115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B115" t="s">
         <v>58</v>
@@ -4873,13 +4873,13 @@
         <v>100</v>
       </c>
       <c r="AC115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE115" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -4896,18 +4896,18 @@
         <v>41</v>
       </c>
       <c r="AA116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AE116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:31">
       <c r="A117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
         <v>43</v>
@@ -4919,41 +4919,41 @@
         <v>41</v>
       </c>
       <c r="AA117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD117" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AE117" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31" s="6" customFormat="1">
-      <c r="A118" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" s="4" customFormat="1">
+      <c r="A118" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C118" s="4">
+        <v>10</v>
+      </c>
+      <c r="P118" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC118" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C118" s="6">
-        <v>10</v>
-      </c>
-      <c r="P118" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC118" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD118" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE118" s="6" t="s">
+      <c r="AD118" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE118" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:31" s="4" customFormat="1">
       <c r="A119" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>53</v>
@@ -4971,27 +4971,27 @@
         <v>84</v>
       </c>
       <c r="Y119" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC119" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD119" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE119" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:31">
       <c r="A120" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B120" t="s">
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P120" t="s">
         <v>50</v>
@@ -5000,15 +5000,15 @@
         <v>128</v>
       </c>
       <c r="AD120" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AE120" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" spans="1:31">
       <c r="A121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
         <v>116</v>
@@ -5023,41 +5023,41 @@
         <v>39</v>
       </c>
       <c r="AC121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD121" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AE121" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" spans="1:31">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
         <v>144</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P122" t="s">
         <v>41</v>
       </c>
       <c r="AD122" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" spans="1:31" s="4" customFormat="1">
       <c r="A123" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C123" s="4">
         <v>14</v>
@@ -5066,21 +5066,21 @@
         <v>50</v>
       </c>
       <c r="AD123" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE123" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:31">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
         <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P124" t="s">
         <v>50</v>
@@ -5089,15 +5089,15 @@
         <v>89</v>
       </c>
       <c r="AD124" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE124" t="s">
         <v>378</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:31">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B125" t="s">
         <v>35</v>
@@ -5112,15 +5112,15 @@
         <v>88</v>
       </c>
       <c r="AD125" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE125" t="s">
         <v>350</v>
-      </c>
-      <c r="AE125" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:31">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -5132,18 +5132,18 @@
         <v>41</v>
       </c>
       <c r="AD126" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:31">
       <c r="A127" t="s">
+        <v>415</v>
+      </c>
+      <c r="B127" t="s">
         <v>416</v>
-      </c>
-      <c r="B127" t="s">
-        <v>417</v>
       </c>
       <c r="C127">
         <v>11</v>
@@ -5152,18 +5152,18 @@
         <v>50</v>
       </c>
       <c r="R127" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD127" t="s">
         <v>418</v>
       </c>
-      <c r="AD127" t="s">
+      <c r="AE127" t="s">
         <v>419</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:31">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
         <v>139</v>
@@ -5181,15 +5181,15 @@
         <v>141</v>
       </c>
       <c r="AD128" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE128" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:31">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B129" t="s">
         <v>73</v>
@@ -5201,10 +5201,10 @@
         <v>41</v>
       </c>
       <c r="AD129" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE129" t="s">
         <v>394</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:31" s="4" customFormat="1">
@@ -5224,18 +5224,18 @@
         <v>108</v>
       </c>
       <c r="AC130" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AD130" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE130" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:31">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B131" t="s">
         <v>53</v>
@@ -5253,21 +5253,21 @@
         <v>90</v>
       </c>
       <c r="Y131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD131" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE131" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="132" spans="1:31">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B132" t="s">
         <v>31</v>
@@ -5279,10 +5279,10 @@
         <v>41</v>
       </c>
       <c r="AD132" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE132" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5501,26 +5501,26 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" t="s">
         <v>263</v>
-      </c>
-      <c r="B26" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1661,7 +1661,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2631,44 +2631,44 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
-      <c r="A33" t="s">
+    <row r="33" spans="1:33" s="6" customFormat="1">
+      <c r="A33" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="C33" s="6">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="P33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AD33" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AE33" s="6" t="s">
         <v>395</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -527,9 +527,6 @@
     <t>Avengers vs. X-Men</t>
   </si>
   <si>
-    <t>Bathe the Earth in Cosmic Rays</t>
-  </si>
-  <si>
     <t>Brainwash the Military</t>
   </si>
   <si>
@@ -1302,6 +1299,9 @@
   </si>
   <si>
     <t>Deadpool Wants A Chimichanga</t>
+  </si>
+  <si>
+    <t>Bathe Earth In Cosmic Rays</t>
   </si>
 </sst>
 </file>
@@ -1658,10 +1658,10 @@
   <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:XFD33"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1765,31 +1765,31 @@
         <v>101</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -1812,13 +1812,13 @@
         <v>117</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE2" t="s">
         <v>331</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1850,24 +1850,24 @@
         <v>98</v>
       </c>
       <c r="Y3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z3">
         <v>30</v>
       </c>
       <c r="AD3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -1876,16 +1876,16 @@
         <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1908,10 +1908,10 @@
         <v>34</v>
       </c>
       <c r="AD5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1931,10 +1931,10 @@
         <v>140</v>
       </c>
       <c r="AD6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE6" t="s">
         <v>382</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1957,15 +1957,15 @@
         <v>36</v>
       </c>
       <c r="AD7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1980,15 +1980,15 @@
         <v>42</v>
       </c>
       <c r="AD8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -2009,18 +2009,18 @@
         <v>44</v>
       </c>
       <c r="AC9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AE9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>107</v>
@@ -2038,15 +2038,15 @@
         <v>161</v>
       </c>
       <c r="AD10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -2061,18 +2061,18 @@
         <v>51</v>
       </c>
       <c r="AC11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>150</v>
@@ -2087,18 +2087,18 @@
         <v>40</v>
       </c>
       <c r="Z12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AE12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>150</v>
@@ -2113,13 +2113,13 @@
         <v>151</v>
       </c>
       <c r="AC13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AE13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2139,18 +2139,18 @@
         <v>39</v>
       </c>
       <c r="AC14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -2168,15 +2168,15 @@
         <v>1</v>
       </c>
       <c r="AD15" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE15" t="s">
         <v>345</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -2191,21 +2191,21 @@
         <v>40</v>
       </c>
       <c r="Z16" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC16" t="s">
         <v>270</v>
       </c>
-      <c r="AC16" t="s">
-        <v>271</v>
-      </c>
       <c r="AD16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
@@ -2226,18 +2226,18 @@
         <v>55</v>
       </c>
       <c r="AC17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
         <v>144</v>
@@ -2252,10 +2252,10 @@
         <v>145</v>
       </c>
       <c r="AD18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2278,13 +2278,13 @@
         <v>153</v>
       </c>
       <c r="AC19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AE19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2307,15 +2307,15 @@
         <v>78</v>
       </c>
       <c r="AD20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AE20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -2330,15 +2330,15 @@
         <v>56</v>
       </c>
       <c r="AD21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
         <v>107</v>
@@ -2362,13 +2362,13 @@
         <v>113</v>
       </c>
       <c r="AC22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD22" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE22" t="s">
         <v>412</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2385,15 +2385,15 @@
         <v>41</v>
       </c>
       <c r="AD23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -2408,15 +2408,15 @@
         <v>44</v>
       </c>
       <c r="AD24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
@@ -2434,21 +2434,21 @@
         <v>1</v>
       </c>
       <c r="AD25" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE25" t="s">
         <v>401</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:31" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L26" s="4">
         <v>1</v>
@@ -2466,15 +2466,15 @@
         <v>96</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="4" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>59</v>
@@ -2492,21 +2492,21 @@
         <v>61</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y27" s="4">
         <v>12</v>
       </c>
       <c r="AD27" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE27" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="AE27" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -2521,18 +2521,18 @@
         <v>96</v>
       </c>
       <c r="AD28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AE28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="4" customFormat="1">
       <c r="A29" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C29" s="4">
         <v>9</v>
@@ -2541,18 +2541,18 @@
         <v>42</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -2570,21 +2570,21 @@
         <v>160</v>
       </c>
       <c r="AD30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="4" customFormat="1">
       <c r="A31" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="N31" s="4">
         <v>2</v>
@@ -2596,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="AC31" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE31" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="4" customFormat="1">
@@ -2622,18 +2622,18 @@
         <v>119</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:33" s="6" customFormat="1">
       <c r="A33" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>93</v>
@@ -2666,15 +2666,15 @@
         <v>161</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -2692,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="AD34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE34">
         <v>1</v>
       </c>
       <c r="AF34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG34">
         <v>1</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
@@ -2724,21 +2724,21 @@
         <v>63</v>
       </c>
       <c r="AD35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2747,15 +2747,15 @@
         <v>42</v>
       </c>
       <c r="AD36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
@@ -2773,10 +2773,10 @@
         <v>66</v>
       </c>
       <c r="AD37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AE37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -2799,13 +2799,13 @@
         <v>61</v>
       </c>
       <c r="AC38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="4" customFormat="1">
@@ -2828,16 +2828,16 @@
         <v>112</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:33" s="4" customFormat="1">
@@ -2854,13 +2854,13 @@
         <v>41</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -2886,15 +2886,15 @@
         <v>61</v>
       </c>
       <c r="AD41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -2909,18 +2909,18 @@
         <v>68</v>
       </c>
       <c r="AA42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -2938,18 +2938,18 @@
         <v>2</v>
       </c>
       <c r="AC43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AD43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -2967,15 +2967,15 @@
         <v>69</v>
       </c>
       <c r="AD44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
@@ -2993,21 +2993,21 @@
         <v>71</v>
       </c>
       <c r="AD45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AE45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="4" customFormat="1">
       <c r="A46" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N46" s="4">
         <v>2</v>
@@ -3022,18 +3022,18 @@
         <v>1</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AD46" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE46" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
         <v>107</v>
@@ -3051,15 +3051,15 @@
         <v>110</v>
       </c>
       <c r="AD47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
@@ -3074,10 +3074,10 @@
         <v>162</v>
       </c>
       <c r="AD48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AE48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:33">
@@ -3097,13 +3097,13 @@
         <v>159</v>
       </c>
       <c r="AC49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AE49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -3120,15 +3120,15 @@
         <v>41</v>
       </c>
       <c r="AD50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
@@ -3146,18 +3146,18 @@
         <v>72</v>
       </c>
       <c r="AC51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AD51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
@@ -3169,10 +3169,10 @@
         <v>41</v>
       </c>
       <c r="AD52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -3201,16 +3201,16 @@
         <v>134</v>
       </c>
       <c r="AC53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD53" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="s">
         <v>384</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>385</v>
       </c>
       <c r="AG53">
         <v>1</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
         <v>137</v>
@@ -3236,15 +3236,15 @@
         <v>1</v>
       </c>
       <c r="AD54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -3265,18 +3265,18 @@
         <v>1</v>
       </c>
       <c r="Y55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
@@ -3297,15 +3297,15 @@
         <v>61</v>
       </c>
       <c r="AD56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
         <v>150</v>
@@ -3326,18 +3326,18 @@
         <v>61</v>
       </c>
       <c r="AC57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AE57" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
@@ -3352,18 +3352,18 @@
         <v>42</v>
       </c>
       <c r="AC58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AE58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:33" s="4" customFormat="1">
       <c r="A59" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>73</v>
@@ -3381,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="AC59" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE59" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -3410,15 +3410,15 @@
         <v>1</v>
       </c>
       <c r="AD60" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -3430,10 +3430,10 @@
         <v>41</v>
       </c>
       <c r="AD61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -3453,15 +3453,15 @@
         <v>42</v>
       </c>
       <c r="AD62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
         <v>53</v>
@@ -3479,10 +3479,10 @@
         <v>42</v>
       </c>
       <c r="AD63" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE63" t="s">
         <v>358</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -3502,16 +3502,16 @@
         <v>45</v>
       </c>
       <c r="Q64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AE64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:31" s="4" customFormat="1">
@@ -3537,18 +3537,18 @@
         <v>76</v>
       </c>
       <c r="AC65" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AD65" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE65" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
         <v>58</v>
@@ -3563,15 +3563,15 @@
         <v>39</v>
       </c>
       <c r="AD66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s">
         <v>39</v>
@@ -3595,18 +3595,18 @@
         <v>123</v>
       </c>
       <c r="Z67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD67" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -3630,15 +3630,15 @@
         <v>12</v>
       </c>
       <c r="AD68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
         <v>31</v>
@@ -3662,15 +3662,15 @@
         <v>99</v>
       </c>
       <c r="AD69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:31" s="4" customFormat="1">
       <c r="A70" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>107</v>
@@ -3685,18 +3685,18 @@
         <v>109</v>
       </c>
       <c r="AC70" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AD70" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE70" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -3714,15 +3714,15 @@
         <v>1</v>
       </c>
       <c r="AD71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE71" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
@@ -3743,15 +3743,15 @@
         <v>61</v>
       </c>
       <c r="AD72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s">
         <v>31</v>
@@ -3763,15 +3763,15 @@
         <v>41</v>
       </c>
       <c r="AD73" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE73" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
         <v>53</v>
@@ -3792,15 +3792,15 @@
         <v>77</v>
       </c>
       <c r="AD74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B75" t="s">
         <v>49</v>
@@ -3821,10 +3821,10 @@
         <v>30</v>
       </c>
       <c r="AD75" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE75" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -3844,15 +3844,15 @@
         <v>41</v>
       </c>
       <c r="AD76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -3864,15 +3864,15 @@
         <v>41</v>
       </c>
       <c r="AD77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE77" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
         <v>35</v>
@@ -3890,15 +3890,15 @@
         <v>1</v>
       </c>
       <c r="AD78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
         <v>116</v>
@@ -3913,15 +3913,15 @@
         <v>39</v>
       </c>
       <c r="AD79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AE79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
         <v>37</v>
@@ -3933,10 +3933,10 @@
         <v>41</v>
       </c>
       <c r="AD80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -3956,15 +3956,15 @@
         <v>50</v>
       </c>
       <c r="AD81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -3985,18 +3985,18 @@
         <v>18</v>
       </c>
       <c r="AC82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
         <v>150</v>
@@ -4011,15 +4011,15 @@
         <v>39</v>
       </c>
       <c r="AD83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AE83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B84" t="s">
         <v>35</v>
@@ -4034,18 +4034,18 @@
         <v>161</v>
       </c>
       <c r="AD84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE84" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:33" s="4" customFormat="1">
       <c r="A85" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C85" s="4">
         <v>11</v>
@@ -4057,15 +4057,15 @@
         <v>50</v>
       </c>
       <c r="AD85" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AE85" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
@@ -4089,10 +4089,10 @@
         <v>61</v>
       </c>
       <c r="AD86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE86" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:33">
@@ -4115,18 +4115,18 @@
         <v>1</v>
       </c>
       <c r="AC87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD87" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE87" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88" t="s">
         <v>137</v>
@@ -4141,24 +4141,24 @@
         <v>41</v>
       </c>
       <c r="AC88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P89" t="s">
         <v>50</v>
@@ -4167,16 +4167,16 @@
         <v>135</v>
       </c>
       <c r="AC89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AD89" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
+      </c>
+      <c r="AF89" t="s">
         <v>386</v>
-      </c>
-      <c r="AE89">
-        <v>1</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>387</v>
       </c>
       <c r="AG89">
         <v>1</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -4211,13 +4211,13 @@
         <v>102</v>
       </c>
       <c r="AC90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD90" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE90" t="s">
         <v>336</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:33">
@@ -4237,15 +4237,15 @@
         <v>81</v>
       </c>
       <c r="AD91" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:33" s="4" customFormat="1">
       <c r="A92" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>137</v>
@@ -4260,15 +4260,15 @@
         <v>47</v>
       </c>
       <c r="AD92" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AE92" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
@@ -4283,18 +4283,18 @@
         <v>109</v>
       </c>
       <c r="AC93" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE93" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B94" t="s">
         <v>67</v>
@@ -4312,15 +4312,15 @@
         <v>61</v>
       </c>
       <c r="AD94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AE94" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B95" t="s">
         <v>58</v>
@@ -4338,18 +4338,18 @@
         <v>82</v>
       </c>
       <c r="AC95" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD95" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:33" s="6" customFormat="1">
       <c r="A96" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>49</v>
@@ -4367,18 +4367,18 @@
         <v>1</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD96" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE96" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B97" t="s">
         <v>73</v>
@@ -4399,15 +4399,15 @@
         <v>83</v>
       </c>
       <c r="AD97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B98" t="s">
         <v>93</v>
@@ -4422,15 +4422,15 @@
         <v>42</v>
       </c>
       <c r="AD98" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
@@ -4445,15 +4445,15 @@
         <v>1</v>
       </c>
       <c r="AD99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
@@ -4465,21 +4465,21 @@
         <v>41</v>
       </c>
       <c r="AD100" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE100" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L101">
         <v>2</v>
@@ -4491,10 +4491,10 @@
         <v>155</v>
       </c>
       <c r="AD101" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:33" s="6" customFormat="1">
@@ -4517,13 +4517,13 @@
         <v>1</v>
       </c>
       <c r="AC102" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD102" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE102" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:33" s="4" customFormat="1">
@@ -4546,18 +4546,18 @@
         <v>1</v>
       </c>
       <c r="AC103" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD103" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B104" t="s">
         <v>31</v>
@@ -4572,18 +4572,18 @@
         <v>40</v>
       </c>
       <c r="Z104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B105" t="s">
         <v>73</v>
@@ -4598,18 +4598,18 @@
         <v>39</v>
       </c>
       <c r="AD105" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE105" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:33" s="4" customFormat="1">
       <c r="A106" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C106" s="4">
         <v>11</v>
@@ -4621,15 +4621,15 @@
         <v>1</v>
       </c>
       <c r="AD106" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE106" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s">
         <v>31</v>
@@ -4650,13 +4650,13 @@
         <v>103</v>
       </c>
       <c r="AC107" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:33">
@@ -4673,10 +4673,10 @@
         <v>41</v>
       </c>
       <c r="AD108" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE108" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:33" s="4" customFormat="1">
@@ -4699,18 +4699,18 @@
         <v>147</v>
       </c>
       <c r="AC109" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE109" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -4728,15 +4728,15 @@
         <v>85</v>
       </c>
       <c r="AD110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B111" t="s">
         <v>58</v>
@@ -4751,10 +4751,10 @@
         <v>41</v>
       </c>
       <c r="AD111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -4783,13 +4783,13 @@
         <v>131</v>
       </c>
       <c r="AD112" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE112">
+        <v>1</v>
+      </c>
+      <c r="AF112" t="s">
         <v>388</v>
-      </c>
-      <c r="AE112">
-        <v>1</v>
-      </c>
-      <c r="AF112" t="s">
-        <v>389</v>
       </c>
       <c r="AG112">
         <v>1</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="113" spans="1:31" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>70</v>
@@ -4812,18 +4812,18 @@
         <v>86</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AD113" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AE113" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:31">
       <c r="A114" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -4841,18 +4841,18 @@
         <v>40</v>
       </c>
       <c r="Z114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE114" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:31">
       <c r="A115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
         <v>58</v>
@@ -4873,13 +4873,13 @@
         <v>100</v>
       </c>
       <c r="AC115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD115" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE115" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -4896,18 +4896,18 @@
         <v>41</v>
       </c>
       <c r="AA116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD116" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:31">
       <c r="A117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B117" t="s">
         <v>43</v>
@@ -4919,21 +4919,21 @@
         <v>41</v>
       </c>
       <c r="AA117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD117" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AE117" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:31" s="4" customFormat="1">
       <c r="A118" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C118" s="4">
         <v>10</v>
@@ -4942,10 +4942,10 @@
         <v>41</v>
       </c>
       <c r="AC118" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AD118" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AE118" s="4" t="s">
         <v>45</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="119" spans="1:31" s="4" customFormat="1">
       <c r="A119" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>53</v>
@@ -4971,27 +4971,27 @@
         <v>84</v>
       </c>
       <c r="Y119" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC119" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD119" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE119" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:31">
       <c r="A120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
         <v>116</v>
       </c>
       <c r="C120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P120" t="s">
         <v>50</v>
@@ -5000,15 +5000,15 @@
         <v>128</v>
       </c>
       <c r="AD120" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AE120" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="121" spans="1:31">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
         <v>116</v>
@@ -5023,41 +5023,41 @@
         <v>39</v>
       </c>
       <c r="AC121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AE121" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" spans="1:31">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
         <v>144</v>
       </c>
       <c r="C122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P122" t="s">
         <v>41</v>
       </c>
       <c r="AD122" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE122" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:31" s="4" customFormat="1">
       <c r="A123" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C123" s="4">
         <v>14</v>
@@ -5066,21 +5066,21 @@
         <v>50</v>
       </c>
       <c r="AD123" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AE123" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:31">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B124" t="s">
         <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P124" t="s">
         <v>50</v>
@@ -5089,15 +5089,15 @@
         <v>89</v>
       </c>
       <c r="AD124" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE124" t="s">
         <v>377</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:31">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
         <v>35</v>
@@ -5112,15 +5112,15 @@
         <v>88</v>
       </c>
       <c r="AD125" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE125" t="s">
         <v>349</v>
-      </c>
-      <c r="AE125" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:31">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -5132,18 +5132,18 @@
         <v>41</v>
       </c>
       <c r="AD126" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE126" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="127" spans="1:31">
       <c r="A127" t="s">
+        <v>414</v>
+      </c>
+      <c r="B127" t="s">
         <v>415</v>
-      </c>
-      <c r="B127" t="s">
-        <v>416</v>
       </c>
       <c r="C127">
         <v>11</v>
@@ -5152,18 +5152,18 @@
         <v>50</v>
       </c>
       <c r="R127" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD127" t="s">
         <v>417</v>
       </c>
-      <c r="AD127" t="s">
+      <c r="AE127" t="s">
         <v>418</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:31">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s">
         <v>139</v>
@@ -5181,15 +5181,15 @@
         <v>141</v>
       </c>
       <c r="AD128" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE128" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:31">
       <c r="A129" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B129" t="s">
         <v>73</v>
@@ -5201,10 +5201,10 @@
         <v>41</v>
       </c>
       <c r="AD129" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE129" t="s">
         <v>393</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:31" s="4" customFormat="1">
@@ -5224,18 +5224,18 @@
         <v>108</v>
       </c>
       <c r="AC130" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AD130" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE130" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:31">
       <c r="A131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B131" t="s">
         <v>53</v>
@@ -5253,21 +5253,21 @@
         <v>90</v>
       </c>
       <c r="Y131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AD131" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:31">
       <c r="A132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B132" t="s">
         <v>31</v>
@@ -5279,10 +5279,10 @@
         <v>41</v>
       </c>
       <c r="AD132" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AE132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5501,26 +5501,26 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s">
         <v>262</v>
-      </c>
-      <c r="B26" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="435">
   <si>
     <t>Name</t>
   </si>
@@ -1302,6 +1302,24 @@
   </si>
   <si>
     <t>Bathe Earth In Cosmic Rays</t>
+  </si>
+  <si>
+    <t>Breach Parallel Dimensions</t>
+  </si>
+  <si>
+    <t>ANH</t>
+  </si>
+  <si>
+    <t>anni,jpg</t>
+  </si>
+  <si>
+    <t>Pulse Waves from the Negative Zone</t>
+  </si>
+  <si>
+    <t>Put Humanity on Trial</t>
+  </si>
+  <si>
+    <t>Sneak Attack the Heroes' Homes</t>
   </si>
 </sst>
 </file>
@@ -1655,13 +1673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG132"/>
+  <dimension ref="A1:AG136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="AE101" sqref="AE101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2020,85 +2038,79 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="AD10" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="AE10" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
       <c r="P11" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>265</v>
+        <v>42</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="AD11" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AE11" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>266</v>
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>265</v>
       </c>
       <c r="AD12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AE12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
         <v>150</v>
@@ -2106,190 +2118,187 @@
       <c r="C13">
         <v>8</v>
       </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
       <c r="P13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>267</v>
+        <v>40</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>266</v>
       </c>
       <c r="AD13" t="s">
         <v>405</v>
       </c>
       <c r="AE13" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="R14" t="s">
+        <v>151</v>
       </c>
       <c r="AC14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD14" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="AE14" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
         <v>39</v>
       </c>
-      <c r="T15">
-        <v>1</v>
+      <c r="AC15" t="s">
+        <v>268</v>
       </c>
       <c r="AD15" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="AE15" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="N16">
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>270</v>
+        <v>39</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
       </c>
       <c r="AD16" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="AE16" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>269</v>
       </c>
       <c r="AC17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD17" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AE17" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>54</v>
       </c>
       <c r="R18" t="s">
-        <v>145</v>
+        <v>55</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>271</v>
       </c>
       <c r="AD18" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AE18" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>272</v>
+        <v>50</v>
+      </c>
+      <c r="R19" t="s">
+        <v>145</v>
       </c>
       <c r="AD19" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AE19" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
         <v>150</v>
@@ -2304,623 +2313,626 @@
         <v>45</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>153</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>272</v>
       </c>
       <c r="AD20" t="s">
         <v>405</v>
       </c>
       <c r="AE20" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>41</v>
-      </c>
-      <c r="R21" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>78</v>
       </c>
       <c r="AD21" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AE21" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>273</v>
+        <v>56</v>
       </c>
       <c r="AD22" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AE22" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>273</v>
       </c>
       <c r="AD23" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="AE23" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P24" t="s">
         <v>41</v>
       </c>
-      <c r="R24" t="s">
-        <v>44</v>
-      </c>
       <c r="AD24" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="AE24" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" t="s">
         <v>182</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="N25">
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="N26">
         <v>2</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P26" t="s">
         <v>39</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="s">
         <v>400</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE26" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" s="4" customFormat="1">
-      <c r="A26" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE26" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="4" customFormat="1">
       <c r="A27" s="4" t="s">
-        <v>427</v>
+        <v>183</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="4">
-        <v>6</v>
-      </c>
-      <c r="O27" s="4">
+      <c r="C27" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L27" s="4">
         <v>1</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y27" s="4">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="AD27" s="4" t="s">
         <v>365</v>
       </c>
       <c r="AE27" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE28" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
-      <c r="A28" t="s">
+    <row r="29" spans="1:31">
+      <c r="A29" t="s">
         <v>184</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>6</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P29" t="s">
         <v>41</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V29" t="s">
         <v>96</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AD29" t="s">
         <v>365</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AE29" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="4" customFormat="1">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:31" s="4" customFormat="1">
+      <c r="A30" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <v>9</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="AD29" s="4" t="s">
+      <c r="AD30" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AE30" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
-      <c r="A30" t="s">
+    <row r="31" spans="1:31">
+      <c r="A31" t="s">
         <v>185</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="L30">
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="L31">
         <v>2</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P31" t="s">
         <v>42</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S31" t="s">
         <v>160</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD31" t="s">
         <v>357</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AE31" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" s="4" customFormat="1">
-      <c r="A31" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="N31" s="4">
-        <v>2</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="4" customFormat="1">
       <c r="A32" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="N32" s="4">
+        <v>2</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" s="4" customFormat="1">
+      <c r="A33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="4">
-        <v>8</v>
-      </c>
-      <c r="P32" s="4" t="s">
+      <c r="C33" s="4">
+        <v>8</v>
+      </c>
+      <c r="P33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AC32" s="4" t="s">
+      <c r="AC33" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AD32" s="4" t="s">
+      <c r="AD33" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="AE32" s="4" t="s">
+      <c r="AE33" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="6" customFormat="1">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:33" s="6" customFormat="1">
+      <c r="A34" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="6">
-        <v>8</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1</v>
-      </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6">
-        <v>1</v>
-      </c>
-      <c r="P33" s="6" t="s">
+      <c r="C34" s="6">
+        <v>8</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="P34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="S34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AD34" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="AE33" s="6" t="s">
+      <c r="AE34" s="6" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33">
-      <c r="A34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>11</v>
-      </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-      <c r="P34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>372</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>64</v>
-      </c>
-      <c r="R35" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
       </c>
       <c r="AD35" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>402</v>
+        <v>369</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>277</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>64</v>
+      </c>
+      <c r="R36" t="s">
+        <v>63</v>
       </c>
       <c r="AD36" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="AE36" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>277</v>
+      </c>
+      <c r="L37">
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>39</v>
-      </c>
-      <c r="R37" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="AD37" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="AE37" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="A39" t="s">
         <v>120</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>91</v>
       </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
         <v>45</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q39" t="s">
         <v>61</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AC39" t="s">
         <v>278</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AD39" t="s">
         <v>410</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AE39" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" s="4" customFormat="1">
-      <c r="A39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="4">
-        <v>10</v>
-      </c>
-      <c r="K39" s="4">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD39" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE39" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:33" s="4" customFormat="1">
       <c r="A40" s="4" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
       </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
       <c r="P40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD40" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE40" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="4" customFormat="1">
+      <c r="A41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC40" s="4" t="s">
+      <c r="AC41" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AD40" s="4" t="s">
+      <c r="AD41" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="AE40" s="4" t="s">
+      <c r="AE41" s="4" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41">
-        <v>9</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="P41" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE41" s="4" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q42" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>315</v>
+        <v>61</v>
       </c>
       <c r="AD42" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>362</v>
+        <v>410</v>
+      </c>
+      <c r="AE42" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -2928,303 +2940,294 @@
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
       <c r="P43" t="s">
-        <v>39</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>280</v>
+        <v>50</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>315</v>
       </c>
       <c r="AD43" t="s">
         <v>390</v>
       </c>
       <c r="AE43" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>2</v>
       </c>
       <c r="P44" t="s">
-        <v>42</v>
-      </c>
-      <c r="R44" t="s">
-        <v>69</v>
+        <v>39</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>280</v>
       </c>
       <c r="AD44" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AE44" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="P45" t="s">
+        <v>42</v>
+      </c>
+      <c r="R45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="A46" t="s">
         <v>194</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>70</v>
       </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="P46" t="s">
         <v>45</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q46" t="s">
         <v>71</v>
       </c>
-      <c r="X45" t="s">
+      <c r="X46" t="s">
         <v>71</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AD46" t="s">
         <v>376</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AE46" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="4" customFormat="1">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:33" s="4" customFormat="1">
+      <c r="A47" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N47" s="4">
         <v>2</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R46" s="4" t="s">
+      <c r="R47" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="T46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="4" t="s">
+      <c r="T47" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AD46" s="4" t="s">
+      <c r="AD47" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="AE46" s="4" t="s">
+      <c r="AE47" s="4" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33">
-      <c r="A47" t="s">
-        <v>196</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="P47" t="s">
-        <v>39</v>
-      </c>
-      <c r="R47" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>41</v>
-      </c>
-      <c r="S48" t="s">
-        <v>162</v>
+        <v>39</v>
+      </c>
+      <c r="R48" t="s">
+        <v>110</v>
       </c>
       <c r="AD48" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="AE48" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P49" t="s">
         <v>41</v>
       </c>
-      <c r="R49" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>283</v>
+      <c r="S49" t="s">
+        <v>162</v>
       </c>
       <c r="AD49" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="AE49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P50" t="s">
         <v>41</v>
       </c>
+      <c r="R50" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>283</v>
+      </c>
       <c r="AD50" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="AE50" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="C51">
-        <v>8</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P51" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AD51" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE51" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>284</v>
       </c>
       <c r="AD52" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AE52" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>133</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P53" t="s">
-        <v>42</v>
-      </c>
-      <c r="R53" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="AD53" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>384</v>
-      </c>
-      <c r="AG53">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -3232,88 +3235,94 @@
       <c r="P54" t="s">
         <v>42</v>
       </c>
-      <c r="S54">
-        <v>1</v>
+      <c r="R54" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>285</v>
       </c>
       <c r="AD54" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>336</v>
+        <v>383</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
+      <c r="L55">
+        <v>2</v>
       </c>
       <c r="P55" t="s">
-        <v>39</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>315</v>
+        <v>42</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
       </c>
       <c r="AD55" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="AE55" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="C56">
-        <v>11</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N56">
         <v>1</v>
       </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
       <c r="P56" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>315</v>
       </c>
       <c r="AD56" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="AE56" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="L57">
+        <v>11</v>
+      </c>
+      <c r="M57">
         <v>1</v>
       </c>
       <c r="N57">
@@ -3325,152 +3334,155 @@
       <c r="Q57" t="s">
         <v>61</v>
       </c>
-      <c r="AC57" t="s">
-        <v>286</v>
-      </c>
       <c r="AD57" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="AE57" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:33">
       <c r="A58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="P58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59" t="s">
         <v>256</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>70</v>
       </c>
-      <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="L58">
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="L59">
         <v>2</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P59" t="s">
         <v>42</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AC59" t="s">
         <v>287</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AD59" t="s">
         <v>376</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AE59" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="59" spans="1:33" s="4" customFormat="1">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:33" s="4" customFormat="1">
+      <c r="A60" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="4">
-        <v>8</v>
-      </c>
-      <c r="P59" s="4" t="s">
+      <c r="C60" s="4">
+        <v>8</v>
+      </c>
+      <c r="P60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q59" s="4" t="s">
+      <c r="Q60" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="U59" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="4" t="s">
+      <c r="U60" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AD59" s="4" t="s">
+      <c r="AD60" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="AE59" s="4" t="s">
+      <c r="AE60" s="4" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33">
-      <c r="A60" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60">
-        <v>8</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="P60" t="s">
-        <v>39</v>
-      </c>
-      <c r="U60">
-        <v>1</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE60" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
       </c>
       <c r="AD61" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>397</v>
+        <v>408</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="C62">
-        <v>6</v>
-      </c>
-      <c r="L62">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AD62" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="AE62" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C63">
-        <v>8</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -3479,145 +3491,136 @@
         <v>42</v>
       </c>
       <c r="AD63" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="AE63" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:33">
       <c r="A64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="P64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
+      <c r="A65" t="s">
         <v>164</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>150</v>
       </c>
-      <c r="C64">
-        <v>8</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="P65" t="s">
         <v>45</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="Q65" t="s">
         <v>258</v>
       </c>
-      <c r="W64" t="s">
+      <c r="W65" t="s">
         <v>258</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AD65" t="s">
         <v>405</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AE65" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="1:31" s="4" customFormat="1">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:31" s="4" customFormat="1">
+      <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="4">
-        <v>8</v>
-      </c>
-      <c r="N65" s="4">
-        <v>1</v>
-      </c>
-      <c r="P65" s="4" t="s">
+      <c r="C66" s="4">
+        <v>8</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+      <c r="P66" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q65" s="4" t="s">
+      <c r="Q66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R65" s="4" t="s">
+      <c r="R66" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AC65" s="4" t="s">
+      <c r="AC66" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="AD65" s="4" t="s">
+      <c r="AD66" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="AE65" s="4" t="s">
+      <c r="AE66" s="4" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31">
-      <c r="A66" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66">
-        <v>8</v>
-      </c>
-      <c r="N66">
-        <v>2</v>
-      </c>
-      <c r="P66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE66" s="4" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="P67" t="s">
         <v>39</v>
       </c>
-      <c r="C67">
-        <v>10</v>
-      </c>
-      <c r="K67">
-        <v>2</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="P67" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>61</v>
-      </c>
-      <c r="R67" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>269</v>
-      </c>
       <c r="AD67" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="K68">
         <v>2</v>
       </c>
-      <c r="C68">
-        <v>8</v>
-      </c>
       <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
         <v>1</v>
       </c>
       <c r="P68" t="s">
@@ -3626,595 +3629,574 @@
       <c r="Q68" t="s">
         <v>61</v>
       </c>
-      <c r="Y68">
-        <v>12</v>
+      <c r="R68" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>269</v>
       </c>
       <c r="AD68" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>340</v>
+        <v>408</v>
+      </c>
+      <c r="AE68" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
       </c>
       <c r="P69" t="s">
         <v>45</v>
       </c>
       <c r="Q69" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y69">
+        <v>12</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
+      <c r="A70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="P70" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q70" t="s">
         <v>99</v>
       </c>
-      <c r="U69">
-        <v>1</v>
-      </c>
-      <c r="W69" t="s">
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="W70" t="s">
         <v>99</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AD70" t="s">
         <v>406</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AE70" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:31" s="4" customFormat="1">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:31" s="4" customFormat="1">
+      <c r="A71" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <v>7</v>
       </c>
-      <c r="P70" s="4" t="s">
+      <c r="P71" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R70" s="4" t="s">
+      <c r="R71" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AC70" s="4" t="s">
+      <c r="AC71" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AD70" s="4" t="s">
+      <c r="AD71" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="AE70" s="4" t="s">
+      <c r="AE71" s="4" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31">
-      <c r="A71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>8</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="P71" t="s">
-        <v>39</v>
-      </c>
-      <c r="U71">
-        <v>1</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>8</v>
       </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="O72">
+      <c r="N72">
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
       </c>
       <c r="AD72" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="AE72" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>61</v>
       </c>
       <c r="AD73" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="AE73" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C74">
-        <v>8</v>
-      </c>
-      <c r="N74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P74" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AD74" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="AE74" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C75">
-        <v>10</v>
-      </c>
-      <c r="K75">
+        <v>8</v>
+      </c>
+      <c r="N75">
         <v>2</v>
       </c>
       <c r="P75" t="s">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z75">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s">
+        <v>77</v>
       </c>
       <c r="AD75" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="AE75" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C76">
-        <v>6</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
       </c>
       <c r="P76" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="R76" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z76">
+        <v>30</v>
       </c>
       <c r="AD76" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AE76" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
       </c>
       <c r="P77" t="s">
         <v>41</v>
       </c>
       <c r="AD77" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="AE77" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>6</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P78" t="s">
-        <v>39</v>
-      </c>
-      <c r="T78">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AD78" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="AE78" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" t="s">
         <v>39</v>
       </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
       <c r="AD79" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="AE79" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD80" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="AE80" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C81">
-        <v>11</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P81" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AD81" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="AE81" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>432</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>430</v>
       </c>
       <c r="C82">
-        <v>5</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P82" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y82">
-        <v>18</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="AD82" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="AE82" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>433</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="C83">
-        <v>8</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P83" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AD83" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="AE83" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>41</v>
-      </c>
-      <c r="S84" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="AD84" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="AE84" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" s="4" customFormat="1">
-      <c r="A85" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C85" s="4">
-        <v>11</v>
-      </c>
-      <c r="N85" s="4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
+      <c r="A85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s">
         <v>2</v>
       </c>
-      <c r="P85" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD85" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE85" s="4" t="s">
-        <v>420</v>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y85">
+        <v>18</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C86">
         <v>8</v>
       </c>
-      <c r="G86">
+      <c r="N86">
         <v>2</v>
       </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
       <c r="P86" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD86" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="AE86" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C87">
-        <v>7</v>
-      </c>
-      <c r="N87">
+        <v>6</v>
+      </c>
+      <c r="P87" t="s">
+        <v>41</v>
+      </c>
+      <c r="S87" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" s="4" customFormat="1">
+      <c r="A88" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C88" s="4">
+        <v>11</v>
+      </c>
+      <c r="N88" s="4">
         <v>2</v>
       </c>
-      <c r="P87" t="s">
-        <v>39</v>
-      </c>
-      <c r="U87">
-        <v>1</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33">
-      <c r="A88" t="s">
-        <v>221</v>
-      </c>
-      <c r="B88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88">
-        <v>11</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="P88" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD88" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>380</v>
+      <c r="P88" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD88" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE88" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>295</v>
+        <v>53</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>50</v>
-      </c>
-      <c r="R89" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>294</v>
+        <v>45</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>61</v>
       </c>
       <c r="AD89" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE89">
-        <v>1</v>
-      </c>
-      <c r="AF89" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG89">
-        <v>1</v>
+        <v>357</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="N90">
         <v>2</v>
       </c>
-      <c r="C90">
-        <v>8</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
       <c r="P90" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>78</v>
-      </c>
-      <c r="R90" t="s">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s">
-        <v>160</v>
-      </c>
-      <c r="X90" t="s">
-        <v>102</v>
+        <v>39</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
       </c>
       <c r="AC90" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AD90" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="AE90" t="s">
         <v>336</v>
@@ -4222,1066 +4204,1182 @@
     </row>
     <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
       </c>
       <c r="P91" t="s">
         <v>41</v>
       </c>
-      <c r="R91" t="s">
-        <v>81</v>
+      <c r="AC91" t="s">
+        <v>293</v>
       </c>
       <c r="AD91" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AE91" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33" s="4" customFormat="1">
-      <c r="A92" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C92" s="4">
-        <v>7</v>
-      </c>
-      <c r="P92" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q92" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD92" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE92" s="4" t="s">
-        <v>338</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
+      <c r="A92" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>295</v>
+      </c>
+      <c r="P92" t="s">
+        <v>50</v>
+      </c>
+      <c r="R92" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>8</v>
       </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
       <c r="P93" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>78</v>
       </c>
       <c r="R93" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC93" s="4" t="s">
-        <v>298</v>
+        <v>79</v>
+      </c>
+      <c r="S93" t="s">
+        <v>160</v>
+      </c>
+      <c r="X93" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>296</v>
       </c>
       <c r="AD93" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE93" s="4" t="s">
-        <v>380</v>
+        <v>335</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:33">
       <c r="A94" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="P94" t="s">
+        <v>41</v>
+      </c>
+      <c r="R94" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" s="4" customFormat="1">
+      <c r="A95" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="4">
+        <v>7</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD95" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE95" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
+      <c r="A96" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="P96" t="s">
+        <v>41</v>
+      </c>
+      <c r="R96" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC96" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE96" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31">
+      <c r="A97" t="s">
         <v>225</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B97" t="s">
         <v>67</v>
       </c>
-      <c r="C94">
+      <c r="C97">
         <v>6</v>
       </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:33">
-      <c r="A95" t="s">
-        <v>226</v>
-      </c>
-      <c r="B95" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95">
-        <v>6</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="P95" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="96" spans="1:33" s="6" customFormat="1">
-      <c r="A96" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" s="6">
-        <v>8</v>
-      </c>
-      <c r="N96" s="6">
-        <v>2</v>
-      </c>
-      <c r="P96" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T96" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC96" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD96" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="AE96" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" spans="1:33">
-      <c r="A97" t="s">
-        <v>228</v>
-      </c>
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97">
-        <v>8</v>
-      </c>
-      <c r="N97">
+      <c r="O97">
         <v>1</v>
       </c>
       <c r="P97" t="s">
         <v>45</v>
       </c>
       <c r="Q97" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31">
+      <c r="A98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="P98" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" s="6" customFormat="1">
+      <c r="A99" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="6">
+        <v>8</v>
+      </c>
+      <c r="N99" s="6">
+        <v>2</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T99" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD99" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE99" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" s="4" customFormat="1">
+      <c r="A100" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C100" s="4">
+        <v>6</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD100" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE100" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
+      <c r="A101" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q101" t="s">
         <v>83</v>
       </c>
-      <c r="X97" t="s">
+      <c r="X101" t="s">
         <v>83</v>
       </c>
-      <c r="AD97" t="s">
+      <c r="AD101" t="s">
         <v>392</v>
       </c>
-      <c r="AE97" t="s">
+      <c r="AE101" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
-      <c r="A98" t="s">
+    <row r="102" spans="1:31">
+      <c r="A102" t="s">
         <v>229</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" t="s">
         <v>93</v>
       </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-      <c r="L98">
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="L102">
         <v>2</v>
       </c>
-      <c r="P98" t="s">
+      <c r="P102" t="s">
         <v>42</v>
       </c>
-      <c r="AD98" t="s">
+      <c r="AD102" t="s">
         <v>409</v>
       </c>
-      <c r="AE98" t="s">
+      <c r="AE102" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
-      <c r="A99" t="s">
+    <row r="103" spans="1:31">
+      <c r="A103" t="s">
         <v>230</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" t="s">
         <v>53</v>
       </c>
-      <c r="C99">
-        <v>8</v>
-      </c>
-      <c r="P99" t="s">
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="P103" t="s">
         <v>39</v>
       </c>
-      <c r="T99">
-        <v>1</v>
-      </c>
-      <c r="AD99" t="s">
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="AD103" t="s">
         <v>357</v>
       </c>
-      <c r="AE99" t="s">
+      <c r="AE103" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="100" spans="1:33">
-      <c r="A100" t="s">
+    <row r="104" spans="1:31">
+      <c r="A104" t="s">
         <v>231</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B104" t="s">
         <v>107</v>
-      </c>
-      <c r="C100">
-        <v>11</v>
-      </c>
-      <c r="P100" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD100" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="101" spans="1:33">
-      <c r="A101" t="s">
-        <v>232</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>301</v>
-      </c>
-      <c r="L101">
-        <v>2</v>
-      </c>
-      <c r="P101" t="s">
-        <v>42</v>
-      </c>
-      <c r="S101" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="102" spans="1:33" s="6" customFormat="1">
-      <c r="A102" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C102" s="6">
-        <v>9</v>
-      </c>
-      <c r="N102" s="6">
-        <v>2</v>
-      </c>
-      <c r="P102" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T102" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC102" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD102" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE102" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="103" spans="1:33" s="4" customFormat="1">
-      <c r="A103" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C103" s="4">
-        <v>11</v>
-      </c>
-      <c r="P103" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R103" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="T103" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC103" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD103" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE103" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="104" spans="1:33">
-      <c r="A104" t="s">
-        <v>233</v>
-      </c>
-      <c r="B104" t="s">
-        <v>31</v>
       </c>
       <c r="C104">
         <v>11</v>
       </c>
-      <c r="K104">
+      <c r="P104" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
+      <c r="A105" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" t="s">
         <v>2</v>
       </c>
-      <c r="P104" t="s">
+      <c r="C105" t="s">
+        <v>301</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="P105" t="s">
+        <v>42</v>
+      </c>
+      <c r="S105" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" s="6" customFormat="1">
+      <c r="A106" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="6">
+        <v>9</v>
+      </c>
+      <c r="N106" s="6">
+        <v>2</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T106" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD106" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE106" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" s="4" customFormat="1">
+      <c r="A107" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="4">
+        <v>11</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R107" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T107" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC107" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD107" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE107" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
+      <c r="A108" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="P108" t="s">
         <v>40</v>
       </c>
-      <c r="Z104" t="s">
+      <c r="Z108" t="s">
         <v>269</v>
       </c>
-      <c r="AD104" t="s">
+      <c r="AD108" t="s">
         <v>406</v>
       </c>
-      <c r="AE104" s="4" t="s">
+      <c r="AE108" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
-      <c r="A105" t="s">
+    <row r="109" spans="1:31">
+      <c r="A109" t="s">
         <v>234</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B109" t="s">
         <v>73</v>
       </c>
-      <c r="C105">
-        <v>8</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="P105" t="s">
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="s">
         <v>39</v>
       </c>
-      <c r="AD105" t="s">
+      <c r="AD109" t="s">
         <v>392</v>
       </c>
-      <c r="AE105" t="s">
+      <c r="AE109" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="106" spans="1:33" s="4" customFormat="1">
-      <c r="A106" s="4" t="s">
+    <row r="110" spans="1:31" s="4" customFormat="1">
+      <c r="A110" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C110" s="4">
         <v>11</v>
       </c>
-      <c r="P106" s="4" t="s">
+      <c r="P110" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S106" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD106" s="4" t="s">
+      <c r="S110" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="AE106" s="4" t="s">
+      <c r="AE110" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
-      <c r="A107" t="s">
+    <row r="111" spans="1:31">
+      <c r="A111" t="s">
         <v>235</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B111" t="s">
         <v>31</v>
       </c>
-      <c r="C107">
+      <c r="C111">
         <v>10</v>
       </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="P107" t="s">
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="s">
         <v>45</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="Q111" t="s">
         <v>84</v>
       </c>
-      <c r="X107" t="s">
+      <c r="X111" t="s">
         <v>103</v>
       </c>
-      <c r="AC107" t="s">
+      <c r="AC111" t="s">
         <v>304</v>
       </c>
-      <c r="AD107" t="s">
+      <c r="AD111" t="s">
         <v>406</v>
       </c>
-      <c r="AE107" t="s">
+      <c r="AE111" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="108" spans="1:33">
-      <c r="A108" t="s">
+    <row r="112" spans="1:31">
+      <c r="A112" t="s">
         <v>142</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B112" t="s">
         <v>139</v>
       </c>
-      <c r="C108">
+      <c r="C112">
         <v>10</v>
-      </c>
-      <c r="P108" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD108" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:33" s="4" customFormat="1">
-      <c r="A109" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C109" s="4">
-        <v>8</v>
-      </c>
-      <c r="P109" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q109" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="X109" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC109" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE109" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:33">
-      <c r="A110" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110">
-        <v>8</v>
-      </c>
-      <c r="N110">
-        <v>2</v>
-      </c>
-      <c r="P110" t="s">
-        <v>39</v>
-      </c>
-      <c r="R110" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD110" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="111" spans="1:33">
-      <c r="A111" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111">
-        <v>8</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="P111" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD111" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE111" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="112" spans="1:33">
-      <c r="A112" t="s">
-        <v>129</v>
-      </c>
-      <c r="B112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112">
-        <v>8</v>
-      </c>
-      <c r="I112" t="s">
-        <v>130</v>
-      </c>
-      <c r="J112">
-        <v>1</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
       </c>
       <c r="P112" t="s">
         <v>41</v>
       </c>
-      <c r="R112" t="s">
-        <v>131</v>
-      </c>
       <c r="AD112" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE112">
-        <v>1</v>
-      </c>
-      <c r="AF112" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31" s="4" customFormat="1">
+        <v>381</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="C113" s="4">
         <v>8</v>
       </c>
       <c r="P113" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X113" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC113" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
+      <c r="A114" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="P114" t="s">
         <v>39</v>
       </c>
-      <c r="R113" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X113" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD113" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE113" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="114" spans="1:31">
-      <c r="A114" t="s">
-        <v>238</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114">
-        <v>8</v>
-      </c>
-      <c r="H114">
-        <v>2</v>
-      </c>
-      <c r="K114">
-        <v>2</v>
-      </c>
-      <c r="P114" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>269</v>
+      <c r="R114" t="s">
+        <v>85</v>
       </c>
       <c r="AD114" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="AE114" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="115" spans="1:31">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B115" t="s">
         <v>58</v>
       </c>
       <c r="C115">
-        <v>10</v>
-      </c>
-      <c r="N115">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>87</v>
-      </c>
-      <c r="W115" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="AD115" t="s">
         <v>400</v>
       </c>
       <c r="AE115" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B116" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>8</v>
+      </c>
+      <c r="I116" t="s">
+        <v>130</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
       </c>
       <c r="P116" t="s">
         <v>41</v>
       </c>
-      <c r="AA116" t="s">
+      <c r="R116" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE116">
+        <v>1</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" s="4" customFormat="1">
+      <c r="A117" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="4">
+        <v>8</v>
+      </c>
+      <c r="P117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R117" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X117" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD117" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE117" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
+      <c r="A118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="P118" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="P119" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>87</v>
+      </c>
+      <c r="W119" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
+      <c r="A120" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+      <c r="P120" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA120" t="s">
         <v>315</v>
       </c>
-      <c r="AD116" t="s">
+      <c r="AD120" t="s">
         <v>413</v>
       </c>
-      <c r="AE116" t="s">
+      <c r="AE120" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="117" spans="1:31">
-      <c r="A117" t="s">
+    <row r="121" spans="1:33">
+      <c r="A121" t="s">
         <v>240</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B121" t="s">
         <v>43</v>
       </c>
-      <c r="C117">
+      <c r="C121">
         <v>6</v>
       </c>
-      <c r="P117" t="s">
+      <c r="P121" t="s">
         <v>41</v>
       </c>
-      <c r="AA117" t="s">
+      <c r="AA121" t="s">
         <v>315</v>
       </c>
-      <c r="AD117" t="s">
+      <c r="AD121" t="s">
         <v>344</v>
       </c>
-      <c r="AE117" t="s">
+      <c r="AE121" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="118" spans="1:31" s="4" customFormat="1">
-      <c r="A118" s="4" t="s">
+    <row r="122" spans="1:33" s="4" customFormat="1">
+      <c r="A122" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C122" s="4">
         <v>10</v>
       </c>
-      <c r="P118" s="4" t="s">
+      <c r="P122" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AC118" s="4" t="s">
+      <c r="AC122" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="AD118" s="4" t="s">
+      <c r="AD122" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="AE118" s="4" t="s">
+      <c r="AE122" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:31" s="4" customFormat="1">
-      <c r="A119" s="4" t="s">
+    <row r="123" spans="1:33" s="4" customFormat="1">
+      <c r="A123" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B123" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C119" s="4">
-        <v>8</v>
-      </c>
-      <c r="N119" s="4">
-        <v>1</v>
-      </c>
-      <c r="P119" s="4" t="s">
+      <c r="C123" s="4">
+        <v>8</v>
+      </c>
+      <c r="N123" s="4">
+        <v>1</v>
+      </c>
+      <c r="P123" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q119" s="4" t="s">
+      <c r="Q123" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Y119" s="4" t="s">
+      <c r="Y123" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AC119" s="4" t="s">
+      <c r="AC123" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="AD119" s="4" t="s">
+      <c r="AD123" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="AE119" s="4" t="s">
+      <c r="AE123" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="120" spans="1:31">
-      <c r="A120" t="s">
+    <row r="124" spans="1:33">
+      <c r="A124" t="s">
         <v>241</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B124" t="s">
         <v>116</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C124" t="s">
         <v>309</v>
-      </c>
-      <c r="P120" t="s">
-        <v>50</v>
-      </c>
-      <c r="R120" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD120" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE120" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31">
-      <c r="A121" t="s">
-        <v>242</v>
-      </c>
-      <c r="B121" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121">
-        <v>11</v>
-      </c>
-      <c r="N121">
-        <v>1</v>
-      </c>
-      <c r="P121" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC121" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="122" spans="1:31">
-      <c r="A122" t="s">
-        <v>243</v>
-      </c>
-      <c r="B122" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" t="s">
-        <v>311</v>
-      </c>
-      <c r="P122" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD122" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE122" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="123" spans="1:31" s="4" customFormat="1">
-      <c r="A123" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C123" s="4">
-        <v>14</v>
-      </c>
-      <c r="P123" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD123" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE123" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31">
-      <c r="A124" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" t="s">
-        <v>70</v>
-      </c>
-      <c r="C124" t="s">
-        <v>312</v>
       </c>
       <c r="P124" t="s">
         <v>50</v>
       </c>
       <c r="R124" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AD124" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="AE124" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C125">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>50</v>
-      </c>
-      <c r="R125" t="s">
-        <v>88</v>
+        <v>39</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>310</v>
       </c>
       <c r="AD125" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="AE125" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="126" spans="1:31">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126">
-        <v>8</v>
+        <v>144</v>
+      </c>
+      <c r="C126" t="s">
+        <v>311</v>
       </c>
       <c r="P126" t="s">
         <v>41</v>
       </c>
       <c r="AD126" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="AE126" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="127" spans="1:31">
-      <c r="A127" t="s">
-        <v>414</v>
-      </c>
-      <c r="B127" t="s">
-        <v>415</v>
-      </c>
-      <c r="C127">
-        <v>11</v>
-      </c>
-      <c r="P127" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" s="4" customFormat="1">
+      <c r="A127" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" s="4">
+        <v>14</v>
+      </c>
+      <c r="P127" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R127" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD127" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="AD127" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE127" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
-      </c>
-      <c r="C128">
-        <v>9</v>
-      </c>
-      <c r="N128">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="C128" t="s">
+        <v>312</v>
       </c>
       <c r="P128" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>141</v>
+        <v>50</v>
+      </c>
+      <c r="R128" t="s">
+        <v>89</v>
       </c>
       <c r="AD128" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AE128" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:31">
       <c r="A129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B129" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P129" t="s">
+        <v>50</v>
+      </c>
+      <c r="R129" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31">
+      <c r="A130" t="s">
+        <v>246</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="P130" t="s">
         <v>41</v>
       </c>
-      <c r="AD129" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="130" spans="1:31" s="4" customFormat="1">
-      <c r="A130" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C130" s="4">
-        <v>9</v>
-      </c>
-      <c r="P130" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R130" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC130" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD130" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE130" s="4" t="s">
+      <c r="AD130" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE130" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="131" spans="1:31">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>414</v>
       </c>
       <c r="B131" t="s">
-        <v>53</v>
+        <v>415</v>
       </c>
       <c r="C131">
-        <v>8</v>
-      </c>
-      <c r="L131">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P131" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R131" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y131" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC131" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="AD131" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="AE131" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="1:31">
       <c r="A132" t="s">
+        <v>250</v>
+      </c>
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="P132" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31">
+      <c r="A133" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="P133" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" s="4" customFormat="1">
+      <c r="A134" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" s="4">
+        <v>9</v>
+      </c>
+      <c r="P134" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R134" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC134" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD134" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE134" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31">
+      <c r="A135" t="s">
+        <v>249</v>
+      </c>
+      <c r="B135" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="P135" t="s">
+        <v>42</v>
+      </c>
+      <c r="R135" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31">
+      <c r="A136" t="s">
         <v>248</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B136" t="s">
         <v>31</v>
       </c>
-      <c r="C132">
-        <v>8</v>
-      </c>
-      <c r="P132" t="s">
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="P136" t="s">
         <v>41</v>
       </c>
-      <c r="AD132" t="s">
+      <c r="AD136" t="s">
         <v>406</v>
       </c>
-      <c r="AE132" t="s">
+      <c r="AE136" t="s">
         <v>356</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1676,10 +1676,10 @@
   <dimension ref="A1:AG136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE101" sqref="AE101"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1870,9 +1870,6 @@
       <c r="Y3" t="s">
         <v>315</v>
       </c>
-      <c r="Z3">
-        <v>30</v>
-      </c>
       <c r="AD3" t="s">
         <v>406</v>
       </c>
@@ -1924,6 +1921,9 @@
       </c>
       <c r="R5" t="s">
         <v>34</v>
+      </c>
+      <c r="Z5">
+        <v>30</v>
       </c>
       <c r="AD5" t="s">
         <v>406</v>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1676,10 +1676,10 @@
   <dimension ref="A1:AG136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomRight" activeCell="T107" sqref="T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4640,9 +4640,6 @@
       <c r="R107" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T107" s="4">
-        <v>1</v>
-      </c>
       <c r="AC107" s="4" t="s">
         <v>303</v>
       </c>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="452">
   <si>
     <t>Name</t>
   </si>
@@ -1320,6 +1320,57 @@
   </si>
   <si>
     <t>Sneak Attack the Heroes' Homes</t>
+  </si>
+  <si>
+    <t>Drain Mutants' Powers to…</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>mc2,jpg</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>Hack Cerebro Servers to…</t>
+  </si>
+  <si>
+    <t>2 6</t>
+  </si>
+  <si>
+    <t>Hire Singularity Investigations to…</t>
+  </si>
+  <si>
+    <t>3 6</t>
+  </si>
+  <si>
+    <t>Raid Gene Banks to…</t>
+  </si>
+  <si>
+    <t>5 6</t>
+  </si>
+  <si>
+    <t>Claim Souls for Demons</t>
+  </si>
+  <si>
+    <t>DRS</t>
+  </si>
+  <si>
+    <t>strangexp,jpg</t>
+  </si>
+  <si>
+    <t>Cursed Pages of the Darkhold Tome</t>
+  </si>
+  <si>
+    <t>Duels of Science and Magic</t>
+  </si>
+  <si>
+    <t>2:9;3:11;4:10;5:11</t>
+  </si>
+  <si>
+    <t>War for the Dream Dimension</t>
   </si>
 </sst>
 </file>
@@ -1673,13 +1724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG136"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T107" sqref="T107"/>
+      <selection pane="bottomRight" activeCell="AE139" sqref="AE139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2214,120 +2265,111 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>446</v>
       </c>
       <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P17" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="AD17" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="AE17" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="N18">
+        <v>10</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>54</v>
-      </c>
-      <c r="R18" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>269</v>
       </c>
       <c r="AC18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD18" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AE18" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>54</v>
       </c>
       <c r="R19" t="s">
-        <v>145</v>
+        <v>55</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>271</v>
       </c>
       <c r="AD19" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AE19" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>272</v>
+        <v>50</v>
+      </c>
+      <c r="R20" t="s">
+        <v>145</v>
       </c>
       <c r="AD20" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AE20" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
         <v>150</v>
@@ -2342,988 +2384,949 @@
         <v>45</v>
       </c>
       <c r="Q21" t="s">
-        <v>78</v>
+        <v>153</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>272</v>
       </c>
       <c r="AD21" t="s">
         <v>405</v>
       </c>
       <c r="AE21" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>78</v>
       </c>
       <c r="AD22" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AE22" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="R23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>273</v>
+        <v>56</v>
       </c>
       <c r="AD23" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AE23" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>446</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
       </c>
       <c r="AD24" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="AE24" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>61</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>113</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>273</v>
       </c>
       <c r="AD25" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="AE25" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="P27" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" t="s">
         <v>182</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="N26">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P28" t="s">
         <v>39</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="s">
         <v>400</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AE28" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="4" customFormat="1">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="1:31" s="4" customFormat="1">
+      <c r="A29" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="L27" s="4">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4" t="s">
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="V29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AD27" s="4" t="s">
+      <c r="AD29" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="AE27" s="4" t="s">
+      <c r="AE29" s="4" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" s="4" customFormat="1">
-      <c r="A28" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="4">
-        <v>6</v>
-      </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y28" s="4">
-        <v>12</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE28" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="P29" t="s">
-        <v>41</v>
-      </c>
-      <c r="V29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:31" s="4" customFormat="1">
       <c r="A30" s="4" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>321</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>325</v>
+        <v>45</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>12</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
-      </c>
-      <c r="S31" t="s">
-        <v>160</v>
+        <v>41</v>
+      </c>
+      <c r="V31" t="s">
+        <v>96</v>
       </c>
       <c r="AD31" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AE31" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="4" customFormat="1">
       <c r="A32" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="4">
+        <v>9</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>42</v>
+      </c>
+      <c r="S33" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" s="4" customFormat="1">
+      <c r="A34" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N34" s="4">
         <v>2</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U32" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="4" t="s">
+      <c r="U34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="AD32" s="4" t="s">
+      <c r="AD34" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="AE32" s="4" t="s">
+      <c r="AE34" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="4" customFormat="1">
-      <c r="A33" s="4" t="s">
+    <row r="35" spans="1:33" s="4" customFormat="1">
+      <c r="A35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="4">
-        <v>8</v>
-      </c>
-      <c r="P33" s="4" t="s">
+      <c r="C35" s="4">
+        <v>8</v>
+      </c>
+      <c r="P35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AC33" s="4" t="s">
+      <c r="AC35" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AD33" s="4" t="s">
+      <c r="AD35" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AE35" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="6" customFormat="1">
-      <c r="A34" s="6" t="s">
+    <row r="36" spans="1:33" s="6" customFormat="1">
+      <c r="A36" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="6">
-        <v>8</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>1</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6">
-        <v>1</v>
-      </c>
-      <c r="P34" s="6" t="s">
+      <c r="C36" s="6">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="P36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AD36" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="AE34" s="6" t="s">
+      <c r="AE36" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
-      <c r="A35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
+    <row r="37" spans="1:33" s="4" customFormat="1">
+      <c r="A37" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C37" s="4">
         <v>11</v>
       </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="P35" t="s">
-        <v>39</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>372</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33">
-      <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="P37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R36" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33">
-      <c r="A37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>277</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="P37" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33">
-      <c r="A38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
-        <v>39</v>
-      </c>
-      <c r="R38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>368</v>
+      <c r="AD37" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE37" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" s="4" customFormat="1">
+      <c r="A38" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>278</v>
+        <v>39</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
       </c>
       <c r="AD39" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="4">
-        <v>10</v>
-      </c>
-      <c r="K40" s="4">
-        <v>1</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z40" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD40" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE40" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" s="4" customFormat="1">
-      <c r="A41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="4">
-        <v>10</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC41" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD41" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE41" s="4" t="s">
-        <v>375</v>
+        <v>369</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>372</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="P40" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>64</v>
+      </c>
+      <c r="R40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="R42" t="s">
+        <v>66</v>
       </c>
       <c r="AD42" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE42" s="4" t="s">
-        <v>394</v>
+        <v>365</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
       <c r="P43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q43" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>315</v>
+        <v>61</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>278</v>
       </c>
       <c r="AD43" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AE43" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33">
-      <c r="A44" t="s">
-        <v>192</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="N44">
-        <v>2</v>
-      </c>
-      <c r="P44" t="s">
-        <v>39</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33">
-      <c r="A45" t="s">
-        <v>193</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="P45" t="s">
-        <v>42</v>
-      </c>
-      <c r="R45" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>398</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="4" customFormat="1">
+      <c r="A44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD44" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE44" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="4" customFormat="1">
+      <c r="A45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
       </c>
       <c r="P46" t="s">
         <v>45</v>
       </c>
       <c r="Q46" t="s">
-        <v>71</v>
-      </c>
-      <c r="X46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AD46" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" s="4" customFormat="1">
-      <c r="A47" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="N47" s="4">
-        <v>2</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="T47" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD47" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="AE47" s="4" t="s">
-        <v>346</v>
+        <v>410</v>
+      </c>
+      <c r="AE46" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="P47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" t="s">
         <v>39</v>
       </c>
-      <c r="R48" t="s">
-        <v>110</v>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>280</v>
       </c>
       <c r="AD48" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="AE48" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
       </c>
       <c r="P49" t="s">
-        <v>41</v>
-      </c>
-      <c r="S49" t="s">
-        <v>162</v>
+        <v>42</v>
+      </c>
+      <c r="R49" t="s">
+        <v>69</v>
       </c>
       <c r="AD49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="AE49" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="P50" t="s">
-        <v>41</v>
-      </c>
-      <c r="R50" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>283</v>
+        <v>45</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s">
+        <v>71</v>
       </c>
       <c r="AD50" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="AE50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33">
-      <c r="A51" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51">
-        <v>11</v>
-      </c>
-      <c r="P51" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>337</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" s="4" customFormat="1">
+      <c r="A51" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N51" s="4">
+        <v>2</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T51" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>284</v>
+        <v>39</v>
+      </c>
+      <c r="R52" t="s">
+        <v>110</v>
       </c>
       <c r="AD52" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="AE52" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P53" t="s">
         <v>41</v>
       </c>
+      <c r="S53" t="s">
+        <v>162</v>
+      </c>
       <c r="AD53" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="AE53" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
-      <c r="I54" t="s">
-        <v>133</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
-      </c>
-      <c r="L54">
-        <v>2</v>
-      </c>
       <c r="P54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R54" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="AC54" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AD54" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE54">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>384</v>
-      </c>
-      <c r="AG54">
-        <v>1</v>
+        <v>405</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
       <c r="C55">
-        <v>8</v>
-      </c>
-      <c r="L55">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P55" t="s">
-        <v>42</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="AD55" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="AE55" t="s">
-        <v>336</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P56" t="s">
-        <v>39</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="AD56" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="AE56" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C57">
-        <v>11</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3332,1278 +3335,1299 @@
         <v>45</v>
       </c>
       <c r="Q57" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>284</v>
       </c>
       <c r="AD57" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="AE57" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>436</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P58" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="AD58" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="AE58" t="s">
-        <v>367</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C59">
-        <v>8</v>
-      </c>
-      <c r="L59">
+        <v>6</v>
+      </c>
+      <c r="P59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60">
         <v>2</v>
       </c>
-      <c r="P59" t="s">
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="P60" t="s">
         <v>42</v>
       </c>
-      <c r="AC59" t="s">
-        <v>287</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="60" spans="1:33" s="4" customFormat="1">
-      <c r="A60" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="4">
-        <v>8</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="U60" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD60" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE60" s="4" t="s">
-        <v>394</v>
+      <c r="R60" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="C61">
         <v>8</v>
       </c>
-      <c r="N61">
-        <v>1</v>
+      <c r="L61">
+        <v>2</v>
       </c>
       <c r="P61" t="s">
-        <v>39</v>
-      </c>
-      <c r="U61">
+        <v>42</v>
+      </c>
+      <c r="S61">
         <v>1</v>
       </c>
       <c r="AD61" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE61" s="4" t="s">
-        <v>340</v>
+        <v>391</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>315</v>
       </c>
       <c r="AD62" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="AE62" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="C63">
-        <v>6</v>
-      </c>
-      <c r="L63">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>61</v>
       </c>
       <c r="AD63" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="AE63" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C64">
         <v>8</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>286</v>
       </c>
       <c r="AD64" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="AE64" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>8</v>
       </c>
-      <c r="N65">
-        <v>1</v>
+      <c r="L65">
+        <v>2</v>
       </c>
       <c r="P65" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>258</v>
-      </c>
-      <c r="W65" t="s">
-        <v>258</v>
+        <v>42</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>287</v>
       </c>
       <c r="AD65" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="AE65" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:31" s="4" customFormat="1">
       <c r="A66" s="4" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C66" s="4">
         <v>8</v>
       </c>
-      <c r="N66" s="4">
-        <v>1</v>
-      </c>
       <c r="P66" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R66" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="U66" s="4">
+        <v>1</v>
       </c>
       <c r="AC66" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD66" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P67" t="s">
         <v>39</v>
       </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
       <c r="AD67" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>320</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C68">
-        <v>10</v>
-      </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P68" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>61</v>
-      </c>
-      <c r="R68" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="AD68" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE68" s="4" t="s">
-        <v>341</v>
+        <v>392</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="L69">
         <v>2</v>
       </c>
-      <c r="C69">
-        <v>8</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
       <c r="P69" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y69">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AD69" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="AE69" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C70">
-        <v>9</v>
-      </c>
-      <c r="N70">
+        <v>8</v>
+      </c>
+      <c r="F70">
         <v>2</v>
       </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
       <c r="P70" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
+      <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
         <v>45</v>
       </c>
-      <c r="Q70" t="s">
-        <v>99</v>
-      </c>
-      <c r="U70">
-        <v>1</v>
-      </c>
-      <c r="W70" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" s="4" customFormat="1">
-      <c r="A71" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="4">
-        <v>7</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R71" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC71" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD71" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE71" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31">
-      <c r="A72" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>8</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="P72" t="s">
-        <v>39</v>
-      </c>
-      <c r="U72">
-        <v>1</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>341</v>
+      <c r="Q71" t="s">
+        <v>258</v>
+      </c>
+      <c r="W71" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" s="4" customFormat="1">
+      <c r="A72" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="4">
+        <v>8</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC72" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD72" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE72" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C73">
         <v>8</v>
       </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
+      <c r="N73">
+        <v>2</v>
       </c>
       <c r="P73" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AD73" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>351</v>
+        <v>400</v>
+      </c>
+      <c r="AE73" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>61</v>
+      </c>
+      <c r="R74" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>269</v>
       </c>
       <c r="AD74" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>355</v>
+        <v>408</v>
+      </c>
+      <c r="AE74" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>8</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
       </c>
       <c r="P75" t="s">
         <v>45</v>
       </c>
       <c r="Q75" t="s">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="Y75">
+        <v>12</v>
       </c>
       <c r="AD75" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="AE75" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C76">
-        <v>10</v>
-      </c>
-      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="N76">
         <v>2</v>
       </c>
       <c r="P76" t="s">
-        <v>40</v>
-      </c>
-      <c r="R76" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z76">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>99</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
+        <v>99</v>
       </c>
       <c r="AD76" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AE76" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77">
-        <v>6</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" s="4" customFormat="1">
+      <c r="A77" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="4">
+        <v>7</v>
+      </c>
+      <c r="P77" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AD77" t="s">
-        <v>408</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>331</v>
+      <c r="R77" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC77" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD77" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE77" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
       </c>
       <c r="AD78" t="s">
         <v>335</v>
       </c>
       <c r="AE78" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B79" t="s">
         <v>35</v>
       </c>
       <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="N79">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>39</v>
-      </c>
-      <c r="T79">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>61</v>
       </c>
       <c r="AD79" t="s">
         <v>348</v>
       </c>
       <c r="AE79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:31">
       <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="P80" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
+      <c r="A81" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="P81" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
+      <c r="A82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="P82" t="s">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z82">
+        <v>30</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
+      <c r="A84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="P84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
+      <c r="A85" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="P85" t="s">
+        <v>39</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
+      <c r="A86" t="s">
         <v>217</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B86" t="s">
         <v>116</v>
       </c>
-      <c r="C80">
+      <c r="C86">
         <v>9</v>
       </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="P80" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33">
-      <c r="A81" t="s">
-        <v>255</v>
-      </c>
-      <c r="B81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81">
-        <v>8</v>
-      </c>
-      <c r="P81" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33">
-      <c r="A82" t="s">
-        <v>432</v>
-      </c>
-      <c r="B82" t="s">
-        <v>430</v>
-      </c>
-      <c r="C82">
-        <v>9</v>
-      </c>
-      <c r="P82" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33">
-      <c r="A83" t="s">
-        <v>433</v>
-      </c>
-      <c r="B83" t="s">
-        <v>430</v>
-      </c>
-      <c r="C83">
-        <v>11</v>
-      </c>
-      <c r="P83" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33">
-      <c r="A84" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84">
-        <v>11</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="P84" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33">
-      <c r="A85" t="s">
-        <v>218</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>5</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y85">
-        <v>18</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33">
-      <c r="A86" t="s">
-        <v>254</v>
-      </c>
-      <c r="B86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86">
-        <v>8</v>
-      </c>
       <c r="N86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P86" t="s">
         <v>39</v>
       </c>
       <c r="AD86" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="AE86" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P87" t="s">
         <v>41</v>
       </c>
-      <c r="S87" t="s">
-        <v>161</v>
-      </c>
       <c r="AD87" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="AE87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88" spans="1:33" s="4" customFormat="1">
-      <c r="A88" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C88" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
+      <c r="A88" t="s">
+        <v>432</v>
+      </c>
+      <c r="B88" t="s">
+        <v>430</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="P88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31">
+      <c r="A89" t="s">
+        <v>433</v>
+      </c>
+      <c r="B89" t="s">
+        <v>430</v>
+      </c>
+      <c r="C89">
         <v>11</v>
       </c>
-      <c r="N88" s="4">
+      <c r="P89" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31">
+      <c r="A90" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31">
+      <c r="A91" t="s">
+        <v>443</v>
+      </c>
+      <c r="B91" t="s">
+        <v>436</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="P91" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31">
+      <c r="A92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" t="s">
         <v>2</v>
       </c>
-      <c r="P88" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD88" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE88" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="89" spans="1:33">
-      <c r="A89" t="s">
-        <v>220</v>
-      </c>
-      <c r="B89" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89">
-        <v>8</v>
-      </c>
-      <c r="G89">
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y92">
+        <v>18</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31">
+      <c r="A93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="N93">
         <v>2</v>
       </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD89" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:33">
-      <c r="A90" t="s">
-        <v>125</v>
-      </c>
-      <c r="B90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90">
-        <v>7</v>
-      </c>
-      <c r="N90">
-        <v>2</v>
-      </c>
-      <c r="P90" t="s">
+      <c r="P93" t="s">
         <v>39</v>
       </c>
-      <c r="U90">
-        <v>1</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:33">
-      <c r="A91" t="s">
-        <v>221</v>
-      </c>
-      <c r="B91" t="s">
-        <v>137</v>
-      </c>
-      <c r="C91">
-        <v>11</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="P91" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC91" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD91" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="92" spans="1:33">
-      <c r="A92" t="s">
-        <v>253</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>295</v>
-      </c>
-      <c r="P92" t="s">
-        <v>50</v>
-      </c>
-      <c r="R92" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE92">
-        <v>1</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:33">
-      <c r="A93" t="s">
-        <v>223</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93">
-        <v>8</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="P93" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>78</v>
-      </c>
-      <c r="R93" t="s">
-        <v>79</v>
-      </c>
-      <c r="S93" t="s">
-        <v>160</v>
-      </c>
-      <c r="X93" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>296</v>
-      </c>
       <c r="AD93" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="AE93" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:33">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C94">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P94" t="s">
         <v>41</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" s="4" customFormat="1">
+      <c r="A95" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C95" s="4">
+        <v>11</v>
+      </c>
+      <c r="N95" s="4">
+        <v>2</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD95" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE95" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31">
+      <c r="A96" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="P97" t="s">
+        <v>39</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
+      <c r="A98" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="P98" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
+      <c r="A99" t="s">
+        <v>253</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>295</v>
+      </c>
+      <c r="P99" t="s">
+        <v>50</v>
+      </c>
+      <c r="R99" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
+      <c r="A100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="P100" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>78</v>
+      </c>
+      <c r="R100" t="s">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s">
+        <v>160</v>
+      </c>
+      <c r="X100" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="P101" t="s">
+        <v>41</v>
+      </c>
+      <c r="R101" t="s">
         <v>81</v>
       </c>
-      <c r="AD94" t="s">
+      <c r="AD101" t="s">
         <v>400</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="AE101" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="95" spans="1:33" s="4" customFormat="1">
-      <c r="A95" s="4" t="s">
+    <row r="102" spans="1:33" s="4" customFormat="1">
+      <c r="A102" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C102" s="4">
         <v>7</v>
       </c>
-      <c r="P95" s="4" t="s">
+      <c r="P102" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q95" s="4" t="s">
+      <c r="Q102" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD95" s="4" t="s">
+      <c r="AD102" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="AE95" s="4" t="s">
+      <c r="AE102" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="96" spans="1:33">
-      <c r="A96" t="s">
+    <row r="103" spans="1:33">
+      <c r="A103" t="s">
         <v>224</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B103" t="s">
         <v>107</v>
       </c>
-      <c r="C96">
-        <v>8</v>
-      </c>
-      <c r="P96" t="s">
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="P103" t="s">
         <v>41</v>
       </c>
-      <c r="R96" t="s">
+      <c r="R103" t="s">
         <v>109</v>
       </c>
-      <c r="AC96" s="4" t="s">
+      <c r="AC103" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AD96" t="s">
+      <c r="AD103" t="s">
         <v>411</v>
       </c>
-      <c r="AE96" s="4" t="s">
+      <c r="AE103" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
-      <c r="A97" t="s">
+    <row r="104" spans="1:33">
+      <c r="A104" t="s">
         <v>225</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B104" t="s">
         <v>67</v>
       </c>
-      <c r="C97">
+      <c r="C104">
         <v>6</v>
       </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97" t="s">
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="s">
         <v>45</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="Q104" t="s">
         <v>61</v>
       </c>
-      <c r="AD97" t="s">
+      <c r="AD104" t="s">
         <v>390</v>
       </c>
-      <c r="AE97" t="s">
+      <c r="AE104" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
-      <c r="A98" t="s">
+    <row r="105" spans="1:33">
+      <c r="A105" t="s">
         <v>226</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B105" t="s">
         <v>58</v>
       </c>
-      <c r="C98">
+      <c r="C105">
         <v>6</v>
       </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="P98" t="s">
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="s">
         <v>45</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="Q105" t="s">
         <v>82</v>
       </c>
-      <c r="AC98" t="s">
+      <c r="AC105" t="s">
         <v>299</v>
       </c>
-      <c r="AD98" t="s">
+      <c r="AD105" t="s">
         <v>400</v>
       </c>
-      <c r="AE98" t="s">
+      <c r="AE105" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="99" spans="1:31" s="6" customFormat="1">
-      <c r="A99" s="6" t="s">
+    <row r="106" spans="1:33" s="6" customFormat="1">
+      <c r="A106" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B106" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C99" s="6">
-        <v>8</v>
-      </c>
-      <c r="N99" s="6">
-        <v>2</v>
-      </c>
-      <c r="P99" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T99" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC99" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD99" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="AE99" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" s="4" customFormat="1">
-      <c r="A100" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C100" s="4">
-        <v>6</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD100" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE100" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31">
-      <c r="A101" t="s">
-        <v>228</v>
-      </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101">
-        <v>8</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="P101" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>83</v>
-      </c>
-      <c r="X101" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31">
-      <c r="A102" t="s">
-        <v>229</v>
-      </c>
-      <c r="B102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102">
-        <v>8</v>
-      </c>
-      <c r="L102">
-        <v>2</v>
-      </c>
-      <c r="P102" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD102" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31">
-      <c r="A103" t="s">
-        <v>230</v>
-      </c>
-      <c r="B103" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103">
-        <v>8</v>
-      </c>
-      <c r="P103" t="s">
-        <v>39</v>
-      </c>
-      <c r="T103">
-        <v>1</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31">
-      <c r="A104" t="s">
-        <v>231</v>
-      </c>
-      <c r="B104" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104">
-        <v>11</v>
-      </c>
-      <c r="P104" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD104" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31">
-      <c r="A105" t="s">
-        <v>232</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>301</v>
-      </c>
-      <c r="L105">
-        <v>2</v>
-      </c>
-      <c r="P105" t="s">
-        <v>42</v>
-      </c>
-      <c r="S105" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD105" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31" s="6" customFormat="1">
-      <c r="A106" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="C106" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N106" s="6">
         <v>2</v>
@@ -4615,768 +4639,961 @@
         <v>1</v>
       </c>
       <c r="AC106" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AD106" s="6" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AE106" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31" s="4" customFormat="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" s="4" customFormat="1">
       <c r="A107" s="4" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>39</v>
+        <v>430</v>
       </c>
       <c r="C107" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P107" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R107" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC107" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="AD107" s="4" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AE107" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C108">
-        <v>11</v>
-      </c>
-      <c r="K108">
+        <v>8</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>83</v>
+      </c>
+      <c r="X108" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
+      <c r="A109" t="s">
+        <v>229</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="L109">
         <v>2</v>
       </c>
-      <c r="P108" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD108" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE108" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31">
-      <c r="A109" t="s">
-        <v>234</v>
-      </c>
-      <c r="B109" t="s">
-        <v>73</v>
-      </c>
-      <c r="C109">
-        <v>8</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
       <c r="P109" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AD109" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="AE109" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="110" spans="1:31" s="4" customFormat="1">
-      <c r="A110" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C110" s="4">
+    <row r="110" spans="1:33">
+      <c r="A110" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="P110" t="s">
+        <v>39</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
+      <c r="A111" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111">
         <v>11</v>
       </c>
-      <c r="P110" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S110" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD110" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE110" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31">
-      <c r="A111" t="s">
-        <v>235</v>
-      </c>
-      <c r="B111" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111">
-        <v>10</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
       <c r="P111" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>84</v>
-      </c>
-      <c r="X111" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC111" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="AD111" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AE111" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="112" spans="1:31">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="B112" t="s">
-        <v>139</v>
-      </c>
-      <c r="C112">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>301</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
       </c>
       <c r="P112" t="s">
+        <v>42</v>
+      </c>
+      <c r="S112" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" s="6" customFormat="1">
+      <c r="A113" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="6">
+        <v>9</v>
+      </c>
+      <c r="N113" s="6">
+        <v>2</v>
+      </c>
+      <c r="P113" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T113" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD113" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE113" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" s="4" customFormat="1">
+      <c r="A114" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="4">
+        <v>11</v>
+      </c>
+      <c r="P114" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AD112" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:33" s="4" customFormat="1">
-      <c r="A113" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="4">
-        <v>8</v>
-      </c>
-      <c r="P113" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q113" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="X113" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC113" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD113" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE113" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:33">
-      <c r="A114" t="s">
-        <v>236</v>
-      </c>
-      <c r="B114" t="s">
-        <v>58</v>
-      </c>
-      <c r="C114">
-        <v>8</v>
-      </c>
-      <c r="N114">
-        <v>2</v>
-      </c>
-      <c r="P114" t="s">
-        <v>39</v>
-      </c>
-      <c r="R114" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD114" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE114" t="s">
-        <v>398</v>
+      <c r="R114" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC114" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD114" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE114" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B115" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C115">
-        <v>8</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
       </c>
       <c r="P115" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>269</v>
       </c>
       <c r="AD115" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>397</v>
+        <v>406</v>
+      </c>
+      <c r="AE115" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C116">
         <v>8</v>
       </c>
-      <c r="I116" t="s">
-        <v>130</v>
-      </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="K116">
+      <c r="N116">
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>41</v>
-      </c>
-      <c r="R116" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="AD116" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE116">
-        <v>1</v>
-      </c>
-      <c r="AF116" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG116">
-        <v>1</v>
+        <v>392</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:33" s="4" customFormat="1">
       <c r="A117" s="4" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C117" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R117" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X117" s="4" t="s">
-        <v>306</v>
+        <v>50</v>
+      </c>
+      <c r="S117" s="4">
+        <v>1</v>
       </c>
       <c r="AD117" s="4" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="AE117" s="4" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C118">
-        <v>8</v>
-      </c>
-      <c r="H118">
-        <v>2</v>
-      </c>
-      <c r="K118">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>269</v>
+        <v>45</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>84</v>
+      </c>
+      <c r="X118" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>304</v>
       </c>
       <c r="AD118" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="AE118" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C119">
         <v>10</v>
       </c>
-      <c r="N119">
-        <v>2</v>
-      </c>
       <c r="P119" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" s="4" customFormat="1">
+      <c r="A120" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="4">
+        <v>8</v>
+      </c>
+      <c r="P120" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q119" t="s">
-        <v>87</v>
-      </c>
-      <c r="W119" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD119" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="120" spans="1:33">
-      <c r="A120" t="s">
-        <v>165</v>
-      </c>
-      <c r="B120" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120">
-        <v>8</v>
-      </c>
-      <c r="P120" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>315</v>
+      <c r="Q120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="X120" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC120" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="AD120" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="AE120" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
       </c>
       <c r="P121" t="s">
+        <v>39</v>
+      </c>
+      <c r="R121" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33">
+      <c r="A122" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="s">
         <v>41</v>
       </c>
-      <c r="AA121" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="122" spans="1:33" s="4" customFormat="1">
-      <c r="A122" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C122" s="4">
-        <v>10</v>
-      </c>
-      <c r="P122" s="4" t="s">
+      <c r="AD122" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="I123" t="s">
+        <v>130</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="s">
         <v>41</v>
       </c>
-      <c r="AC122" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="AD122" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE122" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="123" spans="1:33" s="4" customFormat="1">
-      <c r="A123" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C123" s="4">
-        <v>8</v>
-      </c>
-      <c r="N123" s="4">
-        <v>1</v>
-      </c>
-      <c r="P123" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q123" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y123" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC123" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD123" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE123" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:33">
-      <c r="A124" t="s">
-        <v>241</v>
-      </c>
-      <c r="B124" t="s">
-        <v>116</v>
-      </c>
-      <c r="C124" t="s">
-        <v>309</v>
-      </c>
-      <c r="P124" t="s">
-        <v>50</v>
-      </c>
-      <c r="R124" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD124" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>334</v>
+      <c r="R123" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE123">
+        <v>1</v>
+      </c>
+      <c r="AF123" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" s="4" customFormat="1">
+      <c r="A124" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" s="4">
+        <v>8</v>
+      </c>
+      <c r="P124" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R124" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X124" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD124" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE124" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>11</v>
-      </c>
-      <c r="N125">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
       </c>
       <c r="P125" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC125" t="s">
-        <v>310</v>
+        <v>40</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>269</v>
       </c>
       <c r="AD125" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AE125" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
-      </c>
-      <c r="C126" t="s">
-        <v>311</v>
+        <v>58</v>
+      </c>
+      <c r="C126">
+        <v>10</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
       </c>
       <c r="P126" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>87</v>
+      </c>
+      <c r="W126" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33">
+      <c r="A127" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="P127" t="s">
         <v>41</v>
       </c>
-      <c r="AD126" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE126" t="s">
+      <c r="AA127" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE127" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="127" spans="1:33" s="4" customFormat="1">
-      <c r="A127" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C127" s="4">
-        <v>14</v>
-      </c>
-      <c r="P127" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD127" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="AE127" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B128" t="s">
-        <v>70</v>
-      </c>
-      <c r="C128" t="s">
-        <v>312</v>
+        <v>43</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
       </c>
       <c r="P128" t="s">
-        <v>50</v>
-      </c>
-      <c r="R128" t="s">
-        <v>89</v>
+        <v>41</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>315</v>
       </c>
       <c r="AD128" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="AE128" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="129" spans="1:31">
-      <c r="A129" t="s">
-        <v>245</v>
-      </c>
-      <c r="B129" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" s="4" customFormat="1">
+      <c r="A129" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C129" s="4">
         <v>10</v>
       </c>
-      <c r="P129" t="s">
-        <v>50</v>
-      </c>
-      <c r="R129" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD129" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="130" spans="1:31">
-      <c r="A130" t="s">
-        <v>246</v>
-      </c>
-      <c r="B130" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130">
-        <v>8</v>
-      </c>
-      <c r="P130" t="s">
+      <c r="P129" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AD130" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE130" t="s">
-        <v>337</v>
+      <c r="AC129" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD129" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE129" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" s="4" customFormat="1">
+      <c r="A130" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="4">
+        <v>8</v>
+      </c>
+      <c r="N130" s="4">
+        <v>1</v>
+      </c>
+      <c r="P130" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q130" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y130" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC130" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD130" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE130" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:31">
       <c r="A131" t="s">
-        <v>414</v>
+        <v>241</v>
       </c>
       <c r="B131" t="s">
-        <v>415</v>
-      </c>
-      <c r="C131">
-        <v>11</v>
+        <v>116</v>
+      </c>
+      <c r="C131" t="s">
+        <v>309</v>
       </c>
       <c r="P131" t="s">
         <v>50</v>
       </c>
       <c r="R131" t="s">
-        <v>416</v>
+        <v>128</v>
       </c>
       <c r="AD131" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="AE131" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:31">
       <c r="A132" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C132">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>141</v>
+        <v>39</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>310</v>
       </c>
       <c r="AD132" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="AE132" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:31">
       <c r="A133" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B133" t="s">
-        <v>73</v>
-      </c>
-      <c r="C133">
-        <v>7</v>
+        <v>144</v>
+      </c>
+      <c r="C133" t="s">
+        <v>311</v>
       </c>
       <c r="P133" t="s">
         <v>41</v>
       </c>
       <c r="AD133" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AE133" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:31" s="4" customFormat="1">
       <c r="A134" s="4" t="s">
-        <v>106</v>
+        <v>327</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="C134" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R134" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC134" s="4" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="AD134" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AE134" s="4" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:31">
       <c r="A135" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
-      </c>
-      <c r="C135">
-        <v>8</v>
-      </c>
-      <c r="L135">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="C135" t="s">
+        <v>312</v>
       </c>
       <c r="P135" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R135" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC135" t="s">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="AD135" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="AE135" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="136" spans="1:31">
       <c r="A136" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="P136" t="s">
+        <v>50</v>
+      </c>
+      <c r="R136" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31">
+      <c r="A137" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>8</v>
+      </c>
+      <c r="P137" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD137" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE137" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31">
+      <c r="A138" t="s">
+        <v>451</v>
+      </c>
+      <c r="B138" t="s">
+        <v>446</v>
+      </c>
+      <c r="C138">
+        <v>7</v>
+      </c>
+      <c r="P138" t="s">
+        <v>39</v>
+      </c>
+      <c r="T138">
+        <v>1</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31">
+      <c r="A139" t="s">
+        <v>414</v>
+      </c>
+      <c r="B139" t="s">
+        <v>415</v>
+      </c>
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="P139" t="s">
+        <v>50</v>
+      </c>
+      <c r="R139" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE139" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31">
+      <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="P140" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31">
+      <c r="A141" t="s">
+        <v>247</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="P141" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" s="4" customFormat="1">
+      <c r="A142" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" s="4">
+        <v>9</v>
+      </c>
+      <c r="P142" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R142" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC142" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD142" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE142" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31">
+      <c r="A143" t="s">
+        <v>249</v>
+      </c>
+      <c r="B143" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="P143" t="s">
+        <v>42</v>
+      </c>
+      <c r="R143" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31">
+      <c r="A144" t="s">
         <v>248</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B144" t="s">
         <v>31</v>
       </c>
-      <c r="C136">
-        <v>8</v>
-      </c>
-      <c r="P136" t="s">
+      <c r="C144">
+        <v>8</v>
+      </c>
+      <c r="P144" t="s">
         <v>41</v>
       </c>
-      <c r="AD136" t="s">
+      <c r="AD144" t="s">
         <v>406</v>
       </c>
-      <c r="AE136" t="s">
+      <c r="AE144" t="s">
         <v>356</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="486">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -104,6 +104,9 @@
     <t xml:space="preserve">solobad</t>
   </si>
   <si>
+    <t xml:space="preserve">working</t>
+  </si>
+  <si>
     <t xml:space="preserve">xtra</t>
   </si>
   <si>
@@ -575,7 +578,7 @@
     <t xml:space="preserve">4 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Drain Mutants' Powers to…</t>
+    <t xml:space="preserve">Drain Mutants' Powers to...</t>
   </si>
   <si>
     <t xml:space="preserve">MC</t>
@@ -749,7 +752,7 @@
     <t xml:space="preserve">Put 8 bystanders next to scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">Hack Cerebro Servers to…</t>
+    <t xml:space="preserve">Hack Cerebro Servers to...</t>
   </si>
   <si>
     <t xml:space="preserve">2 6</t>
@@ -788,7 +791,7 @@
     <t xml:space="preserve">tactics in villain deck</t>
   </si>
   <si>
-    <t xml:space="preserve">Hire Singularity Investigations to…</t>
+    <t xml:space="preserve">Hire Singularity Investigations to...</t>
   </si>
   <si>
     <t xml:space="preserve">3 6</t>
@@ -1016,7 +1019,7 @@
     <t xml:space="preserve">2 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Raid Gene Banks to…</t>
+    <t xml:space="preserve">Raid Gene Banks to...</t>
   </si>
   <si>
     <t xml:space="preserve">5 6</t>
@@ -1608,17 +1611,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG160"/>
+  <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
-      <selection pane="bottomRight" activeCell="U121" activeCellId="0" sqref="U121"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AB14" activeCellId="0" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -1644,7 +1647,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="5.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,13 +1747,16 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>11</v>
@@ -1759,27 +1765,30 @@
         <v>1</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE2" s="0" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>8</v>
@@ -1791,59 +1800,65 @@
         <v>1</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE3" s="0" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF3" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD4" s="0" t="s">
-        <v>51</v>
+      <c r="AB4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE4" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF4" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>11</v>
@@ -1852,50 +1867,56 @@
         <v>2</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AD5" s="0" t="s">
-        <v>46</v>
+      <c r="AB5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD6" s="0" t="s">
         <v>61</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE6" s="0" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF6" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>9</v>
@@ -1904,24 +1925,27 @@
         <v>1</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD7" s="0" t="s">
         <v>66</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE7" s="0" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF7" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -1930,21 +1954,24 @@
         <v>2</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD8" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE8" s="0" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF8" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -1953,16 +1980,16 @@
         <v>1</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC9" s="0" t="s">
         <v>77</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AD9" s="0" t="s">
         <v>78</v>
@@ -1970,33 +1997,39 @@
       <c r="AE9" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF9" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD10" s="0" t="s">
         <v>83</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="AE10" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF10" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>9</v>
@@ -2005,36 +2038,39 @@
         <v>2</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD11" s="0" t="s">
         <v>88</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE11" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF11" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC12" s="0" t="s">
         <v>93</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AD12" s="0" t="s">
         <v>94</v>
@@ -2042,13 +2078,16 @@
       <c r="AE12" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF12" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -2057,50 +2096,53 @@
         <v>2</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE13" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE14" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC14" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF14" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -2109,10 +2151,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC15" s="0" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="AD15" s="0" t="s">
         <v>106</v>
@@ -2120,13 +2159,16 @@
       <c r="AE15" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF15" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>7</v>
@@ -2135,41 +2177,41 @@
         <v>2</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD16" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="AE16" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD17" s="0" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="AE17" s="0" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF17" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>20</v>
@@ -2181,12 +2223,9 @@
         <v>2</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC18" s="0" t="s">
         <v>115</v>
       </c>
       <c r="AD18" s="0" t="s">
@@ -2195,13 +2234,16 @@
       <c r="AE18" s="0" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF18" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>8</v>
@@ -2210,70 +2252,70 @@
         <v>2</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC19" s="0" t="s">
         <v>121</v>
       </c>
       <c r="AD19" s="0" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="AE19" s="0" t="s">
-        <v>122</v>
+        <v>95</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="AD20" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="AE20" s="0" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF20" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD21" s="0" t="s">
         <v>130</v>
       </c>
       <c r="AE21" s="0" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF21" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>8</v>
@@ -2282,27 +2324,27 @@
         <v>1</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC22" s="0" t="s">
         <v>134</v>
       </c>
       <c r="AD22" s="0" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="AE22" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>8</v>
@@ -2311,70 +2353,70 @@
         <v>1</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD23" s="0" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AE23" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD24" s="0" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="AE24" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD25" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="AE25" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="AF25" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>10</v>
@@ -2386,73 +2428,73 @@
         <v>1</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC26" s="0" t="s">
         <v>147</v>
       </c>
       <c r="AD26" s="0" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="AE26" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="AF26" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD27" s="0" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>7</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD28" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AE28" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="AF28" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>8</v>
@@ -2461,56 +2503,56 @@
         <v>2</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T29" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="AD29" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="AE29" s="0" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="30" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF29" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD30" s="3" t="s">
         <v>162</v>
       </c>
       <c r="AE30" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="31" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF30" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>6</v>
@@ -2519,76 +2561,76 @@
         <v>1</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y31" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AD31" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="AE31" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>6</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD32" s="0" t="s">
         <v>162</v>
       </c>
       <c r="AE32" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+      <c r="AF32" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>9</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="AE33" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>8</v>
@@ -2597,39 +2639,36 @@
         <v>2</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD34" s="0" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="AE34" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="AF34" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N35" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U35" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="AC35" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>176</v>
@@ -2637,10 +2676,13 @@
       <c r="AE35" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="36" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF35" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>18</v>
@@ -2649,24 +2691,24 @@
         <v>8</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC36" s="3" t="s">
         <v>180</v>
       </c>
       <c r="AD36" s="3" t="s">
         <v>181</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>20</v>
@@ -2693,61 +2735,61 @@
         <v>1</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD37" s="4" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>11</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="AE38" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="39" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF38" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD39" s="3" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>4</v>
@@ -2759,79 +2801,79 @@
         <v>2</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD40" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="0" t="s">
+      <c r="AE40" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="AG40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD41" s="0" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="AE41" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="AF41" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD42" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AE42" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="AF42" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>6</v>
@@ -2840,21 +2882,21 @@
         <v>1</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="AD43" s="0" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="AE43" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+      <c r="AF43" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>18</v>
@@ -2866,27 +2908,27 @@
         <v>1</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC44" s="0" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="AD44" s="0" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="AE44" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="AF44" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>10</v>
@@ -2895,39 +2937,36 @@
         <v>1</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC46" s="3" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>210</v>
@@ -2935,10 +2974,13 @@
       <c r="AE46" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF46" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>18</v>
@@ -2953,50 +2995,50 @@
         <v>1</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD47" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE47" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="AE47" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q48" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA48" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE48" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF48" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="AA48" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD48" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE48" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>8</v>
@@ -3005,27 +3047,27 @@
         <v>2</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T49" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AC49" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="AD49" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AE49" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+      <c r="AF49" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>8</v>
@@ -3034,102 +3076,102 @@
         <v>2</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD50" s="0" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="AE50" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="AF50" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD51" s="0" t="s">
         <v>225</v>
       </c>
       <c r="AE51" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+      <c r="AF51" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N52" s="3" t="n">
         <v>2</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T52" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="AD52" s="3" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="AE52" s="3" t="s">
-        <v>230</v>
+        <v>95</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>7</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD53" s="3" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="AE53" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>6</v>
@@ -3138,130 +3180,130 @@
         <v>1</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD54" s="0" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="AE54" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="AF54" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>9</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD55" s="0" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="AE55" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="AF55" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC56" s="0" t="s">
         <v>241</v>
       </c>
       <c r="AD56" s="0" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="AE56" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="AF56" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD57" s="0" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="AE57" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="AF57" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD58" s="0" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="AE58" s="0" t="s">
         <v>247</v>
       </c>
+      <c r="AF58" s="0" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AD59" s="0" t="s">
-        <v>250</v>
-      </c>
       <c r="AE59" s="0" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF59" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>8</v>
@@ -3270,64 +3312,64 @@
         <v>1</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC60" s="0" t="s">
         <v>254</v>
       </c>
       <c r="AD60" s="0" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="AE60" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+      <c r="AF60" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>9</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD61" s="0" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="AE61" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="AF61" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>6</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD62" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AE62" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AF62" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>4</v>
@@ -3336,7 +3378,7 @@
         <v>8</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>2</v>
@@ -3345,33 +3387,33 @@
         <v>2</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC63" s="0" t="s">
         <v>261</v>
       </c>
       <c r="AD63" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="AE63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" s="0" t="s">
+      <c r="AE63" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="AG63" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH63" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>8</v>
@@ -3380,21 +3422,21 @@
         <v>2</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD64" s="0" t="s">
-        <v>246</v>
-      </c>
       <c r="AE64" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="AF64" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>20</v>
@@ -3409,27 +3451,27 @@
         <v>1</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y65" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD65" s="0" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="AE65" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="AF65" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>11</v>
@@ -3441,44 +3483,44 @@
         <v>1</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD66" s="0" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="AE66" s="0" t="s">
-        <v>267</v>
+        <v>67</v>
+      </c>
+      <c r="AF66" s="0" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>8</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="AD67" s="0" t="s">
-        <v>270</v>
       </c>
       <c r="AE67" s="0" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF67" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>8</v>
@@ -3490,27 +3532,27 @@
         <v>1</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC68" s="0" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="AD68" s="0" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="AE68" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="AF68" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>8</v>
@@ -3519,99 +3561,99 @@
         <v>2</v>
       </c>
       <c r="P69" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD69" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE69" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF69" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF71" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="AC69" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD69" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE69" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="U70" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE70" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="N71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="U71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD71" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE71" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>7</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD72" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AE72" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="AF72" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>6</v>
@@ -3620,21 +3662,21 @@
         <v>2</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD73" s="0" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="AE73" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="AF73" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>8</v>
@@ -3646,21 +3688,21 @@
         <v>2</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD74" s="0" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="AE74" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="AF74" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>8</v>
@@ -3669,27 +3711,27 @@
         <v>1</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD75" s="0" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="AE75" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="76" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="AF75" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>8</v>
@@ -3698,30 +3740,30 @@
         <v>1</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC76" s="3" t="s">
         <v>292</v>
       </c>
       <c r="AD76" s="3" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="AE76" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>8</v>
@@ -3730,21 +3772,21 @@
         <v>2</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD77" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE77" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="AE77" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>10</v>
@@ -3756,27 +3798,27 @@
         <v>1</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z78" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD78" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE78" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+      <c r="AE78" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>3</v>
@@ -3791,27 +3833,27 @@
         <v>1</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y79" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="AD79" s="0" t="s">
-        <v>299</v>
-      </c>
       <c r="AE79" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="AF79" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>9</v>
@@ -3820,53 +3862,53 @@
         <v>2</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD80" s="0" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="AE80" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AF80" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" s="3" t="n">
         <v>7</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC81" s="3" t="s">
         <v>304</v>
       </c>
       <c r="AD81" s="3" t="s">
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="AE81" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="AF81" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>3</v>
@@ -3878,73 +3920,73 @@
         <v>1</v>
       </c>
       <c r="P82" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE82" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF82" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q83" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE83" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF83" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="U82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD82" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE82" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="M83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P83" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q83" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD83" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE83" s="0" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>5</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD84" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AE84" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AF84" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>8</v>
@@ -3953,27 +3995,27 @@
         <v>2</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W85" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD85" s="0" t="s">
-        <v>106</v>
+        <v>310</v>
       </c>
       <c r="AE85" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="AF85" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>10</v>
@@ -3982,27 +4024,27 @@
         <v>2</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z86" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AD86" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="AE86" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="AF86" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>6</v>
@@ -4011,55 +4053,55 @@
         <v>1</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD87" s="0" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="AE87" s="0" t="s">
-        <v>39</v>
+        <v>282</v>
+      </c>
+      <c r="AF87" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AD88" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="AE88" s="0" t="s">
-        <v>135</v>
+        <v>316</v>
+      </c>
+      <c r="AF88" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z89" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AD89" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="AE89" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>316</v>
+      </c>
+      <c r="AF89" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>3</v>
@@ -4068,21 +4110,21 @@
         <v>7</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD90" s="0" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="AE90" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="AF90" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>6</v>
@@ -4091,41 +4133,41 @@
         <v>2</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T91" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD91" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="AE91" s="0" t="s">
-        <v>320</v>
+        <v>67</v>
+      </c>
+      <c r="AF91" s="0" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="AD92" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="AE92" s="0" t="s">
-        <v>143</v>
+        <v>316</v>
+      </c>
+      <c r="AF92" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>11</v>
@@ -4133,19 +4175,19 @@
       <c r="T93" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD93" s="0" t="s">
-        <v>270</v>
-      </c>
       <c r="AE93" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+      <c r="AF93" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>9</v>
@@ -4154,81 +4196,81 @@
         <v>1</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD94" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AE94" s="0" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="AF94" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD95" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AE95" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="AF95" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>9</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD96" s="0" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AE96" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="AF96" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD97" s="0" t="s">
         <v>83</v>
       </c>
       <c r="AE97" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="AF97" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>11</v>
@@ -4237,38 +4279,38 @@
         <v>1</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD98" s="0" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="AE98" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="AF98" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD99" s="0" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="AE99" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="AF99" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>3</v>
@@ -4280,30 +4322,30 @@
         <v>1</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q100" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y100" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="AC100" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="AD100" s="0" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="AE100" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="AF100" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>8</v>
@@ -4312,44 +4354,44 @@
         <v>2</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD101" s="0" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE101" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="AF101" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>6</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD102" s="0" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="AE102" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="103" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="AF102" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C103" s="3" t="n">
         <v>11</v>
@@ -4358,38 +4400,38 @@
         <v>2</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD103" s="3" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AE103" s="3" t="s">
-        <v>339</v>
+        <v>177</v>
+      </c>
+      <c r="AF103" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD104" s="3" t="s">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="AE104" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+      <c r="AF104" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>8</v>
@@ -4404,21 +4446,21 @@
         <v>1</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD105" s="0" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="AE105" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="AF105" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>18</v>
@@ -4430,27 +4472,27 @@
         <v>2</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U106" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AC106" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="AD106" s="0" t="s">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="AE106" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="AF106" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>11</v>
@@ -4459,53 +4501,53 @@
         <v>1</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC107" s="0" t="s">
-        <v>346</v>
+        <v>60</v>
       </c>
       <c r="AD107" s="0" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
       <c r="AE107" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="AF107" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R108" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC108" s="0" t="s">
         <v>350</v>
       </c>
       <c r="AD108" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="AE108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF108" s="0" t="s">
+      <c r="AE108" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="AG108" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG108" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH108" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>3</v>
@@ -4517,125 +4559,125 @@
         <v>1</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R109" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X109" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC109" s="0" t="s">
         <v>356</v>
       </c>
       <c r="AD109" s="0" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="AE109" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="AF109" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R110" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="AD110" s="0" t="s">
-        <v>154</v>
+        <v>359</v>
       </c>
       <c r="AE110" s="0" t="s">
-        <v>326</v>
+        <v>155</v>
+      </c>
+      <c r="AF110" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AD111" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="AE111" s="0" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="112" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>316</v>
+      </c>
+      <c r="AF111" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C112" s="3" t="n">
         <v>7</v>
       </c>
       <c r="P112" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD112" s="3" t="s">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AE112" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+      <c r="AF112" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R113" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC113" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="AD113" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE113" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+      <c r="AD113" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE113" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF113" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>6</v>
@@ -4644,24 +4686,24 @@
         <v>1</v>
       </c>
       <c r="P114" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q114" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD114" s="0" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="AE114" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+      <c r="AF114" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>6</v>
@@ -4670,27 +4712,27 @@
         <v>1</v>
       </c>
       <c r="P115" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC115" s="0" t="s">
         <v>367</v>
       </c>
       <c r="AD115" s="0" t="s">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="AE115" s="0" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="116" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="AF115" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C116" s="4" t="n">
         <v>8</v>
@@ -4699,64 +4741,64 @@
         <v>2</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T116" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AC116" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="AD116" s="4" t="s">
-        <v>94</v>
+        <v>371</v>
       </c>
       <c r="AE116" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="AF116" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C117" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD117" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AE117" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="AF117" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="118" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD118" s="3" t="s">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="AE118" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="AF118" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>8</v>
@@ -4765,53 +4807,53 @@
         <v>1</v>
       </c>
       <c r="P119" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q119" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="X119" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD119" s="0" t="s">
-        <v>71</v>
+        <v>376</v>
       </c>
       <c r="AE119" s="0" t="s">
-        <v>126</v>
+        <v>72</v>
+      </c>
+      <c r="AF119" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>7</v>
       </c>
       <c r="S120" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T120" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U120" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V120" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD120" s="0" t="s">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="AE120" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+      <c r="AF120" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>20</v>
@@ -4823,90 +4865,90 @@
         <v>2</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD121" s="0" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="AE121" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="AF121" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P122" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T122" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD122" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="AE122" s="0" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="AF122" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P123" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD123" s="0" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="AE123" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="AF123" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="P124" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S124" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD124" s="0" t="s">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="AE124" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="AF124" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>9</v>
@@ -4915,53 +4957,53 @@
         <v>2</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T125" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AC125" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="AD125" s="4" t="s">
-        <v>130</v>
+        <v>387</v>
       </c>
       <c r="AE125" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="126" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="AF125" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C126" s="3" t="n">
         <v>11</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC126" s="3" t="s">
         <v>389</v>
       </c>
       <c r="AD126" s="3" t="s">
-        <v>281</v>
+        <v>390</v>
       </c>
       <c r="AE126" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+      <c r="AF126" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>11</v>
@@ -4970,24 +5012,24 @@
         <v>2</v>
       </c>
       <c r="P127" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z127" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD127" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE127" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+      <c r="AE127" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF127" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>8</v>
@@ -4996,44 +5038,44 @@
         <v>1</v>
       </c>
       <c r="P128" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD128" s="0" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="AE128" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="129" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="AF128" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C129" s="3" t="n">
         <v>11</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S129" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AD129" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="AE129" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="AF129" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>10</v>
@@ -5042,79 +5084,79 @@
         <v>1</v>
       </c>
       <c r="P130" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q130" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="X130" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC130" s="0" t="s">
         <v>396</v>
       </c>
       <c r="AD130" s="0" t="s">
-        <v>46</v>
+        <v>397</v>
       </c>
       <c r="AE130" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="AF130" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P131" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD131" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE131" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="132" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="AF131" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C132" s="3" t="n">
         <v>8</v>
       </c>
       <c r="P132" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AC132" s="3" t="s">
         <v>402</v>
       </c>
       <c r="AD132" s="3" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
       <c r="AE132" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="AF132" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>8</v>
@@ -5123,25 +5165,25 @@
         <v>2</v>
       </c>
       <c r="P133" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R133" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD133" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE133" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF133" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B134" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="AE133" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="C134" s="0" t="n">
         <v>8</v>
       </c>
@@ -5149,18 +5191,18 @@
         <v>1</v>
       </c>
       <c r="P134" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD134" s="0" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="AE134" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+      <c r="AF134" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>4</v>
@@ -5169,7 +5211,7 @@
         <v>8</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J135" s="0" t="n">
         <v>1</v>
@@ -5178,53 +5220,53 @@
         <v>1</v>
       </c>
       <c r="P135" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R135" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="AD135" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="AE135" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF135" s="0" t="s">
+      <c r="AE135" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="AG135" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AF135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG135" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH135" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C136" s="3" t="n">
         <v>8</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R136" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD136" s="3" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="AE136" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+      <c r="AF136" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>3</v>
@@ -5239,24 +5281,24 @@
         <v>2</v>
       </c>
       <c r="P137" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z137" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD137" s="0" t="s">
-        <v>299</v>
+        <v>115</v>
       </c>
       <c r="AE137" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="AF137" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>10</v>
@@ -5265,136 +5307,136 @@
         <v>2</v>
       </c>
       <c r="P138" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="W138" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="AC138" s="0" t="s">
         <v>418</v>
       </c>
       <c r="AD138" s="0" t="s">
-        <v>154</v>
+        <v>419</v>
       </c>
       <c r="AE138" s="0" t="s">
-        <v>72</v>
+        <v>155</v>
+      </c>
+      <c r="AF138" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>11</v>
       </c>
       <c r="S139" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="AD139" s="0" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="AE139" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+      <c r="AF139" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P140" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA140" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD140" s="0" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="AE140" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="AF140" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>6</v>
       </c>
       <c r="P141" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA141" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD141" s="0" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AE141" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="142" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="AF141" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C142" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC142" s="3" t="s">
-        <v>424</v>
+        <v>60</v>
       </c>
       <c r="AD142" s="3" t="s">
-        <v>176</v>
+        <v>425</v>
       </c>
       <c r="AE142" s="3" t="s">
-        <v>35</v>
+        <v>177</v>
+      </c>
+      <c r="AF142" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="143" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="AD143" s="3" t="s">
-        <v>125</v>
+        <v>427</v>
       </c>
       <c r="AE143" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="144" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="AF143" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C144" s="3" t="n">
         <v>8</v>
@@ -5403,53 +5445,53 @@
         <v>1</v>
       </c>
       <c r="P144" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y144" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD144" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE144" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF144" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B145" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q144" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y144" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC144" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD144" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE144" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="C145" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P145" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R145" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD145" s="0" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="AE145" s="0" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="AF145" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>11</v>
@@ -5458,124 +5500,124 @@
         <v>1</v>
       </c>
       <c r="P146" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC146" s="0" t="s">
-        <v>433</v>
+        <v>43</v>
       </c>
       <c r="AD146" s="0" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="AE146" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="AF146" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P147" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD147" s="0" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AE147" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="148" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="AF147" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C148" s="3" t="n">
         <v>14</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD148" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="AE148" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="AF148" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P149" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R149" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="AD149" s="0" t="s">
-        <v>225</v>
+        <v>439</v>
       </c>
       <c r="AE149" s="0" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+      <c r="AF149" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P150" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R150" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="AD150" s="0" t="s">
-        <v>66</v>
+        <v>441</v>
       </c>
       <c r="AE150" s="0" t="s">
-        <v>441</v>
+        <v>67</v>
+      </c>
+      <c r="AF150" s="0" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="AD151" s="0" t="s">
-        <v>270</v>
-      </c>
       <c r="AE151" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+      <c r="AF151" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>3</v>
@@ -5584,67 +5626,67 @@
         <v>8</v>
       </c>
       <c r="P152" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD152" s="0" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="AE152" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="AF152" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>7</v>
       </c>
       <c r="P153" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T153" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD153" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="AE153" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="AF153" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P154" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R154" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="AD154" s="0" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="AE154" s="0" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+      <c r="AF154" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>9</v>
@@ -5653,90 +5695,90 @@
         <v>2</v>
       </c>
       <c r="P155" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q155" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="AD155" s="0" t="s">
-        <v>61</v>
+        <v>450</v>
       </c>
       <c r="AE155" s="0" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="AF155" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>11</v>
       </c>
       <c r="P156" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD156" s="0" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AE156" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+      <c r="AF156" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>7</v>
       </c>
       <c r="P157" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD157" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AE157" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="158" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="AF157" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C158" s="3" t="n">
         <v>9</v>
       </c>
       <c r="P158" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC158" s="3" t="s">
         <v>454</v>
       </c>
       <c r="AD158" s="3" t="s">
-        <v>88</v>
+        <v>455</v>
       </c>
       <c r="AE158" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="AF158" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>8</v>
@@ -5745,42 +5787,42 @@
         <v>2</v>
       </c>
       <c r="P159" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R159" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Y159" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC159" s="0" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="AD159" s="0" t="s">
-        <v>106</v>
+        <v>434</v>
       </c>
       <c r="AE159" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="AF159" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>8</v>
       </c>
       <c r="P160" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD160" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AE160" s="0" t="s">
-        <v>151</v>
+        <v>47</v>
+      </c>
+      <c r="AF160" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5805,7 +5847,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>
@@ -5816,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5882,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,7 +5890,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,7 +5898,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,7 +5906,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,7 +5914,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,7 +5922,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,7 +5930,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +5938,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5946,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,7 +5962,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,7 +5970,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +5978,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,7 +5986,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,7 +5994,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,7 +6002,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,7 +6010,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,7 +6018,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,7 +6026,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5992,7 +6034,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,7 +6042,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,15 +6050,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,7 +6066,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1614,14 +1614,14 @@
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB14" activeCellId="0" sqref="AB14"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="AB30" activeCellId="0" sqref="AB30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -2127,6 +2127,9 @@
       <c r="R14" s="0" t="s">
         <v>102</v>
       </c>
+      <c r="AB14" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AD14" s="0" t="s">
         <v>103</v>
       </c>
@@ -2153,6 +2156,9 @@
       <c r="P15" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="AB15" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AD15" s="0" t="s">
         <v>106</v>
       </c>
@@ -2182,6 +2188,9 @@
       <c r="T16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB16" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE16" s="0" t="s">
         <v>79</v>
       </c>
@@ -2202,6 +2211,9 @@
       <c r="P17" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="AB17" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE17" s="0" t="s">
         <v>112</v>
       </c>
@@ -2228,6 +2240,9 @@
       <c r="Z18" s="0" t="s">
         <v>115</v>
       </c>
+      <c r="AB18" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AD18" s="0" t="s">
         <v>116</v>
       </c>
@@ -2260,6 +2275,9 @@
       <c r="R19" s="0" t="s">
         <v>121</v>
       </c>
+      <c r="AB19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AD19" s="0" t="s">
         <v>122</v>
       </c>
@@ -2280,6 +2298,9 @@
       <c r="C20" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="AB20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE20" s="0" t="s">
         <v>126</v>
       </c>
@@ -2303,6 +2324,9 @@
       <c r="R21" s="0" t="s">
         <v>130</v>
       </c>
+      <c r="AB21" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE21" s="0" t="s">
         <v>131</v>
       </c>
@@ -2329,6 +2353,9 @@
       <c r="Q22" s="0" t="s">
         <v>134</v>
       </c>
+      <c r="AB22" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AD22" s="0" t="s">
         <v>135</v>
       </c>
@@ -2358,6 +2385,9 @@
       <c r="Q23" s="0" t="s">
         <v>138</v>
       </c>
+      <c r="AB23" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE23" s="0" t="s">
         <v>100</v>
       </c>
@@ -2381,6 +2411,9 @@
       <c r="R24" s="0" t="s">
         <v>141</v>
       </c>
+      <c r="AB24" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE24" s="0" t="s">
         <v>95</v>
       </c>
@@ -2404,6 +2437,9 @@
       <c r="T25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB25" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE25" s="0" t="s">
         <v>112</v>
       </c>
@@ -2436,6 +2472,9 @@
       <c r="R26" s="0" t="s">
         <v>147</v>
       </c>
+      <c r="AB26" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AD26" s="0" t="s">
         <v>148</v>
       </c>
@@ -2459,6 +2498,9 @@
       <c r="P27" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB27" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE27" s="0" t="s">
         <v>95</v>
       </c>
@@ -2482,6 +2524,9 @@
       <c r="R28" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="AB28" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE28" s="0" t="s">
         <v>67</v>
       </c>
@@ -2506,6 +2551,9 @@
         <v>43</v>
       </c>
       <c r="T29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AE29" s="0" t="s">
@@ -5847,7 +5895,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1569,7 +1569,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1579,6 +1579,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1614,14 +1618,14 @@
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AB30" activeCellId="0" sqref="AB30"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="AB43" activeCellId="0" sqref="AB43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -2588,6 +2592,9 @@
       <c r="V30" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="AB30" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AE30" s="3" t="s">
         <v>163</v>
       </c>
@@ -2620,6 +2627,9 @@
       <c r="Y31" s="3" t="n">
         <v>12</v>
       </c>
+      <c r="AB31" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AE31" s="3" t="s">
         <v>163</v>
       </c>
@@ -2643,6 +2653,9 @@
       <c r="V32" s="0" t="s">
         <v>162</v>
       </c>
+      <c r="AB32" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE32" s="0" t="s">
         <v>163</v>
       </c>
@@ -2666,6 +2679,9 @@
       <c r="R33" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="AB33" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="AE33" s="3" t="s">
         <v>52</v>
       </c>
@@ -2692,6 +2708,9 @@
       <c r="S34" s="0" t="s">
         <v>171</v>
       </c>
+      <c r="AB34" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="AE34" s="0" t="s">
         <v>107</v>
       </c>
@@ -2718,6 +2737,9 @@
       <c r="U35" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="AB35" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AD35" s="3" t="s">
         <v>176</v>
       </c>
@@ -2744,6 +2766,9 @@
       <c r="R36" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="AB36" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AD36" s="3" t="s">
         <v>181</v>
       </c>
@@ -2788,6 +2813,9 @@
       <c r="S37" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="AB37" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="AE37" s="4" t="s">
         <v>117</v>
       </c>
@@ -2808,6 +2836,9 @@
       <c r="P38" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="AB38" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AE38" s="3" t="s">
         <v>187</v>
       </c>
@@ -2828,6 +2859,9 @@
       <c r="P39" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="AB39" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AE39" s="3" t="s">
         <v>112</v>
       </c>
@@ -2854,6 +2888,9 @@
       <c r="T40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB40" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE40" s="0" t="s">
         <v>192</v>
       </c>
@@ -2886,6 +2923,9 @@
       <c r="R41" s="0" t="s">
         <v>196</v>
       </c>
+      <c r="AB41" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE41" s="0" t="s">
         <v>155</v>
       </c>
@@ -2909,6 +2949,9 @@
       <c r="P42" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="AB42" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE42" s="0" t="s">
         <v>67</v>
       </c>
@@ -4775,32 +4818,32 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
+    <row r="116" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C116" s="4" t="n">
+      <c r="C116" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="N116" s="4" t="n">
+      <c r="N116" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="P116" s="4" t="s">
+      <c r="P116" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T116" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD116" s="4" t="s">
+      <c r="T116" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AE116" s="4" t="s">
+      <c r="AE116" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AF116" s="4" t="s">
+      <c r="AF116" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4991,32 +5034,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
+    <row r="125" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="4" t="n">
+      <c r="C125" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="N125" s="4" t="n">
+      <c r="N125" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="P125" s="4" t="s">
+      <c r="P125" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T125" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD125" s="4" t="s">
+      <c r="T125" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD125" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="AE125" s="4" t="s">
+      <c r="AE125" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AF125" s="4" t="s">
+      <c r="AF125" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5895,7 +5938,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>
@@ -6025,7 +6068,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6033,7 +6076,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>474</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1569,7 +1569,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1579,10 +1579,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1618,14 +1614,14 @@
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="AB43" activeCellId="0" sqref="AB43"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="AB64" activeCellId="0" sqref="AB64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -2779,47 +2775,47 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4" t="s">
+      <c r="D37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S37" s="4" t="s">
+      <c r="S37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AB37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="4" t="s">
+      <c r="AB37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF37" s="4" t="s">
+      <c r="AF37" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2837,7 +2833,7 @@
         <v>83</v>
       </c>
       <c r="AB38" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="3" t="s">
         <v>187</v>
@@ -2978,6 +2974,9 @@
       <c r="R43" s="0" t="s">
         <v>201</v>
       </c>
+      <c r="AB43" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE43" s="0" t="s">
         <v>163</v>
       </c>
@@ -3004,6 +3003,9 @@
       <c r="Q44" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="AB44" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AD44" s="0" t="s">
         <v>203</v>
       </c>
@@ -3039,6 +3041,9 @@
       <c r="Z45" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="AB45" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AE45" s="3" t="s">
         <v>89</v>
       </c>
@@ -3059,6 +3064,9 @@
       <c r="P46" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="AB46" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AD46" s="3" t="s">
         <v>210</v>
       </c>
@@ -3091,6 +3099,9 @@
       <c r="Q47" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="AB47" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE47" s="0" t="s">
         <v>182</v>
       </c>
@@ -3117,6 +3128,9 @@
       <c r="AA48" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="AB48" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="AE48" s="0" t="s">
         <v>217</v>
       </c>
@@ -3143,6 +3157,9 @@
       <c r="T49" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="AB49" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AD49" s="0" t="s">
         <v>219</v>
       </c>
@@ -3172,6 +3189,9 @@
       <c r="R50" s="0" t="s">
         <v>221</v>
       </c>
+      <c r="AB50" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE50" s="0" t="s">
         <v>72</v>
       </c>
@@ -3198,6 +3218,9 @@
       <c r="X51" s="0" t="s">
         <v>225</v>
       </c>
+      <c r="AB51" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE51" s="0" t="s">
         <v>226</v>
       </c>
@@ -3227,6 +3250,9 @@
       <c r="T52" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="AB52" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AD52" s="3" t="s">
         <v>230</v>
       </c>
@@ -3250,6 +3276,9 @@
       <c r="S53" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="AB53" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="AE53" s="3" t="s">
         <v>126</v>
       </c>
@@ -3276,6 +3305,9 @@
       <c r="R54" s="0" t="s">
         <v>236</v>
       </c>
+      <c r="AB54" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE54" s="0" t="s">
         <v>89</v>
       </c>
@@ -3299,6 +3331,9 @@
       <c r="S55" s="0" t="s">
         <v>239</v>
       </c>
+      <c r="AB55" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE55" s="0" t="s">
         <v>79</v>
       </c>
@@ -3322,6 +3357,9 @@
       <c r="R56" s="0" t="s">
         <v>241</v>
       </c>
+      <c r="AB56" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AD56" s="0" t="s">
         <v>242</v>
       </c>
@@ -3345,6 +3383,9 @@
       <c r="P57" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="AB57" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE57" s="0" t="s">
         <v>187</v>
       </c>
@@ -3365,6 +3406,9 @@
       <c r="P58" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB58" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE58" s="0" t="s">
         <v>247</v>
       </c>
@@ -3382,6 +3426,9 @@
       <c r="C59" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="AB59" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE59" s="0" t="s">
         <v>251</v>
       </c>
@@ -3408,6 +3455,9 @@
       <c r="Q60" s="0" t="s">
         <v>254</v>
       </c>
+      <c r="AB60" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="AD60" s="0" t="s">
         <v>255</v>
       </c>
@@ -3431,6 +3481,9 @@
       <c r="P61" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="AB61" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="AE61" s="0" t="s">
         <v>187</v>
       </c>
@@ -3451,6 +3504,9 @@
       <c r="P62" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB62" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE62" s="0" t="s">
         <v>47</v>
       </c>
@@ -3483,6 +3539,9 @@
       <c r="R63" s="0" t="s">
         <v>261</v>
       </c>
+      <c r="AB63" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AD63" s="0" t="s">
         <v>262</v>
       </c>
@@ -4818,32 +4877,32 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="s">
+    <row r="116" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C116" s="5" t="n">
+      <c r="C116" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="N116" s="5" t="n">
+      <c r="N116" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="P116" s="5" t="s">
+      <c r="P116" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T116" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD116" s="5" t="s">
+      <c r="T116" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="AE116" s="5" t="s">
+      <c r="AE116" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AF116" s="5" t="s">
+      <c r="AF116" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5034,32 +5093,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="5" t="s">
+    <row r="125" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="5" t="n">
+      <c r="C125" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="N125" s="5" t="n">
+      <c r="N125" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="P125" s="5" t="s">
+      <c r="P125" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T125" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD125" s="5" t="s">
+      <c r="T125" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD125" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="AE125" s="5" t="s">
+      <c r="AE125" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AF125" s="5" t="s">
+      <c r="AF125" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5938,7 +5997,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>
@@ -6068,7 +6127,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6076,7 +6135,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>474</v>
       </c>
     </row>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -1614,14 +1614,14 @@
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="AB64" activeCellId="0" sqref="AB64"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="AB65" activeCellId="0" sqref="AB65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -3577,6 +3577,9 @@
       <c r="S64" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB64" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE64" s="0" t="s">
         <v>247</v>
       </c>
@@ -5997,7 +6000,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -830,7 +830,7 @@
     <t xml:space="preserve">6 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Inescapable “Kyln” Space Prison</t>
+    <t xml:space="preserve">Inescapable "Kyln" Space Prison</t>
   </si>
   <si>
     <t xml:space="preserve">GOTG2</t>
@@ -1618,10 +1618,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="AB65" activeCellId="0" sqref="AB65"/>
+      <selection pane="bottomRight" activeCell="AB68" activeCellId="0" sqref="AB68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -3612,6 +3612,9 @@
       <c r="Y65" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="AB65" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE65" s="0" t="s">
         <v>117</v>
       </c>
@@ -3641,6 +3644,9 @@
       <c r="Q66" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="AB66" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE66" s="0" t="s">
         <v>67</v>
       </c>
@@ -3658,7 +3664,10 @@
       <c r="C67" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="X67" s="0" t="n">
+      <c r="T67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AE67" s="0" t="s">
@@ -6000,7 +6009,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="487">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -843,6 +843,9 @@
   </si>
   <si>
     <t xml:space="preserve">Infiltrate the Lair with Spies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">21 bystanders next to scheme</t>
@@ -1614,14 +1617,14 @@
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="AB68" activeCellId="0" sqref="AB68"/>
+      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="AB95" activeCellId="0" sqref="AB95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -3699,8 +3702,11 @@
       <c r="Q68" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="AB68" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AD68" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE68" s="0" t="s">
         <v>100</v>
@@ -3711,7 +3717,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>224</v>
@@ -3725,8 +3731,11 @@
       <c r="P69" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="AB69" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AD69" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AE69" s="0" t="s">
         <v>226</v>
@@ -3737,10 +3746,10 @@
     </row>
     <row r="70" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>8</v>
@@ -3749,13 +3758,16 @@
         <v>83</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U70" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="AB70" s="3" t="n">
+        <v>-1</v>
+      </c>
       <c r="AD70" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AE70" s="3" t="s">
         <v>72</v>
@@ -3766,7 +3778,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>43</v>
@@ -3783,16 +3795,19 @@
       <c r="U71" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB71" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="AE71" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF71" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>70</v>
@@ -3803,16 +3818,19 @@
       <c r="P72" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB72" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE72" s="0" t="s">
         <v>72</v>
       </c>
       <c r="AF72" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>209</v>
@@ -3826,6 +3844,9 @@
       <c r="P73" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="AB73" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE73" s="0" t="s">
         <v>211</v>
       </c>
@@ -3835,7 +3856,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>105</v>
@@ -3852,6 +3873,9 @@
       <c r="P74" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="AB74" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE74" s="0" t="s">
         <v>107</v>
       </c>
@@ -3861,7 +3885,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>98</v>
@@ -3876,21 +3900,24 @@
         <v>36</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="AB75" s="0" t="s">
+        <v>274</v>
       </c>
       <c r="AE75" s="0" t="s">
         <v>100</v>
       </c>
       <c r="AF75" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>92</v>
@@ -3908,10 +3935,13 @@
         <v>254</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="AB76" s="3" t="n">
+        <v>-1</v>
       </c>
       <c r="AD76" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AE76" s="3" t="s">
         <v>95</v>
@@ -3922,7 +3952,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>154</v>
@@ -3936,16 +3966,19 @@
       <c r="P77" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="AB77" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE77" s="0" t="s">
         <v>155</v>
       </c>
       <c r="AF77" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>43</v>
@@ -3966,21 +3999,24 @@
         <v>146</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z78" s="0" t="s">
         <v>115</v>
       </c>
+      <c r="AB78" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE78" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF78" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>3</v>
@@ -4003,16 +4039,19 @@
       <c r="Y79" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="AB79" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE79" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF79" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>42</v>
@@ -4027,13 +4066,16 @@
         <v>36</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="AB80" s="0" t="s">
+        <v>274</v>
       </c>
       <c r="AE80" s="0" t="s">
         <v>47</v>
@@ -4044,7 +4086,7 @@
     </row>
     <row r="81" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>87</v>
@@ -4056,21 +4098,24 @@
         <v>60</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="AD81" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AE81" s="3" t="s">
         <v>89</v>
       </c>
       <c r="AF81" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>3</v>
@@ -4087,16 +4132,19 @@
       <c r="U82" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB82" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE82" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF82" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>65</v>
@@ -4116,6 +4164,9 @@
       <c r="Q83" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="AB83" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE83" s="0" t="s">
         <v>67</v>
       </c>
@@ -4125,7 +4176,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>42</v>
@@ -4136,6 +4187,9 @@
       <c r="P84" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB84" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE84" s="0" t="s">
         <v>47</v>
       </c>
@@ -4145,7 +4199,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>105</v>
@@ -4160,21 +4214,24 @@
         <v>36</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W85" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="AB85" s="0" t="s">
+        <v>274</v>
       </c>
       <c r="AE85" s="0" t="s">
         <v>107</v>
       </c>
       <c r="AF85" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>92</v>
@@ -4194,6 +4251,9 @@
       <c r="Z86" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AB86" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE86" s="0" t="s">
         <v>95</v>
       </c>
@@ -4203,7 +4263,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>43</v>
@@ -4217,8 +4277,11 @@
       <c r="P87" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB87" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE87" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF87" s="0" t="s">
         <v>40</v>
@@ -4226,16 +4289,19 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="AB88" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="AE88" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF88" s="0" t="s">
         <v>136</v>
@@ -4243,19 +4309,22 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z89" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="AB89" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="AE89" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF89" s="0" t="s">
         <v>85</v>
@@ -4263,7 +4332,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>3</v>
@@ -4274,8 +4343,11 @@
       <c r="P90" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB90" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE90" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF90" s="0" t="s">
         <v>90</v>
@@ -4283,7 +4355,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>65</v>
@@ -4300,25 +4372,31 @@
       <c r="T91" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB91" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE91" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AF91" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="AB92" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="AE92" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF92" s="0" t="s">
         <v>144</v>
@@ -4326,7 +4404,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>270</v>
@@ -4337,6 +4415,9 @@
       <c r="T93" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB93" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE93" s="0" t="s">
         <v>271</v>
       </c>
@@ -4346,7 +4427,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>35</v>
@@ -4360,16 +4441,19 @@
       <c r="P94" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="AB94" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE94" s="0" t="s">
         <v>39</v>
       </c>
       <c r="AF94" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>70</v>
@@ -4384,12 +4468,12 @@
         <v>72</v>
       </c>
       <c r="AF95" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>82</v>
@@ -4409,7 +4493,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>82</v>
@@ -4429,7 +4513,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>59</v>
@@ -4447,12 +4531,12 @@
         <v>62</v>
       </c>
       <c r="AF98" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>186</v>
@@ -4467,12 +4551,12 @@
         <v>187</v>
       </c>
       <c r="AF99" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>3</v>
@@ -4493,10 +4577,10 @@
         <v>18</v>
       </c>
       <c r="AD100" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AE100" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF100" s="0" t="s">
         <v>207</v>
@@ -4504,7 +4588,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>98</v>
@@ -4527,7 +4611,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>65</v>
@@ -4545,12 +4629,12 @@
         <v>67</v>
       </c>
       <c r="AF102" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>174</v>
@@ -4568,29 +4652,29 @@
         <v>177</v>
       </c>
       <c r="AF103" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE104" s="3" t="s">
         <v>251</v>
       </c>
       <c r="AF104" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>105</v>
@@ -4622,7 +4706,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>18</v>
@@ -4640,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="AD106" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AE106" s="0" t="s">
         <v>182</v>
@@ -4651,7 +4735,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>246</v>
@@ -4666,7 +4750,7 @@
         <v>60</v>
       </c>
       <c r="AD107" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AE107" s="0" t="s">
         <v>247</v>
@@ -4677,31 +4761,31 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P108" s="0" t="s">
         <v>83</v>
       </c>
       <c r="R108" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AD108" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AE108" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF108" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AG108" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AH108" s="0" t="n">
         <v>1</v>
@@ -4709,7 +4793,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>3</v>
@@ -4727,19 +4811,19 @@
         <v>138</v>
       </c>
       <c r="R109" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S109" s="0" t="s">
         <v>171</v>
       </c>
       <c r="X109" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AD109" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AE109" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF109" s="0" t="s">
         <v>237</v>
@@ -4747,7 +4831,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>154</v>
@@ -4759,35 +4843,35 @@
         <v>60</v>
       </c>
       <c r="R110" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AE110" s="0" t="s">
         <v>155</v>
       </c>
       <c r="AF110" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>6</v>
       </c>
       <c r="AE111" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF111" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>246</v>
@@ -4810,7 +4894,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>87</v>
@@ -4822,10 +4906,10 @@
         <v>60</v>
       </c>
       <c r="R113" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AD113" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE113" s="0" t="s">
         <v>89</v>
@@ -4836,7 +4920,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>215</v>
@@ -4862,7 +4946,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>154</v>
@@ -4877,21 +4961,21 @@
         <v>36</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AD115" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE115" s="0" t="s">
         <v>155</v>
       </c>
       <c r="AF115" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>92</v>
@@ -4909,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="AD116" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE116" s="4" t="s">
         <v>95</v>
@@ -4920,7 +5004,7 @@
     </row>
     <row r="117" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>82</v>
@@ -4940,13 +5024,13 @@
     </row>
     <row r="118" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE118" s="3" t="s">
         <v>126</v>
@@ -4957,10 +5041,10 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>8</v>
@@ -4972,10 +5056,10 @@
         <v>36</v>
       </c>
       <c r="Q119" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="X119" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AE119" s="0" t="s">
         <v>72</v>
@@ -4986,7 +5070,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>270</v>
@@ -4998,13 +5082,13 @@
         <v>88</v>
       </c>
       <c r="T120" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U120" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V120" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AE120" s="0" t="s">
         <v>271</v>
@@ -5015,7 +5099,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>20</v>
@@ -5038,7 +5122,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>105</v>
@@ -5056,12 +5140,12 @@
         <v>107</v>
       </c>
       <c r="AF122" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>87</v>
@@ -5081,13 +5165,13 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L124" s="0" t="n">
         <v>2</v>
@@ -5099,7 +5183,7 @@
         <v>161</v>
       </c>
       <c r="AE124" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF124" s="0" t="s">
         <v>40</v>
@@ -5107,7 +5191,7 @@
     </row>
     <row r="125" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>129</v>
@@ -5125,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="AD125" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AE125" s="4" t="s">
         <v>131</v>
@@ -5136,7 +5220,7 @@
     </row>
     <row r="126" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>43</v>
@@ -5148,21 +5232,21 @@
         <v>60</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AD126" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE126" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF126" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>42</v>
@@ -5188,10 +5272,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>8</v>
@@ -5211,7 +5295,7 @@
     </row>
     <row r="129" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>50</v>
@@ -5234,7 +5318,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>42</v>
@@ -5249,24 +5333,24 @@
         <v>36</v>
       </c>
       <c r="Q130" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="X130" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AD130" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AE130" s="0" t="s">
         <v>47</v>
       </c>
       <c r="AF130" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>59</v>
@@ -5286,7 +5370,7 @@
     </row>
     <row r="132" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>129</v>
@@ -5298,13 +5382,13 @@
         <v>36</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AD132" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AE132" s="3" t="s">
         <v>131</v>
@@ -5315,7 +5399,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>154</v>
@@ -5330,7 +5414,7 @@
         <v>43</v>
       </c>
       <c r="R133" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AE133" s="0" t="s">
         <v>155</v>
@@ -5341,7 +5425,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>154</v>
@@ -5359,12 +5443,12 @@
         <v>155</v>
       </c>
       <c r="AF134" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>4</v>
@@ -5373,7 +5457,7 @@
         <v>8</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J135" s="0" t="n">
         <v>1</v>
@@ -5385,16 +5469,16 @@
         <v>60</v>
       </c>
       <c r="R135" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AE135" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AG135" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AH135" s="0" t="n">
         <v>1</v>
@@ -5402,7 +5486,7 @@
     </row>
     <row r="136" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>224</v>
@@ -5414,10 +5498,10 @@
         <v>43</v>
       </c>
       <c r="R136" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AE136" s="3" t="s">
         <v>226</v>
@@ -5428,7 +5512,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>3</v>
@@ -5449,15 +5533,15 @@
         <v>115</v>
       </c>
       <c r="AE137" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF137" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>154</v>
@@ -5472,13 +5556,13 @@
         <v>36</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W138" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AD138" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AE138" s="0" t="s">
         <v>155</v>
@@ -5489,7 +5573,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>250</v>
@@ -5498,7 +5582,7 @@
         <v>11</v>
       </c>
       <c r="S139" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AE139" s="0" t="s">
         <v>251</v>
@@ -5509,7 +5593,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>209</v>
@@ -5527,12 +5611,12 @@
         <v>211</v>
       </c>
       <c r="AF140" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>75</v>
@@ -5555,7 +5639,7 @@
     </row>
     <row r="142" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>174</v>
@@ -5567,7 +5651,7 @@
         <v>60</v>
       </c>
       <c r="AD142" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE142" s="3" t="s">
         <v>177</v>
@@ -5578,13 +5662,13 @@
     </row>
     <row r="143" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AE143" s="3" t="s">
         <v>126</v>
@@ -5595,7 +5679,7 @@
     </row>
     <row r="144" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>105</v>
@@ -5610,13 +5694,13 @@
         <v>36</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y144" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AD144" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AE144" s="3" t="s">
         <v>107</v>
@@ -5627,30 +5711,30 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P145" s="0" t="s">
         <v>83</v>
       </c>
       <c r="R145" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AE145" s="0" t="s">
         <v>39</v>
       </c>
       <c r="AF145" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>35</v>
@@ -5665,7 +5749,7 @@
         <v>43</v>
       </c>
       <c r="AD146" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE146" s="0" t="s">
         <v>39</v>
@@ -5676,13 +5760,13 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>129</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P147" s="0" t="s">
         <v>60</v>
@@ -5691,12 +5775,12 @@
         <v>131</v>
       </c>
       <c r="AF147" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>50</v>
@@ -5716,30 +5800,30 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>224</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P149" s="0" t="s">
         <v>83</v>
       </c>
       <c r="R149" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AE149" s="0" t="s">
         <v>226</v>
       </c>
       <c r="AF149" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>65</v>
@@ -5751,18 +5835,18 @@
         <v>83</v>
       </c>
       <c r="R150" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE150" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AF150" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>270</v>
@@ -5779,7 +5863,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>3</v>
@@ -5791,7 +5875,7 @@
         <v>60</v>
       </c>
       <c r="AE152" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF152" s="0" t="s">
         <v>248</v>
@@ -5799,7 +5883,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>111</v>
@@ -5822,7 +5906,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>174</v>
@@ -5834,18 +5918,18 @@
         <v>83</v>
       </c>
       <c r="R154" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AE154" s="0" t="s">
         <v>177</v>
       </c>
       <c r="AF154" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>59</v>
@@ -5860,7 +5944,7 @@
         <v>36</v>
       </c>
       <c r="Q155" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AE155" s="0" t="s">
         <v>62</v>
@@ -5871,7 +5955,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>250</v>
@@ -5891,10 +5975,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>7</v>
@@ -5911,7 +5995,7 @@
     </row>
     <row r="158" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>87</v>
@@ -5923,10 +6007,10 @@
         <v>60</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AD158" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AE158" s="3" t="s">
         <v>89</v>
@@ -5937,7 +6021,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>105</v>
@@ -5952,13 +6036,13 @@
         <v>71</v>
       </c>
       <c r="R159" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y159" s="0" t="s">
         <v>46</v>
       </c>
       <c r="AD159" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE159" s="0" t="s">
         <v>107</v>
@@ -5969,7 +6053,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>42</v>
@@ -6009,7 +6093,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>
@@ -6020,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6036,7 +6120,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,7 +6128,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6052,7 +6136,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,7 +6144,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6068,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +6168,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6092,7 +6176,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,7 +6184,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,7 +6192,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,7 +6200,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6124,7 +6208,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6132,7 +6216,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6140,7 +6224,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,7 +6232,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,7 +6240,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,7 +6248,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6172,7 +6256,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,7 +6264,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6188,7 +6272,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6196,7 +6280,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6204,7 +6288,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6212,15 +6296,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,7 +6312,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="487">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1617,14 +1617,14 @@
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N88" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
-      <selection pane="bottomRight" activeCell="AB95" activeCellId="0" sqref="AB95"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
+      <selection pane="bottomRight" activeCell="AB110" activeCellId="0" sqref="AB110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -4464,6 +4464,9 @@
       <c r="P95" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB95" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE95" s="0" t="s">
         <v>72</v>
       </c>
@@ -4484,6 +4487,9 @@
       <c r="P96" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB96" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE96" s="0" t="s">
         <v>84</v>
       </c>
@@ -4504,6 +4510,9 @@
       <c r="P97" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="AB97" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE97" s="0" t="s">
         <v>84</v>
       </c>
@@ -4527,6 +4536,9 @@
       <c r="P98" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="AB98" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE98" s="0" t="s">
         <v>62</v>
       </c>
@@ -4547,6 +4559,9 @@
       <c r="P99" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="AB99" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="AE99" s="0" t="s">
         <v>187</v>
       </c>
@@ -4576,6 +4591,9 @@
       <c r="Y100" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="AB100" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AD100" s="0" t="s">
         <v>336</v>
       </c>
@@ -4602,6 +4620,9 @@
       <c r="P101" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="AB101" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE101" s="0" t="s">
         <v>100</v>
       </c>
@@ -4625,6 +4646,9 @@
       <c r="S102" s="0" t="s">
         <v>88</v>
       </c>
+      <c r="AB102" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE102" s="0" t="s">
         <v>67</v>
       </c>
@@ -4648,6 +4672,9 @@
       <c r="P103" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="AB103" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="AE103" s="3" t="s">
         <v>177</v>
       </c>
@@ -4665,6 +4692,9 @@
       <c r="C104" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="AB104" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="AE104" s="3" t="s">
         <v>251</v>
       </c>
@@ -4697,6 +4727,9 @@
       <c r="Q105" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="AB105" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE105" s="0" t="s">
         <v>107</v>
       </c>
@@ -4723,6 +4756,9 @@
       <c r="U106" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB106" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AD106" s="0" t="s">
         <v>346</v>
       </c>
@@ -4749,6 +4785,9 @@
       <c r="P107" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="AB107" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AD107" s="0" t="s">
         <v>348</v>
       </c>
@@ -4775,6 +4814,9 @@
       <c r="R108" s="0" t="s">
         <v>351</v>
       </c>
+      <c r="AB108" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AD108" s="0" t="s">
         <v>352</v>
       </c>
@@ -4818,6 +4860,9 @@
       </c>
       <c r="X109" s="0" t="s">
         <v>357</v>
+      </c>
+      <c r="AB109" s="0" t="s">
+        <v>274</v>
       </c>
       <c r="AD109" s="0" t="s">
         <v>358</v>
@@ -6093,7 +6138,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>

--- a/data/schemes.xlsx
+++ b/data/schemes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="488">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1104,6 +1104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Three extra masterminds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">Seize the Wakandan Throne</t>
@@ -1621,10 +1624,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
-      <selection pane="bottomRight" activeCell="AB110" activeCellId="0" sqref="AB110"/>
+      <selection pane="bottomRight" activeCell="AB112" activeCellId="0" sqref="AB112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.86"/>
@@ -4890,6 +4893,9 @@
       <c r="R110" s="0" t="s">
         <v>360</v>
       </c>
+      <c r="AB110" s="0" t="s">
+        <v>361</v>
+      </c>
       <c r="AE110" s="0" t="s">
         <v>155</v>
       </c>
@@ -4899,7 +4905,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>316</v>
@@ -4907,16 +4913,19 @@
       <c r="C111" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="AB111" s="0" t="s">
+        <v>274</v>
+      </c>
       <c r="AE111" s="0" t="s">
         <v>317</v>
       </c>
       <c r="AF111" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>246</v>
@@ -4939,7 +4948,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>87</v>
@@ -4954,7 +4963,7 @@
         <v>305</v>
       </c>
       <c r="AD113" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE113" s="0" t="s">
         <v>89</v>
@@ -4965,7 +4974,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>215</v>
@@ -4991,7 +5000,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>154</v>
@@ -5006,21 +5015,21 @@
         <v>36</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD115" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE115" s="0" t="s">
         <v>155</v>
       </c>
       <c r="AF115" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>92</v>
@@ -5038,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="AD116" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AE116" s="4" t="s">
         <v>95</v>
@@ -5049,7 +5058,7 @@
     </row>
     <row r="117" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>82</v>
@@ -5069,13 +5078,13 @@
     </row>
     <row r="118" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE118" s="3" t="s">
         <v>126</v>
@@ -5086,7 +5095,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>279</v>
@@ -5101,10 +5110,10 @@
         <v>36</v>
       </c>
       <c r="Q119" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="X119" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AE119" s="0" t="s">
         <v>72</v>
@@ -5115,7 +5124,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>270</v>
@@ -5127,13 +5136,13 @@
         <v>88</v>
       </c>
       <c r="T120" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="U120" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V120" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE120" s="0" t="s">
         <v>271</v>
@@ -5144,7 +5153,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>20</v>
@@ -5167,7 +5176,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>105</v>
@@ -5185,12 +5194,12 @@
         <v>107</v>
       </c>
       <c r="AF122" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>87</v>
@@ -5210,13 +5219,13 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L124" s="0" t="n">
         <v>2</v>
@@ -5236,7 +5245,7 @@
     </row>
     <row r="125" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>129</v>
@@ -5254,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="AD125" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AE125" s="4" t="s">
         <v>131</v>
@@ -5265,7 +5274,7 @@
     </row>
     <row r="126" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>43</v>
@@ -5277,10 +5286,10 @@
         <v>60</v>
       </c>
       <c r="R126" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AD126" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AE126" s="3" t="s">
         <v>283</v>
@@ -5291,7 +5300,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>42</v>
@@ -5317,7 +5326,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>279</v>
@@ -5340,7 +5349,7 @@
     </row>
     <row r="129" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>50</v>
@@ -5363,7 +5372,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>42</v>
@@ -5378,24 +5387,24 @@
         <v>36</v>
       </c>
       <c r="Q130" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="X130" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AD130" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AE130" s="0" t="s">
         <v>47</v>
       </c>
       <c r="AF130" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>59</v>
@@ -5415,7 +5424,7 @@
     </row>
     <row r="132" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>129</v>
@@ -5427,13 +5436,13 @@
         <v>36</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AD132" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AE132" s="3" t="s">
         <v>131</v>
@@ -5444,7 +5453,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>154</v>
@@ -5459,7 +5468,7 @@
         <v>43</v>
       </c>
       <c r="R133" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AE133" s="0" t="s">
         <v>155</v>
@@ -5470,7 +5479,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>154</v>
@@ -5493,7 +5502,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>4</v>
@@ -5502,7 +5511,7 @@
         <v>8</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J135" s="0" t="n">
         <v>1</v>
@@ -5514,16 +5523,16 @@
         <v>60</v>
       </c>
       <c r="R135" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AE135" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF135" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AG135" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AH135" s="0" t="n">
         <v>1</v>
@@ -5531,7 +5540,7 @@
     </row>
     <row r="136" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>224</v>
@@ -5543,10 +5552,10 @@
         <v>43</v>
       </c>
       <c r="R136" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="X136" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AE136" s="3" t="s">
         <v>226</v>
@@ -5557,7 +5566,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>3</v>
@@ -5586,7 +5595,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>154</v>
@@ -5601,13 +5610,13 @@
         <v>36</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W138" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD138" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE138" s="0" t="s">
         <v>155</v>
@@ -5618,7 +5627,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>250</v>
@@ -5627,7 +5636,7 @@
         <v>11</v>
       </c>
       <c r="S139" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AE139" s="0" t="s">
         <v>251</v>
@@ -5638,7 +5647,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>209</v>
@@ -5661,7 +5670,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>75</v>
@@ -5684,7 +5693,7 @@
     </row>
     <row r="142" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>174</v>
@@ -5696,7 +5705,7 @@
         <v>60</v>
       </c>
       <c r="AD142" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AE142" s="3" t="s">
         <v>177</v>
@@ -5707,13 +5716,13 @@
     </row>
     <row r="143" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AE143" s="3" t="s">
         <v>126</v>
@@ -5724,7 +5733,7 @@
     </row>
     <row r="144" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>105</v>
@@ -5739,13 +5748,13 @@
         <v>36</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y144" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AD144" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AE144" s="3" t="s">
         <v>107</v>
@@ -5756,30 +5765,30 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P145" s="0" t="s">
         <v>83</v>
       </c>
       <c r="R145" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AE145" s="0" t="s">
         <v>39</v>
       </c>
       <c r="AF145" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>35</v>
@@ -5794,7 +5803,7 @@
         <v>43</v>
       </c>
       <c r="AD146" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AE146" s="0" t="s">
         <v>39</v>
@@ -5805,13 +5814,13 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>129</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P147" s="0" t="s">
         <v>60</v>
@@ -5825,7 +5834,7 @@
     </row>
     <row r="148" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>50</v>
@@ -5845,7 +5854,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>224</v>
@@ -5857,18 +5866,18 @@
         <v>83</v>
       </c>
       <c r="R149" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AE149" s="0" t="s">
         <v>226</v>
       </c>
       <c r="AF149" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>65</v>
@@ -5880,18 +5889,18 @@
         <v>83</v>
       </c>
       <c r="R150" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AE150" s="0" t="s">
         <v>67</v>
       </c>
       <c r="AF150" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>270</v>
@@ -5908,7 +5917,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>3</v>
@@ -5928,7 +5937,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>111</v>
@@ -5951,7 +5960,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>174</v>
@@ -5963,18 +5972,18 @@
         <v>83</v>
       </c>
       <c r="R154" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AE154" s="0" t="s">
         <v>177</v>
       </c>
       <c r="AF154" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>59</v>
@@ -5989,7 +5998,7 @@
         <v>36</v>
       </c>
       <c r="Q155" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AE155" s="0" t="s">
         <v>62</v>
@@ -6000,7 +6009,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>250</v>
@@ -6020,7 +6029,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>279</v>
@@ -6040,7 +6049,7 @@
     </row>
     <row r="158" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>87</v>
@@ -6052,10 +6061,10 @@
         <v>60</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AD158" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE158" s="3" t="s">
         <v>89</v>
@@ -6066,7 +6075,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>105</v>
@@ -6081,13 +6090,13 @@
         <v>71</v>
       </c>
       <c r="R159" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Y159" s="0" t="s">
         <v>46</v>
       </c>
       <c r="AD159" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AE159" s="0" t="s">
         <v>107</v>
@@ -6098,7 +6107,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>42</v>
@@ -6138,7 +6147,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.99"/>
@@ -6149,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,7 +6174,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,7 +6182,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,7 +6190,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,7 +6198,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,7 +6206,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,7 +6214,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,7 +6222,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6221,7 +6230,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,7 +6238,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,7 +6246,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,7 +6254,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,7 +6262,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,7 +6270,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,7 +6278,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,7 +6286,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6285,7 +6294,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,7 +6302,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,7 +6310,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,7 +6318,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,7 +6326,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6325,7 +6334,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6333,7 +6342,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,15 +6350,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6357,7 +6366,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
